--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D8CDB4-1A10-42E9-A898-78EC7DF637CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92859DE3-1798-482D-85FF-87A441862FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$155</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="406">
   <si>
     <t>Titre_1</t>
   </si>
@@ -1240,6 +1240,15 @@
   </si>
   <si>
     <t>ONF</t>
+  </si>
+  <si>
+    <t>http://www.photoflora.fr/index.php</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Photoflora</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,13 +2260,19 @@
         <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>404</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>405</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2271,10 +2286,10 @@
         <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2288,10 +2303,10 @@
         <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2305,10 +2320,10 @@
         <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2322,10 +2337,10 @@
         <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2339,10 +2354,10 @@
         <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2356,10 +2371,10 @@
         <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2373,10 +2388,10 @@
         <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2386,11 +2401,14 @@
       <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2401,10 +2419,10 @@
         <v>63</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2415,10 +2433,10 @@
         <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2426,16 +2444,13 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2449,10 +2464,10 @@
         <v>112</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2460,19 +2475,16 @@
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2480,19 +2492,19 @@
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2505,11 +2517,14 @@
       <c r="C46" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2523,10 +2538,10 @@
         <v>123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2536,11 +2551,14 @@
       <c r="B48" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2551,10 +2569,10 @@
         <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2562,13 +2580,13 @@
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2579,10 +2597,10 @@
         <v>135</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2590,39 +2608,30 @@
         <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G53" s="1">
-        <v>5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2636,50 +2645,53 @@
         <v>67</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2689,11 +2701,17 @@
       <c r="B57" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2704,13 +2722,10 @@
         <v>155</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2718,16 +2733,16 @@
         <v>154</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2737,11 +2752,14 @@
       <c r="B60" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2752,10 +2770,10 @@
         <v>165</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2763,16 +2781,13 @@
         <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2783,16 +2798,13 @@
         <v>173</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2803,13 +2815,16 @@
         <v>173</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>177</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2823,10 +2838,10 @@
         <v>135</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2840,10 +2855,10 @@
         <v>135</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2857,10 +2872,10 @@
         <v>135</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2874,10 +2889,10 @@
         <v>135</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2891,10 +2906,10 @@
         <v>135</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2908,10 +2923,10 @@
         <v>135</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2925,10 +2940,10 @@
         <v>135</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2942,13 +2957,10 @@
         <v>135</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H72" s="1">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2962,10 +2974,13 @@
         <v>135</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2979,10 +2994,10 @@
         <v>135</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2996,10 +3011,10 @@
         <v>135</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3013,10 +3028,10 @@
         <v>135</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3030,13 +3045,10 @@
         <v>135</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3047,13 +3059,16 @@
         <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3064,16 +3079,13 @@
         <v>173</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3090,10 +3102,10 @@
         <v>213</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3110,10 +3122,10 @@
         <v>213</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3123,11 +3135,17 @@
       <c r="B82" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3138,10 +3156,10 @@
         <v>173</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3152,10 +3170,10 @@
         <v>173</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3163,16 +3181,13 @@
         <v>154</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3183,13 +3198,13 @@
         <v>226</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3197,16 +3212,16 @@
         <v>154</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3220,10 +3235,10 @@
         <v>234</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3233,11 +3248,14 @@
       <c r="B89" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="C89" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3245,16 +3263,13 @@
         <v>154</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3265,13 +3280,13 @@
         <v>241</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3282,13 +3297,13 @@
         <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3302,10 +3317,10 @@
         <v>248</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3319,10 +3334,10 @@
         <v>248</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3336,10 +3351,10 @@
         <v>248</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3353,10 +3368,10 @@
         <v>248</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3370,10 +3385,10 @@
         <v>248</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3384,13 +3399,13 @@
         <v>241</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3404,10 +3419,10 @@
         <v>260</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3421,10 +3436,10 @@
         <v>260</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3438,10 +3453,10 @@
         <v>260</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3455,13 +3470,10 @@
         <v>260</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3475,10 +3487,13 @@
         <v>260</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3492,10 +3507,10 @@
         <v>260</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3509,10 +3524,10 @@
         <v>260</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3523,13 +3538,13 @@
         <v>241</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3543,10 +3558,10 @@
         <v>278</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3560,10 +3575,10 @@
         <v>278</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3574,19 +3589,13 @@
         <v>241</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>6</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3597,13 +3606,19 @@
         <v>241</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3617,10 +3632,10 @@
         <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,16 +3643,16 @@
         <v>154</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3651,10 +3666,10 @@
         <v>293</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3662,16 +3677,16 @@
         <v>154</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3681,53 +3696,56 @@
       <c r="B115" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>400</v>
+      <c r="E117" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>308</v>
+        <v>399</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3735,13 +3753,13 @@
         <v>306</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3749,19 +3767,13 @@
         <v>306</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3769,16 +3781,19 @@
         <v>306</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>67</v>
+        <v>314</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3789,13 +3804,13 @@
         <v>318</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3806,16 +3821,13 @@
         <v>318</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3829,13 +3841,13 @@
         <v>50</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3848,11 +3860,14 @@
       <c r="C125" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E125" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3863,16 +3878,13 @@
         <v>318</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3885,11 +3897,14 @@
       <c r="C127" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D127" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3900,16 +3915,13 @@
         <v>318</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D128" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3920,16 +3932,16 @@
         <v>318</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3943,13 +3955,13 @@
         <v>335</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3966,10 +3978,10 @@
         <v>339</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>341</v>
+        <v>105</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3986,10 +3998,10 @@
         <v>339</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4006,10 +4018,10 @@
         <v>339</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4026,10 +4038,10 @@
         <v>339</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4046,10 +4058,10 @@
         <v>339</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4066,10 +4078,10 @@
         <v>339</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4086,10 +4098,10 @@
         <v>339</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4103,13 +4115,13 @@
         <v>335</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4126,10 +4138,10 @@
         <v>355</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4146,10 +4158,10 @@
         <v>355</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4166,10 +4178,10 @@
         <v>355</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4183,13 +4195,13 @@
         <v>335</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4206,10 +4218,10 @@
         <v>364</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4226,10 +4238,10 @@
         <v>364</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4246,10 +4258,10 @@
         <v>364</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4266,10 +4278,10 @@
         <v>364</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4283,13 +4295,13 @@
         <v>335</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4306,10 +4318,10 @@
         <v>375</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4326,10 +4338,10 @@
         <v>375</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4346,10 +4358,10 @@
         <v>375</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4363,13 +4375,13 @@
         <v>335</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>384</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4386,10 +4398,10 @@
         <v>382</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4400,31 +4412,51 @@
         <v>318</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I154" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4449,110 +4481,111 @@
     <hyperlink ref="E28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="E29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="E30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E42" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E46" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E47" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E62" r:id="rId47" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E66" r:id="rId50" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E70" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E73" r:id="rId57" location="/search" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E74" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E75" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E76" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E77" r:id="rId61" location="/home" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E81" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E82" r:id="rId64" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E86" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E90" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E99" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E101" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E102" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E103" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E105" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E106" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E107" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E108" r:id="rId82" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E109" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E111" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E112" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E113" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E114" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E118" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E119" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E120" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E121" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E122" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E123" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E129" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E130" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E131" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E134" r:id="rId105" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E135" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E137" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E138" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E139" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E140" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E141" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E142" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E143" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E144" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E145" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E146" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E147" r:id="rId118" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E148" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E149" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E150" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E151" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E152" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E154" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E117" r:id="rId125" xr:uid="{338D25E1-D24A-460F-99DD-14525782FD18}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E63" r:id="rId47" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E67" r:id="rId50" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E68" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E70" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E74" r:id="rId57" location="/search" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E76" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E77" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E78" r:id="rId61" location="/home" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E79" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E83" r:id="rId64" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E85" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E89" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E100" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E102" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E103" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E104" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E106" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E107" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E108" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E109" r:id="rId82" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E110" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E111" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E112" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E113" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E114" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E115" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E116" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E117" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E119" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E120" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E121" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E122" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E123" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E127" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E128" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E130" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E131" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E132" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E133" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E134" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E135" r:id="rId105" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E136" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E137" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E138" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E139" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E140" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E141" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E142" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E143" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E144" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E145" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E146" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E147" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E148" r:id="rId118" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E149" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E150" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E151" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E152" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E153" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E155" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E118" r:id="rId125" xr:uid="{338D25E1-D24A-460F-99DD-14525782FD18}"/>
+    <hyperlink ref="E31" r:id="rId126" xr:uid="{0F1AF0B0-8D26-4DA3-9F24-F269AFE91202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId127"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92859DE3-1798-482D-85FF-87A441862FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EAF6B-ED79-488E-B338-52C944A42606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$156</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="409">
   <si>
     <t>Titre_1</t>
   </si>
@@ -1249,6 +1249,15 @@
   </si>
   <si>
     <t>Photoflora</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
+  </si>
+  <si>
+    <t>Biodiversité Wallonie</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4443,20 +4452,37 @@
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4581,11 +4607,12 @@
     <hyperlink ref="E151" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="E152" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="E153" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E155" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E156" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="E118" r:id="rId125" xr:uid="{338D25E1-D24A-460F-99DD-14525782FD18}"/>
     <hyperlink ref="E31" r:id="rId126" xr:uid="{0F1AF0B0-8D26-4DA3-9F24-F269AFE91202}"/>
+    <hyperlink ref="E155" r:id="rId127" xr:uid="{F7ABB697-25F1-4838-9CCE-7FEB6B5A70E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId127"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId128"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$157</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve">DREAL PACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://portail-documentaire.cbnmc.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBN Massif Central</t>
   </si>
   <si>
     <t xml:space="preserve">Biodiversite</t>
@@ -454,6 +463,15 @@
     <t xml:space="preserve">Site Guy Bouxin</t>
   </si>
   <si>
+    <t xml:space="preserve">Carhab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn.mnhn.fr/viewer-carto/CarHab/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualisateur Carhab</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://inpn.mnhn.fr/programme/carhab</t>
   </si>
   <si>
@@ -688,9 +706,6 @@
     <t xml:space="preserve">Sandre Eau France</t>
   </si>
   <si>
-    <t xml:space="preserve">Pourles identifiants Biotope contacter Cyril Aboulker ou Augustin Soulard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qfield</t>
   </si>
   <si>
@@ -992,6 +1007,18 @@
   </si>
   <si>
     <t xml:space="preserve">Régions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auvergne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos araignées, insectes, fleurs</t>
   </si>
   <si>
     <t xml:space="preserve">Comores</t>
@@ -1471,10 +1498,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F125" activeCellId="0" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1484,7 +1511,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="81.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="10" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.54"/>
   </cols>
@@ -1614,107 +1641,104 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -1725,44 +1749,44 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>50</v>
@@ -1770,85 +1794,82 @@
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1858,14 +1879,17 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1875,10 +1899,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>68</v>
@@ -1892,82 +1916,76 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>83</v>
@@ -1978,465 +1996,483 @@
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H26" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="H33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2448,48 +2484,33 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,118 +2520,133 @@
       <c r="B57" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="H57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>170</v>
+      <c r="H58" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>186</v>
@@ -2621,33 +2657,27 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>192</v>
@@ -2658,512 +2688,512 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>7</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>264</v>
@@ -3171,64 +3201,64 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>272</v>
@@ -3239,13 +3269,13 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>274</v>
@@ -3256,67 +3286,64 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G104" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>283</v>
@@ -3327,13 +3354,13 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>285</v>
@@ -3341,33 +3368,36 @@
       <c r="F106" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="G106" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>290</v>
@@ -3378,13 +3408,13 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>292</v>
@@ -3395,30 +3425,30 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>297</v>
@@ -3426,22 +3456,16 @@
       <c r="F111" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H111" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>299</v>
@@ -3452,969 +3476,1029 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C119" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>379</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>379</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>379</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>213</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>402</v>
+        <v>359</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>403</v>
+        <v>218</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>404</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E156" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="E156" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="F156" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F157" s="1" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>411</v>
       </c>
+      <c r="E158" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I157"/>
+  <autoFilter ref="A1:I160"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.linneenne-provence.org/"/>
     <hyperlink ref="E3" r:id="rId2" display="https://www.faune-paca.org/index.php?m_id=20006"/>
     <hyperlink ref="E4" r:id="rId3" display="https://cen-paca.org/participer/agenda/"/>
     <hyperlink ref="E6" r:id="rId4" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://explorer.xper3.fr/accueil/"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E9" r:id="rId7" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E10" r:id="rId8" display="https://www.gbif.org/"/>
-    <hyperlink ref="E11" r:id="rId9" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E12" r:id="rId10" display="https://openobs.mnhn.fr/"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://www.inaturalist.org/users/sign_in"/>
-    <hyperlink ref="E14" r:id="rId12" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E15" r:id="rId13" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E21" r:id="rId16" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E23" r:id="rId17" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E24" r:id="rId18" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E25" r:id="rId19" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E26" r:id="rId20" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E27" r:id="rId21" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E29" r:id="rId22" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E30" r:id="rId23" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E31" r:id="rId24" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E32" r:id="rId25" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E33" r:id="rId26" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E35" r:id="rId27" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E36" r:id="rId28" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E39" r:id="rId29" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E40" r:id="rId30" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E44" r:id="rId31" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E45" r:id="rId32" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E46" r:id="rId33" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E47" r:id="rId34" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E48" r:id="rId35" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E49" r:id="rId36" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E50" r:id="rId37" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E51" r:id="rId38" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E53" r:id="rId39" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E54" r:id="rId40" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E55" r:id="rId41" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E56" r:id="rId42" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E58" r:id="rId43" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E59" r:id="rId44" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E60" r:id="rId45" display="https://zenodo.org"/>
-    <hyperlink ref="E61" r:id="rId46" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E62" r:id="rId47" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E63" r:id="rId48" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E64" r:id="rId49" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E66" r:id="rId50" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E67" r:id="rId51" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E68" r:id="rId52" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E69" r:id="rId53" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E70" r:id="rId54" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E71" r:id="rId55" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E72" r:id="rId56" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E73" r:id="rId57" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E74" r:id="rId58" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E75" r:id="rId59" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E76" r:id="rId60" display="http://peigeo.re/"/>
-    <hyperlink ref="E77" r:id="rId61" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E78" r:id="rId62" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E79" r:id="rId63" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E80" r:id="rId64" display="https://qfield.org/"/>
-    <hyperlink ref="E83" r:id="rId65" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E84" r:id="rId66" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E85" r:id="rId67" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E86" r:id="rId68" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E87" r:id="rId69" display="http://www.multibao.org/"/>
-    <hyperlink ref="E88" r:id="rId70" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E90" r:id="rId71" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E92" r:id="rId72" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E94" r:id="rId73" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E95" r:id="rId74" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E98" r:id="rId75" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E99" r:id="rId76" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E101" r:id="rId77" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E103" r:id="rId78" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E104" r:id="rId79" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E105" r:id="rId80" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E107" r:id="rId81" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E108" r:id="rId82" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E109" r:id="rId83" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E110" r:id="rId84" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E111" r:id="rId85" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E112" r:id="rId86" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E113" r:id="rId87" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E114" r:id="rId88" display="https://chat.openai.com/"/>
-    <hyperlink ref="E115" r:id="rId89" display="https://you.com/"/>
-    <hyperlink ref="E116" r:id="rId90" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E117" r:id="rId91" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E118" r:id="rId92" display="https://www.laccreteil.fr/spip.php?article504"/>
-    <hyperlink ref="E119" r:id="rId93" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E120" r:id="rId94" display="http://www.comores-online.com/mwezinet/nature/"/>
-    <hyperlink ref="E121" r:id="rId95" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E122" r:id="rId96" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E123" r:id="rId97" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E124" r:id="rId98" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E125" r:id="rId99" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E127" r:id="rId100" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E128" r:id="rId101" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E129" r:id="rId102" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E131" r:id="rId103" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E132" r:id="rId104" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E133" r:id="rId105" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E134" r:id="rId106" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E135" r:id="rId107" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E136" r:id="rId108" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E137" r:id="rId109" display="https://datamermaid.org/"/>
-    <hyperlink ref="E138" r:id="rId110" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E139" r:id="rId111" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E140" r:id="rId112" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E141" r:id="rId113" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E142" r:id="rId114" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E143" r:id="rId115" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E144" r:id="rId116" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E145" r:id="rId117" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E146" r:id="rId118" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E147" r:id="rId119" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E148" r:id="rId120" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E149" r:id="rId121" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E150" r:id="rId122" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E151" r:id="rId123" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E152" r:id="rId124" display="http://peigeo.re/"/>
-    <hyperlink ref="E153" r:id="rId125" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E154" r:id="rId126" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E156" r:id="rId127" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E157" r:id="rId128" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E8" r:id="rId6" display="http://explorer.xper3.fr/accueil/"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://www.gbif.org/"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://openobs.mnhn.fr/"/>
+    <hyperlink ref="E14" r:id="rId12" display="https://www.inaturalist.org/users/sign_in"/>
+    <hyperlink ref="E15" r:id="rId13" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
+    <hyperlink ref="E16" r:id="rId14" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
+    <hyperlink ref="E19" r:id="rId15" display="https://zenodo.org/record/7534792"/>
+    <hyperlink ref="E21" r:id="rId16" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E22" r:id="rId17" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E24" r:id="rId18" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E25" r:id="rId19" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E26" r:id="rId20" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E27" r:id="rId21" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E28" r:id="rId22" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E30" r:id="rId23" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E31" r:id="rId24" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E32" r:id="rId25" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E33" r:id="rId26" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E34" r:id="rId27" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E36" r:id="rId28" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E37" r:id="rId29" display="http://www.plantsoftheworldonline.org/"/>
+    <hyperlink ref="E40" r:id="rId30" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E41" r:id="rId31" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E45" r:id="rId32" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E46" r:id="rId33" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E47" r:id="rId34" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E48" r:id="rId35" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E49" r:id="rId36" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E50" r:id="rId37" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E51" r:id="rId38" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E52" r:id="rId39" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E53" r:id="rId40" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E55" r:id="rId41" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E56" r:id="rId42" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E57" r:id="rId43" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E58" r:id="rId44" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E60" r:id="rId45" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E61" r:id="rId46" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E62" r:id="rId47" display="https://zenodo.org"/>
+    <hyperlink ref="E63" r:id="rId48" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E64" r:id="rId49" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E65" r:id="rId50" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E66" r:id="rId51" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E68" r:id="rId52" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E69" r:id="rId53" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E70" r:id="rId54" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E71" r:id="rId55" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E72" r:id="rId56" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E73" r:id="rId57" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E74" r:id="rId58" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E75" r:id="rId59" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E76" r:id="rId60" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E77" r:id="rId61" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E78" r:id="rId62" display="http://peigeo.re/"/>
+    <hyperlink ref="E79" r:id="rId63" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E80" r:id="rId64" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E81" r:id="rId65" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E82" r:id="rId66" display="https://qfield.org/"/>
+    <hyperlink ref="E85" r:id="rId67" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E86" r:id="rId68" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E87" r:id="rId69" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E88" r:id="rId70" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E89" r:id="rId71" display="http://www.multibao.org/"/>
+    <hyperlink ref="E90" r:id="rId72" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E92" r:id="rId73" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E94" r:id="rId74" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E96" r:id="rId75" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E97" r:id="rId76" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E100" r:id="rId77" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E101" r:id="rId78" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E103" r:id="rId79" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E105" r:id="rId80" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E106" r:id="rId81" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E107" r:id="rId82" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E109" r:id="rId83" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E110" r:id="rId84" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E111" r:id="rId85" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E112" r:id="rId86" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E113" r:id="rId87" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E114" r:id="rId88" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E115" r:id="rId89" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E116" r:id="rId90" display="https://chat.openai.com/"/>
+    <hyperlink ref="E117" r:id="rId91" display="https://you.com/"/>
+    <hyperlink ref="E118" r:id="rId92" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E119" r:id="rId93" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E120" r:id="rId94" display="https://www.laccreteil.fr/spip.php?article504"/>
+    <hyperlink ref="E121" r:id="rId95" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E122" r:id="rId96" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E123" r:id="rId97" display="http://www.comores-online.com/mwezinet/nature/"/>
+    <hyperlink ref="E124" r:id="rId98" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E125" r:id="rId99" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E126" r:id="rId100" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E127" r:id="rId101" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E128" r:id="rId102" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E130" r:id="rId103" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E131" r:id="rId104" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E132" r:id="rId105" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E134" r:id="rId106" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E135" r:id="rId107" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E136" r:id="rId108" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E137" r:id="rId109" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E138" r:id="rId110" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E139" r:id="rId111" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E140" r:id="rId112" display="https://datamermaid.org/"/>
+    <hyperlink ref="E141" r:id="rId113" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E142" r:id="rId114" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E143" r:id="rId115" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E144" r:id="rId116" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E145" r:id="rId117" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E146" r:id="rId118" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E147" r:id="rId119" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E148" r:id="rId120" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E149" r:id="rId121" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E150" r:id="rId122" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E151" r:id="rId123" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E152" r:id="rId124" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E153" r:id="rId125" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E154" r:id="rId126" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E155" r:id="rId127" display="http://peigeo.re/"/>
+    <hyperlink ref="E156" r:id="rId128" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E157" r:id="rId129" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E159" r:id="rId130" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E160" r:id="rId131" display="https://www.georisques.gouv.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4423,6 +4507,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId129"/>
+  <drawing r:id="rId132"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2693906-25BC-428E-991B-8D2AE5AA8A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$161</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,1282 +28,1288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
-  <si>
-    <t xml:space="preserve">Titre_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance_BOTANISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance_INFORALISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouches-du-Rhônes (13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linneenne-provence.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Société Linnéenne de Provence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-paca.org/index.php?m_id=20006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPO – FAUNE PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cen-paca.org/participer/agenda/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agenda CEN PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bureau d'étude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mtda.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agence MTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le meilleur BE de la terre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DREAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DREAL PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portail-documentaire.cbnmc.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN Massif Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnees naturalistes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef d’identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://explorer.xper3.fr/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explorer Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données de clef d’identification Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accueil - Red list - IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données spacial IUCN red list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gbif.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biodiversitylibrary.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversity library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saisie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenObs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inaturalist.org/users/sign_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inaturalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Découvrir la faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliothèque naturaliste par Antoine Csutoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://depot-legal-biodiversite.naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depobio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/accueil/index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org/record/7534792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIVE 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données d’indicateurs floristiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insecte.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecte.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://conchology.be/?t=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conchology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.deepfaune.cnrs.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeepFaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poissons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jean-marc.charel.pagesperso-orange.fr/p_trombinoscope.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trombinoscope Jean-Marc Charel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryophytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryophytes de France - La Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.try-db.org/TryWeb/Home.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orchidees-france.identificationkey.org/mkey.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef XPER 3 Orchidées de France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://my.plantnet.org/usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API plantnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tools.bgci.org/global_tree_search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Tree Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossaire botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbier MNHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet identification la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uses.plantnet-project.org/fr/Accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlantUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.photoflora.fr/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photoflora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sites complementaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fleurs-fruits-feuilles-de.com/galerie_photos.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleurs-fruits-feuilles-de.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://habiter-la-reunion.re/la-flore-de-la-reunion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habiter la Reunion - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plantes-botanique.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plante botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.plantsoftheworldonline.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants of the world online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.reunion-parcnational.fr/fr/des-connaissances/la-flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNR - flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randopiton - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thierry Niko 974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willyplante canalblog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.borbonica.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borbonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi aime a ou - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tela-botanica.org/projets/lichens-go/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichen Go – Tela-botanica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://lichengo.identificationkey.org/mkey.html</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="424">
+  <si>
+    <t>Titre_1</t>
+  </si>
+  <si>
+    <t>Titre_2</t>
+  </si>
+  <si>
+    <t>Titre_3</t>
+  </si>
+  <si>
+    <t>Titre_4</t>
+  </si>
+  <si>
+    <t>lien</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Importance_BOTANISTE</t>
+  </si>
+  <si>
+    <t>Importance_INFORALISTE</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhônes (13)</t>
+  </si>
+  <si>
+    <t>https://www.linneenne-provence.org/</t>
+  </si>
+  <si>
+    <t>Société Linnéenne de Provence</t>
+  </si>
+  <si>
+    <t>https://www.faune-paca.org/index.php?m_id=20006</t>
+  </si>
+  <si>
+    <t>LPO – FAUNE PACA</t>
+  </si>
+  <si>
+    <t>https://cen-paca.org/participer/agenda/</t>
+  </si>
+  <si>
+    <t>Agenda CEN PACA</t>
+  </si>
+  <si>
+    <t>Bureau d'étude</t>
+  </si>
+  <si>
+    <t>https://www.mtda.fr/</t>
+  </si>
+  <si>
+    <t>Agence MTDA</t>
+  </si>
+  <si>
+    <t>Le meilleur BE de la terre</t>
+  </si>
+  <si>
+    <t>DREAL</t>
+  </si>
+  <si>
+    <t>https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html</t>
+  </si>
+  <si>
+    <t>DREAL PACA</t>
+  </si>
+  <si>
+    <t>CBN</t>
+  </si>
+  <si>
+    <t>https://portail-documentaire.cbnmc.fr/</t>
+  </si>
+  <si>
+    <t>CBN Massif Central</t>
+  </si>
+  <si>
+    <t>Biodiversite</t>
+  </si>
+  <si>
+    <t>Donnees naturalistes</t>
+  </si>
+  <si>
+    <t>Clef d’identification</t>
+  </si>
+  <si>
+    <t>http://explorer.xper3.fr/accueil/</t>
+  </si>
+  <si>
+    <t>Explorer Xper 3</t>
+  </si>
+  <si>
+    <t>Base de données de clef d’identification Xper 3</t>
+  </si>
+  <si>
+    <t>Mondial</t>
+  </si>
+  <si>
+    <t>IUCN</t>
+  </si>
+  <si>
+    <t>https://www.iucnredlist.org/fr/</t>
+  </si>
+  <si>
+    <t>Accueil - Red list - IUCN</t>
+  </si>
+  <si>
+    <t>https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
+  </si>
+  <si>
+    <t>Données spacial IUCN red list</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/</t>
+  </si>
+  <si>
+    <t>GBIF</t>
+  </si>
+  <si>
+    <t>https://www.biodiversitylibrary.org/</t>
+  </si>
+  <si>
+    <t>Biodiversity library</t>
+  </si>
+  <si>
+    <t>Saisie</t>
+  </si>
+  <si>
+    <t>https://openobs.mnhn.fr/</t>
+  </si>
+  <si>
+    <t>OpenObs</t>
+  </si>
+  <si>
+    <t>https://www.inaturalist.org/users/sign_in</t>
+  </si>
+  <si>
+    <t>Inaturalist</t>
+  </si>
+  <si>
+    <t>https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/</t>
+  </si>
+  <si>
+    <t>Découvrir la faune</t>
+  </si>
+  <si>
+    <t>Bibliothèque naturaliste par Antoine Csutoros</t>
+  </si>
+  <si>
+    <t>https://depot-legal-biodiversite.naturefrance.fr/</t>
+  </si>
+  <si>
+    <t>Depobio</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/accueil/index</t>
+  </si>
+  <si>
+    <t>INPN</t>
+  </si>
+  <si>
+    <t>Ecologie</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/7534792</t>
+  </si>
+  <si>
+    <t>EIVE 1.0</t>
+  </si>
+  <si>
+    <t>Base de données d’indicateurs floristiques</t>
+  </si>
+  <si>
+    <t>Faune</t>
+  </si>
+  <si>
+    <t>Insectes</t>
+  </si>
+  <si>
+    <t>https://www.insecte.org/</t>
+  </si>
+  <si>
+    <t>Insecte.org</t>
+  </si>
+  <si>
+    <t>Mollusques</t>
+  </si>
+  <si>
+    <t>https://conchology.be/?t=1</t>
+  </si>
+  <si>
+    <t>Conchology</t>
+  </si>
+  <si>
+    <t>Outils faune</t>
+  </si>
+  <si>
+    <t>https://www.deepfaune.cnrs.fr/</t>
+  </si>
+  <si>
+    <t>DeepFaune</t>
+  </si>
+  <si>
+    <t>Poissons</t>
+  </si>
+  <si>
+    <t>http://jean-marc.charel.pagesperso-orange.fr/p_trombinoscope.htm</t>
+  </si>
+  <si>
+    <t>Trombinoscope Jean-Marc Charel</t>
+  </si>
+  <si>
+    <t>Flore</t>
+  </si>
+  <si>
+    <t>Bryophytes</t>
+  </si>
+  <si>
+    <t>http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion</t>
+  </si>
+  <si>
+    <t>Bryophytes de France - La Réunion</t>
+  </si>
+  <si>
+    <t>Donnees</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>https://www.try-db.org/TryWeb/Home.php</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Base de données internationale pour les traits des plantes</t>
+  </si>
+  <si>
+    <t>Orchidées</t>
+  </si>
+  <si>
+    <t>https://orchidees-france.identificationkey.org/mkey.html</t>
+  </si>
+  <si>
+    <t>Clef XPER 3 Orchidées de France</t>
+  </si>
+  <si>
+    <t>Outils flore</t>
+  </si>
+  <si>
+    <t>https://my.plantnet.org/usage</t>
+  </si>
+  <si>
+    <t>API plantnet</t>
+  </si>
+  <si>
+    <t>https://tools.bgci.org/global_tree_search.php</t>
+  </si>
+  <si>
+    <t>Global Tree Search</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
+  </si>
+  <si>
+    <t>Glossaire botanique</t>
+  </si>
+  <si>
+    <t>https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
+  </si>
+  <si>
+    <t>Herbier MNHN</t>
+  </si>
+  <si>
+    <t>https://identify.plantnet.org/fr/reunion/identify</t>
+  </si>
+  <si>
+    <t>Plantnet identification la Réunion</t>
+  </si>
+  <si>
+    <t>https://uses.plantnet-project.org/fr/Accueil</t>
+  </si>
+  <si>
+    <t>PlantUse</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>http://www.photoflora.fr/index.php</t>
+  </si>
+  <si>
+    <t>Photoflora</t>
+  </si>
+  <si>
+    <t>Sites complementaires</t>
+  </si>
+  <si>
+    <t>https://fleurs-fruits-feuilles-de.com/galerie_photos.php</t>
+  </si>
+  <si>
+    <t>Fleurs-fruits-feuilles-de.com</t>
+  </si>
+  <si>
+    <t>https://habiter-la-reunion.re/la-flore-de-la-reunion/</t>
+  </si>
+  <si>
+    <t>Habiter la Reunion - Flore</t>
+  </si>
+  <si>
+    <t>https://www.plantes-botanique.org/</t>
+  </si>
+  <si>
+    <t>Plante botanique</t>
+  </si>
+  <si>
+    <t>http://www.plantsoftheworldonline.org/</t>
+  </si>
+  <si>
+    <t>Plants of the world online</t>
+  </si>
+  <si>
+    <t>http://www.reunion-parcnational.fr/fr/des-connaissances/la-flore</t>
+  </si>
+  <si>
+    <t>PNR - flore</t>
+  </si>
+  <si>
+    <t>https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
+  </si>
+  <si>
+    <t>Randopiton - Flore</t>
+  </si>
+  <si>
+    <t>http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html</t>
+  </si>
+  <si>
+    <t>Thierry Niko 974</t>
+  </si>
+  <si>
+    <t>http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html</t>
+  </si>
+  <si>
+    <t>Willyplante canalblog</t>
+  </si>
+  <si>
+    <t>https://www.borbonica.re/</t>
+  </si>
+  <si>
+    <t>Borbonica</t>
+  </si>
+  <si>
+    <t>https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
+  </si>
+  <si>
+    <t>Mi aime a ou - Flore</t>
+  </si>
+  <si>
+    <t>https://identify.plantnet.org/fr/reunion/species</t>
+  </si>
+  <si>
+    <t>Plantnet Réunion</t>
+  </si>
+  <si>
+    <t>Fonge</t>
+  </si>
+  <si>
+    <t>Lichen</t>
+  </si>
+  <si>
+    <t>https://www.tela-botanica.org/projets/lichens-go/</t>
+  </si>
+  <si>
+    <t>Lichen Go – Tela-botanica</t>
+  </si>
+  <si>
+    <t>http://lichengo.identificationkey.org/mkey.html</t>
   </si>
   <si>
     <t xml:space="preserve">Lichen Go – Xper </t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restauration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice choix arbre - Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice pour le choix d’arbres et
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>Restauration</t>
+  </si>
+  <si>
+    <t>https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf</t>
+  </si>
+  <si>
+    <t>Notice choix arbre - Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>Notice pour le choix d’arbres et
 d’arbustes pour la végétalisation à
 vocation écologique et paysagère en
 Centre-Val de Loire</t>
   </si>
   <si>
-    <t xml:space="preserve">Habitats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytosociologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://florass.zoom-ecologue.com/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florass par RoZo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Phytosociologie synusiale intégrée. Guide méthodologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://guy-bouxin.e-monsite.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Guy Bouxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/viewer-carto/CarHab/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisateur Carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/programme/carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarHab INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://habitats-naturels.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitats-naturels.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://natureoceanindien.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Océan Indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-web/api/doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prélocalisation nationale des zones humides (2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sig.reseau-zones-humides.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legislatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code de l'environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108631/#LEGISCTA000006108631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code de l'environnement legifrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zotero.org/styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero Styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outil de création de clef d'identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-php/accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation IRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme d’Open Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraction ISNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.regionreunion.com/pages/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open data Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://explore.openaire.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geomatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte thématique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light pollution map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://svgsilh.com/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svgsilh : Base de donnees de formes SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastre.gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blog.dogeo.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.dogeo.fr/Projection/#/point-to-coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eaufrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geo.data.gouv.fr/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géo data gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.geofoncier.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofoncier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geoservices.ign.fr/services-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géoservices IGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geotribu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGN : remonter le temps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN inspire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://peigeo.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeiGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://peps.cnes.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.risquesnaturels.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques naturels (PPR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandre Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qfield.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutoriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.qgis.org/3.10/fr/docs/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docs Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturagis.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturagis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.qgistutorials.com/fr/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis tutirials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DicoGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geodacenter.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoda Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.3liz.com/lizmap.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.multibao.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutibao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils collecte information / suivi de biodiversite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reseau-tee.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau TEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emploi-territorial.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emploi-territorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.actu-environnement.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actu environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rcarto.github.io/carto_avec_r/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rcarto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggplot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid/#/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qastack Gantt charts with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rstudio Graphviz and DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bookdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet Flextable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/yihui/rmarkdown-cookbook/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://davidgohel.github.io/flextable/reference/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable David Gohel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de donnees mondiale pour les plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-gallery/gallery/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rmarkdown.rstudio.com/lesson-1.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecon R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tablesgenerator.com/markdown_tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markdown tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://shiny.rstudio.com/tutorial/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny Rstudio tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny sur serveur AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tidymodels.org/learn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidymodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R pour statophobe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://stt4230.rbind.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuto R : stt4230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://chat.openai.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chat GPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://you.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref-match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xper3.fr/?language=fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.laccreteil.fr/spip.php?article504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulgarisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La forêt méditerranéenne vue par un écureuil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Régions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auvergne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photos araignées, insectes, fleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.comores-online.com/mwezinet/nature/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comores online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://plantes-rizieres-guyane.cirad.fr/generalites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantes rizières Guyane Cirad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion &amp; restauration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière Mayotte de plans indigènes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biotopeoi.shinyapps.io/statfore/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatFlore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDAGE 2022 - 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://insectarium-reunion.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectarium La Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusque de l’île de la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-reunion.fr/index.php?m_id=1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://orchidees.vandes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées Vandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zinvaziv.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinvaziv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://daupi.cbnm.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milieu Marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acoustique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy - Ocean Sonics Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORBONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.coralsoftheworld.org/page/home/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corals of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://coraux.univ-reunion.fr/spip.php?article35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coraux de La Réunion - Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fishbase.se/search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map mondial recif corallien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datamermaid.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine Ecological Research Management Aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOAA Coral Reef Watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions marines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données stations météos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marées SHOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluviométrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.windy.com/?-21.100,55.600,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données milieu marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS DCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://oceans-indien-austral.milieumarinfrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme milieu marin France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/habitat/cd_typo/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiel Habitats marins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sextant.ifremer.fr/ocean-indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sextant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wwz.ifremer.fr/surval/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allen Coral Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portal.emodnet-bathymetry.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bathymétrie mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.marineregions.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carto ZEE Mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.icriforum.org/restoration/coral-restoration-database/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral Restauration Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://prelevements-hydro.ifremer.fr/presentation.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocole prélèvements hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://natureoceanindien.org/Reptiles-reunion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Ocean Idien - Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité Wallonie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réglementaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.georisques.gouv.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géorisques</t>
+    <t>Habitats</t>
+  </si>
+  <si>
+    <t>Phytosociologie</t>
+  </si>
+  <si>
+    <t>Outil</t>
+  </si>
+  <si>
+    <t>http://florass.zoom-ecologue.com/index.php</t>
+  </si>
+  <si>
+    <t>Florass par RoZo</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique</t>
+  </si>
+  <si>
+    <t>La Phytosociologie synusiale intégrée. Guide méthodologique</t>
+  </si>
+  <si>
+    <t>http://guy-bouxin.e-monsite.com/</t>
+  </si>
+  <si>
+    <t>Site Guy Bouxin</t>
+  </si>
+  <si>
+    <t>Carhab</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/viewer-carto/CarHab/</t>
+  </si>
+  <si>
+    <t>Visualisateur Carhab</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/programme/carhab</t>
+  </si>
+  <si>
+    <t>CarHab INPN</t>
+  </si>
+  <si>
+    <t>http://habitats-naturels.info/</t>
+  </si>
+  <si>
+    <t>Habitats-naturels.info</t>
+  </si>
+  <si>
+    <t>Plateforme</t>
+  </si>
+  <si>
+    <t>https://naturefrance.fr/</t>
+  </si>
+  <si>
+    <t>Nature France</t>
+  </si>
+  <si>
+    <t>https://natureoceanindien.org/</t>
+  </si>
+  <si>
+    <t>Nature Océan Indien</t>
+  </si>
+  <si>
+    <t>Référentiel</t>
+  </si>
+  <si>
+    <t>Taxref</t>
+  </si>
+  <si>
+    <t>https://taxref.mnhn.fr/taxref-web/api/doc</t>
+  </si>
+  <si>
+    <t>API Taxref</t>
+  </si>
+  <si>
+    <t>Eau</t>
+  </si>
+  <si>
+    <t>Zone humide</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
+  </si>
+  <si>
+    <t>Prélocalisation nationale des zones humides (2023)</t>
+  </si>
+  <si>
+    <t>http://sig.reseau-zones-humides.org/</t>
+  </si>
+  <si>
+    <t>Réseau zone humide</t>
+  </si>
+  <si>
+    <t>Legislatif</t>
+  </si>
+  <si>
+    <t>Code de l'environnement</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108631/#LEGISCTA000006108631</t>
+  </si>
+  <si>
+    <t>Code de l'environnement legifrance</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Bibliographie</t>
+  </si>
+  <si>
+    <t>Zotero</t>
+  </si>
+  <si>
+    <t>https://www.zotero.org/styles</t>
+  </si>
+  <si>
+    <t>Zotero Styles</t>
+  </si>
+  <si>
+    <t>Outil de création de clef d'identification</t>
+  </si>
+  <si>
+    <t>https://horizon.documentation.ird.fr/exl-php/accueil</t>
+  </si>
+  <si>
+    <t>Documentation IRD</t>
+  </si>
+  <si>
+    <t>https://zenodo.org</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>Plateforme d’Open Science</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>SINP</t>
+  </si>
+  <si>
+    <t>https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
+  </si>
+  <si>
+    <t>Extraction ISNP</t>
+  </si>
+  <si>
+    <t>https://data.regionreunion.com/pages/accueil/</t>
+  </si>
+  <si>
+    <t>Open data Réunion</t>
+  </si>
+  <si>
+    <t>https://explore.openaire.eu/</t>
+  </si>
+  <si>
+    <t>OpenAIRE</t>
+  </si>
+  <si>
+    <t>Geomatique</t>
+  </si>
+  <si>
+    <t>Carte thématique</t>
+  </si>
+  <si>
+    <t>https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
+  </si>
+  <si>
+    <t>Light pollution map</t>
+  </si>
+  <si>
+    <t>Composeur</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>https://svgsilh.com/fr/</t>
+  </si>
+  <si>
+    <t>Svgsilh : Base de donnees de formes SVG</t>
+  </si>
+  <si>
+    <t>https://www.cadastre.gouv.fr/scpc/accueil.do</t>
+  </si>
+  <si>
+    <t>Cadastre.gouv</t>
+  </si>
+  <si>
+    <t>https://blog.dogeo.fr/</t>
+  </si>
+  <si>
+    <t>DoGeo</t>
+  </si>
+  <si>
+    <t>https://app.dogeo.fr/Projection/#/point-to-coords</t>
+  </si>
+  <si>
+    <t>DoGeo projection</t>
+  </si>
+  <si>
+    <t>https://www.eaufrance.fr/</t>
+  </si>
+  <si>
+    <t>Eau France</t>
+  </si>
+  <si>
+    <t>https://geo.data.gouv.fr/fr/</t>
+  </si>
+  <si>
+    <t>Géo data gouv</t>
+  </si>
+  <si>
+    <t>https://www.geofoncier.fr/</t>
+  </si>
+  <si>
+    <t>Geofoncier</t>
+  </si>
+  <si>
+    <t>https://geoservices.ign.fr/services-web</t>
+  </si>
+  <si>
+    <t>Géoservices IGN</t>
+  </si>
+  <si>
+    <t>https://static.geotribu.fr/</t>
+  </si>
+  <si>
+    <t>Geotribu</t>
+  </si>
+  <si>
+    <t>https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
+  </si>
+  <si>
+    <t>IGN : remonter le temps</t>
+  </si>
+  <si>
+    <t>https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
+  </si>
+  <si>
+    <t>INPN inspire</t>
+  </si>
+  <si>
+    <t>http://peigeo.re/</t>
+  </si>
+  <si>
+    <t>PeiGeo</t>
+  </si>
+  <si>
+    <t>https://peps.cnes.fr</t>
+  </si>
+  <si>
+    <t>Peps</t>
+  </si>
+  <si>
+    <t>http://www.risquesnaturels.re/</t>
+  </si>
+  <si>
+    <t>Risques naturels (PPR)</t>
+  </si>
+  <si>
+    <t>https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
+  </si>
+  <si>
+    <t>Sandre Eau France</t>
+  </si>
+  <si>
+    <t>Qfield</t>
+  </si>
+  <si>
+    <t>https://qfield.org/</t>
+  </si>
+  <si>
+    <t>Qgis</t>
+  </si>
+  <si>
+    <t>Tutoriel</t>
+  </si>
+  <si>
+    <t>https://docs.qgis.org/3.10/fr/docs/index.html</t>
+  </si>
+  <si>
+    <t>Docs Qgis</t>
+  </si>
+  <si>
+    <t>https://naturagis.fr</t>
+  </si>
+  <si>
+    <t>Naturagis</t>
+  </si>
+  <si>
+    <t>http://www.qgistutorials.com/fr/index.html</t>
+  </si>
+  <si>
+    <t>Qgis tutirials</t>
+  </si>
+  <si>
+    <t>https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
+  </si>
+  <si>
+    <t>DicoGIS</t>
+  </si>
+  <si>
+    <t>https://geodacenter.github.io/</t>
+  </si>
+  <si>
+    <t>Geoda Center</t>
+  </si>
+  <si>
+    <t>https://www.3liz.com/lizmap.html</t>
+  </si>
+  <si>
+    <t>Lizmap</t>
+  </si>
+  <si>
+    <t>Methodologie</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>http://www.multibao.org/</t>
+  </si>
+  <si>
+    <t>Mutibao</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
+  </si>
+  <si>
+    <t>Outils collecte information / suivi de biodiversite</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Emplois</t>
+  </si>
+  <si>
+    <t>https://www.reseau-tee.net/</t>
+  </si>
+  <si>
+    <t>Réseau TEE</t>
+  </si>
+  <si>
+    <t>https://www.emploi-territorial.fr/</t>
+  </si>
+  <si>
+    <t>Emploi-territorial</t>
+  </si>
+  <si>
+    <t>https://www.actu-environnement.com/</t>
+  </si>
+  <si>
+    <t>Actu environnement</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cartographie</t>
+  </si>
+  <si>
+    <t>https://rcarto.github.io/carto_avec_r/</t>
+  </si>
+  <si>
+    <t>Rcarto</t>
+  </si>
+  <si>
+    <t>Cheatsheet</t>
+  </si>
+  <si>
+    <t>https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
+  </si>
+  <si>
+    <t>ggplot 2</t>
+  </si>
+  <si>
+    <t>DiagrammR</t>
+  </si>
+  <si>
+    <t>https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
+  </si>
+  <si>
+    <t>https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
+  </si>
+  <si>
+    <t>Doc DiagrammR</t>
+  </si>
+  <si>
+    <t>https://mermaid-js.github.io/mermaid/#/</t>
+  </si>
+  <si>
+    <t>Mermaid doc</t>
+  </si>
+  <si>
+    <t>https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
+  </si>
+  <si>
+    <t>Mermaid editor</t>
+  </si>
+  <si>
+    <t>https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
+  </si>
+  <si>
+    <t>Qastack Gantt charts with R</t>
+  </si>
+  <si>
+    <t>https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
+  </si>
+  <si>
+    <t>Rstudio Graphviz and DiagrammR</t>
+  </si>
+  <si>
+    <t>R markdown</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/</t>
+  </si>
+  <si>
+    <t>Bookdown</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
+  </si>
+  <si>
+    <t>Cheatsheet Flextable</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/yihui/rmarkdown-cookbook/</t>
+  </si>
+  <si>
+    <t>Cookbook</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-book/</t>
+  </si>
+  <si>
+    <t>Flextable book</t>
+  </si>
+  <si>
+    <t>https://davidgohel.github.io/flextable/reference/index.html</t>
+  </si>
+  <si>
+    <t>Flextable David Gohel</t>
+  </si>
+  <si>
+    <t>Base de donnees mondiale pour les plantes</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-gallery/gallery/</t>
+  </si>
+  <si>
+    <t>Flextable Gallery</t>
+  </si>
+  <si>
+    <t>https://rmarkdown.rstudio.com/lesson-1.html</t>
+  </si>
+  <si>
+    <t>Lecon R markdown</t>
+  </si>
+  <si>
+    <t>https://www.tablesgenerator.com/markdown_tables</t>
+  </si>
+  <si>
+    <t>Markdown tables</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
+  </si>
+  <si>
+    <t>Shiny example</t>
+  </si>
+  <si>
+    <t>https://shiny.rstudio.com/tutorial/</t>
+  </si>
+  <si>
+    <t>Shiny Rstudio tutorial</t>
+  </si>
+  <si>
+    <t>https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
+  </si>
+  <si>
+    <t>Shiny sur serveur AWS</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>https://www.tidymodels.org/learn/</t>
+  </si>
+  <si>
+    <t>Tidymodel</t>
+  </si>
+  <si>
+    <t>https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
+  </si>
+  <si>
+    <t>R pour statophobe</t>
+  </si>
+  <si>
+    <t>https://stt4230.rbind.io/</t>
+  </si>
+  <si>
+    <t>Tuto R : stt4230</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/</t>
+  </si>
+  <si>
+    <t>Chat GPT</t>
+  </si>
+  <si>
+    <t>https://you.com/</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Taxonomie</t>
+  </si>
+  <si>
+    <t>TAXREF</t>
+  </si>
+  <si>
+    <t>https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
+  </si>
+  <si>
+    <t>Taxref-match</t>
+  </si>
+  <si>
+    <t>https://www.xper3.fr/?language=fr</t>
+  </si>
+  <si>
+    <t>Xper 3</t>
+  </si>
+  <si>
+    <t>https://www.laccreteil.fr/spip.php?article504</t>
+  </si>
+  <si>
+    <t>Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
+  </si>
+  <si>
+    <t>Vulgarisation</t>
+  </si>
+  <si>
+    <t>ONF</t>
+  </si>
+  <si>
+    <t>https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
+  </si>
+  <si>
+    <t>La forêt méditerranéenne vue par un écureuil</t>
+  </si>
+  <si>
+    <t>Régions</t>
+  </si>
+  <si>
+    <t>Auvergne</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
+  </si>
+  <si>
+    <t>Photos araignées, insectes, fleurs</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>http://www.comores-online.com/mwezinet/nature/</t>
+  </si>
+  <si>
+    <t>Comores online</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>http://plantes-rizieres-guyane.cirad.fr/generalites</t>
+  </si>
+  <si>
+    <t>Plantes rizières Guyane Cirad</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Gestion &amp; restauration</t>
+  </si>
+  <si>
+    <t>Pépinière</t>
+  </si>
+  <si>
+    <t>http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
+  </si>
+  <si>
+    <t>Pépinière Mayotte de plans indigènes</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>https://biotopeoi.shinyapps.io/statfore/</t>
+  </si>
+  <si>
+    <t>StatFlore</t>
+  </si>
+  <si>
+    <t>http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
+  </si>
+  <si>
+    <t>SDAGE 2022 - 2027</t>
+  </si>
+  <si>
+    <t>http://insectarium-reunion.fr/</t>
+  </si>
+  <si>
+    <t>Insectarium La Réunion</t>
+  </si>
+  <si>
+    <t>http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
+  </si>
+  <si>
+    <t>Mollusque de l’île de la Réunion</t>
+  </si>
+  <si>
+    <t>https://www.faune-reunion.fr/index.php?m_id=1#</t>
+  </si>
+  <si>
+    <t>Faune Réunion</t>
+  </si>
+  <si>
+    <t>http://orchidees.vandes.com/</t>
+  </si>
+  <si>
+    <t>Orchidées Vandes</t>
+  </si>
+  <si>
+    <t>https://zinvaziv.re/</t>
+  </si>
+  <si>
+    <t>Zinvaziv</t>
+  </si>
+  <si>
+    <t>https://daupi.cbnm.org/</t>
+  </si>
+  <si>
+    <t>DAUPI</t>
+  </si>
+  <si>
+    <t>Milieu Marin</t>
+  </si>
+  <si>
+    <t>Acoustique</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
+  </si>
+  <si>
+    <t>Lucy - Ocean Sonics Resources</t>
+  </si>
+  <si>
+    <t>Biodiversité</t>
+  </si>
+  <si>
+    <t>BORBONICA</t>
+  </si>
+  <si>
+    <t>http://www.coralsoftheworld.org/page/home/</t>
+  </si>
+  <si>
+    <t>Corals of the world</t>
+  </si>
+  <si>
+    <t>http://coraux.univ-reunion.fr/spip.php?article35</t>
+  </si>
+  <si>
+    <t>Coraux de La Réunion - Univ</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/search.php</t>
+  </si>
+  <si>
+    <t>Fishbase</t>
+  </si>
+  <si>
+    <t>https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
+  </si>
+  <si>
+    <t>Map mondial recif corallien</t>
+  </si>
+  <si>
+    <t>https://datamermaid.org/</t>
+  </si>
+  <si>
+    <t>Marine Ecological Research Management Aid</t>
+  </si>
+  <si>
+    <t>https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
+  </si>
+  <si>
+    <t>NOAA Coral Reef Watch</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
+  </si>
+  <si>
+    <t>WORMS</t>
+  </si>
+  <si>
+    <t>Conditions marines</t>
+  </si>
+  <si>
+    <t>http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
+  </si>
+  <si>
+    <t>Données stations météos</t>
+  </si>
+  <si>
+    <t>https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
+  </si>
+  <si>
+    <t>Marées SHOM</t>
+  </si>
+  <si>
+    <t>https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
+  </si>
+  <si>
+    <t>Pluviométrie</t>
+  </si>
+  <si>
+    <t>https://www.windy.com/?-21.100,55.600,5</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Données milieu marin</t>
+  </si>
+  <si>
+    <t>http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
+  </si>
+  <si>
+    <t>ATLAS DCE</t>
+  </si>
+  <si>
+    <t>https://oceans-indien-austral.milieumarinfrance.fr/</t>
+  </si>
+  <si>
+    <t>Plateforme milieu marin France</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/habitat/cd_typo/26</t>
+  </si>
+  <si>
+    <t>Référentiel Habitats marins</t>
+  </si>
+  <si>
+    <t>https://sextant.ifremer.fr/ocean-indien</t>
+  </si>
+  <si>
+    <t>Sextant</t>
+  </si>
+  <si>
+    <t>https://wwz.ifremer.fr/surval/</t>
+  </si>
+  <si>
+    <t>SURVAL</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
+  </si>
+  <si>
+    <t>Allen Coral Atlas</t>
+  </si>
+  <si>
+    <t>https://portal.emodnet-bathymetry.eu/</t>
+  </si>
+  <si>
+    <t>Bathymétrie mondiale</t>
+  </si>
+  <si>
+    <t>https://www.marineregions.org/</t>
+  </si>
+  <si>
+    <t>Carto ZEE Mondiale</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>https://www.icriforum.org/restoration/coral-restoration-database/</t>
+  </si>
+  <si>
+    <t>Coral Restauration Database</t>
+  </si>
+  <si>
+    <t>https://prelevements-hydro.ifremer.fr/presentation.html</t>
+  </si>
+  <si>
+    <t>Protocole prélèvements hydro</t>
+  </si>
+  <si>
+    <t>Reptiles</t>
+  </si>
+  <si>
+    <t>https://natureoceanindien.org/Reptiles-reunion/</t>
+  </si>
+  <si>
+    <t>Nature Ocean Idien - Reptiles</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
+  </si>
+  <si>
+    <t>Biodiversité Wallonie</t>
+  </si>
+  <si>
+    <t>Réglementaire</t>
+  </si>
+  <si>
+    <t>Risques</t>
+  </si>
+  <si>
+    <t>https://www.georisques.gouv.fr/</t>
+  </si>
+  <si>
+    <t>Géorisques</t>
+  </si>
+  <si>
+    <t>https://www.atlasflore04.org/</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>Atlas Flore 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1307,22 +1318,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1339,7 +1335,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1347,85 +1343,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1484,68 +1419,374 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F125" activeCellId="0" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="80.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="81.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="10" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.54"/>
+    <col min="1" max="2" width="19.453125" style="1"/>
+    <col min="3" max="3" width="31.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1"/>
+    <col min="5" max="5" width="80.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16383" width="19.453125" style="1"/>
+    <col min="16384" max="16384" width="11.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1632,14 +1873,14 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,7 +1914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1730,7 +1971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1747,7 +1988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +2005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1781,7 +2022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +2039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +2053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1825,11 +2066,11 @@
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1843,7 +2084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +2118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +2138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +2155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +2172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1947,11 +2188,11 @@
       <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1973,14 +2214,14 @@
       <c r="G25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1">
         <v>5</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,14 +2237,14 @@
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="1">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +2261,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2054,7 +2295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2088,7 +2329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2105,7 +2346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2115,20 +2356,20 @@
       <c r="C33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="1">
         <v>8</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2145,7 +2386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2162,7 +2403,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -2179,7 +2420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -2213,7 +2454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,7 +2471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -2247,7 +2488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -2264,7 +2505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2278,7 +2519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -2292,7 +2533,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,7 +2547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -2323,7 +2564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2340,7 +2581,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -2380,7 +2621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2397,7 +2638,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2655,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -2430,14 +2671,14 @@
       <c r="F51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="1">
         <v>8</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="I51" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -2454,7 +2695,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2709,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -2482,7 +2723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -2496,7 +2737,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -2513,7 +2754,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>161</v>
       </c>
@@ -2529,14 +2770,14 @@
       <c r="F57" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="1">
         <v>5</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="I57" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>161</v>
       </c>
@@ -2552,14 +2793,14 @@
       <c r="F58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="1">
         <v>6</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
@@ -2573,7 +2814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>171</v>
       </c>
@@ -2593,7 +2834,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>171</v>
       </c>
@@ -2607,7 +2848,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
@@ -2624,7 +2865,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -2641,7 +2882,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>171</v>
       </c>
@@ -2655,7 +2896,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>171</v>
       </c>
@@ -2669,7 +2910,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>171</v>
       </c>
@@ -2686,7 +2927,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>171</v>
       </c>
@@ -2706,7 +2947,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>171</v>
       </c>
@@ -2723,7 +2964,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
@@ -2740,7 +2981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>171</v>
       </c>
@@ -2757,7 +2998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
@@ -2774,7 +3015,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -2791,7 +3032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>171</v>
       </c>
@@ -2808,7 +3049,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>171</v>
       </c>
@@ -2825,7 +3066,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>171</v>
       </c>
@@ -2842,7 +3083,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>171</v>
       </c>
@@ -2858,11 +3099,11 @@
       <c r="F76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>171</v>
       </c>
@@ -2879,7 +3120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>171</v>
       </c>
@@ -2896,7 +3137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -2913,7 +3154,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -2930,7 +3171,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>171</v>
       </c>
@@ -2947,7 +3188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
@@ -2964,7 +3205,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -2984,7 +3225,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -3004,7 +3245,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -3024,7 +3265,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -3038,7 +3279,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
@@ -3052,7 +3293,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -3066,7 +3307,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
@@ -3083,7 +3324,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
@@ -3100,7 +3341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>171</v>
       </c>
@@ -3117,7 +3358,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>171</v>
       </c>
@@ -3134,7 +3375,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>171</v>
       </c>
@@ -3148,7 +3389,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -3165,7 +3406,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>171</v>
       </c>
@@ -3182,7 +3423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>171</v>
       </c>
@@ -3199,7 +3440,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>171</v>
       </c>
@@ -3216,7 +3457,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>171</v>
       </c>
@@ -3233,7 +3474,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>171</v>
       </c>
@@ -3250,7 +3491,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
@@ -3267,7 +3508,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>171</v>
       </c>
@@ -3284,7 +3525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
@@ -3301,7 +3542,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -3318,7 +3559,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -3335,7 +3576,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>171</v>
       </c>
@@ -3352,7 +3593,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
@@ -3372,7 +3613,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>171</v>
       </c>
@@ -3389,7 +3630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>171</v>
       </c>
@@ -3406,7 +3647,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>171</v>
       </c>
@@ -3423,7 +3664,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>171</v>
       </c>
@@ -3440,7 +3681,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>171</v>
       </c>
@@ -3457,7 +3698,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>171</v>
       </c>
@@ -3474,7 +3715,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>171</v>
       </c>
@@ -3490,14 +3731,14 @@
       <c r="F113" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H113" s="1" t="n">
+      <c r="H113" s="1">
         <v>0</v>
       </c>
-      <c r="I113" s="1" t="n">
+      <c r="I113" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>171</v>
       </c>
@@ -3514,7 +3755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>171</v>
       </c>
@@ -3531,7 +3772,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>171</v>
       </c>
@@ -3548,7 +3789,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>171</v>
       </c>
@@ -3565,7 +3806,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>171</v>
       </c>
@@ -3582,7 +3823,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>171</v>
       </c>
@@ -3596,7 +3837,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
@@ -3607,7 +3848,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
@@ -3617,14 +3858,14 @@
       <c r="C121" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>326</v>
       </c>
@@ -3634,14 +3875,14 @@
       <c r="C122" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>326</v>
       </c>
@@ -3655,7 +3896,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>326</v>
       </c>
@@ -3669,7 +3910,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>326</v>
       </c>
@@ -3689,24 +3930,27 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>343</v>
+        <v>422</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>326</v>
       </c>
@@ -3714,16 +3958,16 @@
         <v>342</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>326</v>
       </c>
@@ -3731,19 +3975,16 @@
         <v>342</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -3754,16 +3995,16 @@
         <v>61</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -3773,14 +4014,17 @@
       <c r="C130" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D130" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E130" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>326</v>
       </c>
@@ -3788,19 +4032,16 @@
         <v>342</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>326</v>
       </c>
@@ -3810,14 +4051,17 @@
       <c r="C132" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D132" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E132" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>326</v>
       </c>
@@ -3825,19 +4069,16 @@
         <v>342</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D133" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>326</v>
       </c>
@@ -3845,19 +4086,19 @@
         <v>342</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>326</v>
       </c>
@@ -3868,16 +4109,16 @@
         <v>359</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>326</v>
       </c>
@@ -3891,13 +4132,13 @@
         <v>363</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>326</v>
       </c>
@@ -3911,13 +4152,13 @@
         <v>363</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>326</v>
       </c>
@@ -3931,13 +4172,13 @@
         <v>363</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>326</v>
       </c>
@@ -3951,13 +4192,13 @@
         <v>363</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>326</v>
       </c>
@@ -3971,13 +4212,13 @@
         <v>363</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>326</v>
       </c>
@@ -3991,13 +4232,13 @@
         <v>363</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>326</v>
       </c>
@@ -4011,13 +4252,13 @@
         <v>363</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>326</v>
       </c>
@@ -4028,16 +4269,16 @@
         <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>326</v>
       </c>
@@ -4051,13 +4292,13 @@
         <v>379</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>326</v>
       </c>
@@ -4071,13 +4312,13 @@
         <v>379</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>326</v>
       </c>
@@ -4091,13 +4332,13 @@
         <v>379</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>326</v>
       </c>
@@ -4108,16 +4349,16 @@
         <v>359</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>326</v>
       </c>
@@ -4131,13 +4372,13 @@
         <v>388</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>326</v>
       </c>
@@ -4151,13 +4392,13 @@
         <v>388</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>326</v>
       </c>
@@ -4171,13 +4412,13 @@
         <v>388</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>326</v>
       </c>
@@ -4191,13 +4432,13 @@
         <v>388</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>326</v>
       </c>
@@ -4208,16 +4449,16 @@
         <v>359</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>326</v>
       </c>
@@ -4231,13 +4472,13 @@
         <v>399</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>326</v>
       </c>
@@ -4251,13 +4492,13 @@
         <v>399</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>326</v>
       </c>
@@ -4271,13 +4512,13 @@
         <v>399</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>326</v>
       </c>
@@ -4288,16 +4529,16 @@
         <v>359</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>326</v>
       </c>
@@ -4311,13 +4552,13 @@
         <v>406</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>326</v>
       </c>
@@ -4325,188 +4566,203 @@
         <v>342</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>411</v>
+        <v>359</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I160"/>
+  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E8" r:id="rId6" display="http://explorer.xper3.fr/accueil/"/>
-    <hyperlink ref="E9" r:id="rId7" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E10" r:id="rId8" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E11" r:id="rId9" display="https://www.gbif.org/"/>
-    <hyperlink ref="E12" r:id="rId10" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://openobs.mnhn.fr/"/>
-    <hyperlink ref="E14" r:id="rId12" display="https://www.inaturalist.org/users/sign_in"/>
-    <hyperlink ref="E15" r:id="rId13" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E16" r:id="rId14" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E21" r:id="rId16" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E22" r:id="rId17" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E24" r:id="rId18" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E25" r:id="rId19" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E26" r:id="rId20" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E27" r:id="rId21" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E28" r:id="rId22" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E30" r:id="rId23" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E31" r:id="rId24" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E32" r:id="rId25" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E33" r:id="rId26" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E34" r:id="rId27" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E36" r:id="rId28" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E37" r:id="rId29" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E40" r:id="rId30" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E41" r:id="rId31" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E45" r:id="rId32" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E46" r:id="rId33" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E47" r:id="rId34" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E48" r:id="rId35" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E49" r:id="rId36" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E50" r:id="rId37" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E51" r:id="rId38" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E52" r:id="rId39" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E53" r:id="rId40" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E55" r:id="rId41" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E56" r:id="rId42" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E57" r:id="rId43" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E58" r:id="rId44" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E60" r:id="rId45" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E61" r:id="rId46" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E62" r:id="rId47" display="https://zenodo.org"/>
-    <hyperlink ref="E63" r:id="rId48" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E64" r:id="rId49" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E65" r:id="rId50" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E66" r:id="rId51" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E68" r:id="rId52" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E69" r:id="rId53" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E70" r:id="rId54" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E71" r:id="rId55" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E72" r:id="rId56" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E73" r:id="rId57" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E74" r:id="rId58" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E75" r:id="rId59" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E76" r:id="rId60" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E77" r:id="rId61" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E78" r:id="rId62" display="http://peigeo.re/"/>
-    <hyperlink ref="E79" r:id="rId63" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E80" r:id="rId64" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E81" r:id="rId65" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E82" r:id="rId66" display="https://qfield.org/"/>
-    <hyperlink ref="E85" r:id="rId67" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E86" r:id="rId68" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E87" r:id="rId69" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E88" r:id="rId70" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E89" r:id="rId71" display="http://www.multibao.org/"/>
-    <hyperlink ref="E90" r:id="rId72" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E92" r:id="rId73" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E94" r:id="rId74" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E96" r:id="rId75" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E97" r:id="rId76" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E100" r:id="rId77" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E101" r:id="rId78" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E103" r:id="rId79" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E105" r:id="rId80" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E106" r:id="rId81" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E107" r:id="rId82" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E109" r:id="rId83" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E110" r:id="rId84" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E111" r:id="rId85" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E112" r:id="rId86" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E113" r:id="rId87" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E114" r:id="rId88" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E115" r:id="rId89" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E116" r:id="rId90" display="https://chat.openai.com/"/>
-    <hyperlink ref="E117" r:id="rId91" display="https://you.com/"/>
-    <hyperlink ref="E118" r:id="rId92" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E119" r:id="rId93" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E120" r:id="rId94" display="https://www.laccreteil.fr/spip.php?article504"/>
-    <hyperlink ref="E121" r:id="rId95" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E122" r:id="rId96" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E123" r:id="rId97" display="http://www.comores-online.com/mwezinet/nature/"/>
-    <hyperlink ref="E124" r:id="rId98" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E125" r:id="rId99" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E126" r:id="rId100" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E127" r:id="rId101" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E128" r:id="rId102" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E130" r:id="rId103" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E131" r:id="rId104" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E132" r:id="rId105" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E134" r:id="rId106" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E135" r:id="rId107" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E136" r:id="rId108" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E137" r:id="rId109" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E138" r:id="rId110" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E139" r:id="rId111" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E140" r:id="rId112" display="https://datamermaid.org/"/>
-    <hyperlink ref="E141" r:id="rId113" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E142" r:id="rId114" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E143" r:id="rId115" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E144" r:id="rId116" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E145" r:id="rId117" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E146" r:id="rId118" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E147" r:id="rId119" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E148" r:id="rId120" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E149" r:id="rId121" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E150" r:id="rId122" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E151" r:id="rId123" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E152" r:id="rId124" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E153" r:id="rId125" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E154" r:id="rId126" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E155" r:id="rId127" display="http://peigeo.re/"/>
-    <hyperlink ref="E156" r:id="rId128" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E157" r:id="rId129" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E159" r:id="rId130" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E160" r:id="rId131" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E46" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E47" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E48" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E50" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E66" r:id="rId51" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E70" r:id="rId54" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E74" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E75" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E76" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E77" r:id="rId61" location="/search" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E79" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E80" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E81" r:id="rId65" location="/home" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E82" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E86" r:id="rId68" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E87" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E88" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E89" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E90" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E92" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E107" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E109" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E111" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E112" r:id="rId86" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E113" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E114" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E118" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E119" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E120" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E121" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E122" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E123" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E124" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E125" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E127" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E131" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E132" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E135" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E137" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E138" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E139" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E140" r:id="rId111" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E141" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E142" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E143" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E144" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E145" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E146" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E147" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E148" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E149" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E150" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E151" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E152" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E153" r:id="rId124" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E154" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E155" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E156" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E157" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E158" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E160" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E161" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E126" r:id="rId132" xr:uid="{0576AAE8-938F-47F8-8354-C7A6D1BFAD55}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId132"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2693906-25BC-428E-991B-8D2AE5AA8A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC26235-FEEF-4482-9885-6700A40E155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$162</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="427">
   <si>
     <t>Titre_1</t>
   </si>
@@ -1303,6 +1303,15 @@
   </si>
   <si>
     <t>Atlas Flore 04</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation de l'état de conservation</t>
+  </si>
+  <si>
+    <t>Natura 2000</t>
   </si>
 </sst>
 </file>
@@ -1737,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2714,13 +2723,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2731,10 +2743,10 @@
         <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2742,39 +2754,30 @@
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" s="1">
-        <v>5</v>
-      </c>
-      <c r="I57" s="1">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2788,50 +2791,53 @@
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2841,11 +2847,17 @@
       <c r="B61" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2856,13 +2868,10 @@
         <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2870,16 +2879,16 @@
         <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2889,11 +2898,14 @@
       <c r="B64" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="C64" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2904,10 +2916,10 @@
         <v>182</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2915,16 +2927,13 @@
         <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2935,16 +2944,13 @@
         <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2955,13 +2961,16 @@
         <v>190</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2975,10 +2984,10 @@
         <v>152</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2992,10 +3001,10 @@
         <v>152</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3009,10 +3018,10 @@
         <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3026,10 +3035,10 @@
         <v>152</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3043,10 +3052,10 @@
         <v>152</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3060,10 +3069,10 @@
         <v>152</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3077,10 +3086,10 @@
         <v>152</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3094,13 +3103,10 @@
         <v>152</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H76" s="1">
-        <v>7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3114,10 +3120,13 @@
         <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="H77" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3131,10 +3140,10 @@
         <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3148,10 +3157,10 @@
         <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3165,10 +3174,10 @@
         <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3182,10 +3191,10 @@
         <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3196,13 +3205,13 @@
         <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3213,16 +3222,13 @@
         <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3239,10 +3245,10 @@
         <v>229</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3259,10 +3265,10 @@
         <v>229</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3272,11 +3278,17 @@
       <c r="B86" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3287,10 +3299,10 @@
         <v>190</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3301,10 +3313,10 @@
         <v>190</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3312,16 +3324,13 @@
         <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3332,13 +3341,13 @@
         <v>242</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3346,16 +3355,16 @@
         <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3369,10 +3378,10 @@
         <v>250</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3382,11 +3391,14 @@
       <c r="B93" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="C93" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3394,16 +3406,13 @@
         <v>171</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3414,13 +3423,13 @@
         <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3431,13 +3440,13 @@
         <v>257</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3451,10 +3460,10 @@
         <v>264</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3468,10 +3477,10 @@
         <v>264</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3485,10 +3494,10 @@
         <v>264</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3502,10 +3511,10 @@
         <v>264</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3519,10 +3528,10 @@
         <v>264</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3533,13 +3542,13 @@
         <v>257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3553,10 +3562,10 @@
         <v>276</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3570,10 +3579,10 @@
         <v>276</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3587,10 +3596,10 @@
         <v>276</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3604,13 +3613,10 @@
         <v>276</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3624,10 +3630,13 @@
         <v>276</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3641,10 +3650,10 @@
         <v>276</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3658,10 +3667,10 @@
         <v>276</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3672,13 +3681,13 @@
         <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3692,10 +3701,10 @@
         <v>294</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3709,10 +3718,10 @@
         <v>294</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3723,19 +3732,13 @@
         <v>257</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3746,13 +3749,19 @@
         <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3766,10 +3775,10 @@
         <v>229</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3777,16 +3786,16 @@
         <v>171</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3800,10 +3809,10 @@
         <v>309</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3811,16 +3820,16 @@
         <v>171</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3830,56 +3839,56 @@
       <c r="B119" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>324</v>
+      <c r="E121" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3887,13 +3896,16 @@
         <v>326</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3901,13 +3913,13 @@
         <v>326</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3915,19 +3927,13 @@
         <v>326</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3935,19 +3941,19 @@
         <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>421</v>
+        <v>339</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3955,16 +3961,19 @@
         <v>326</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>343</v>
+        <v>422</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3975,13 +3984,13 @@
         <v>342</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3992,16 +4001,13 @@
         <v>342</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4015,13 +4021,13 @@
         <v>61</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4034,11 +4040,14 @@
       <c r="C131" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D131" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E131" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4049,16 +4058,13 @@
         <v>342</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4071,11 +4077,14 @@
       <c r="C133" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D133" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4086,16 +4095,13 @@
         <v>342</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D134" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4106,16 +4112,16 @@
         <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4129,13 +4135,13 @@
         <v>359</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4152,10 +4158,10 @@
         <v>363</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4172,10 +4178,10 @@
         <v>363</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4192,10 +4198,10 @@
         <v>363</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4212,10 +4218,10 @@
         <v>363</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4232,10 +4238,10 @@
         <v>363</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4252,10 +4258,10 @@
         <v>363</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4272,10 +4278,10 @@
         <v>363</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4289,13 +4295,13 @@
         <v>359</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4312,10 +4318,10 @@
         <v>379</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4332,10 +4338,10 @@
         <v>379</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4352,10 +4358,10 @@
         <v>379</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4369,13 +4375,13 @@
         <v>359</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4392,10 +4398,10 @@
         <v>388</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4412,10 +4418,10 @@
         <v>388</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4432,10 +4438,10 @@
         <v>388</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4452,10 +4458,10 @@
         <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4469,13 +4475,13 @@
         <v>359</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,10 +4498,10 @@
         <v>399</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4512,10 +4518,10 @@
         <v>399</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,10 +4538,10 @@
         <v>399</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4549,13 +4555,13 @@
         <v>359</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4572,10 +4578,10 @@
         <v>406</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4586,13 +4592,16 @@
         <v>342</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>411</v>
+        <v>359</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4600,34 +4609,51 @@
         <v>326</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F162" s="1" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I162" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4669,98 +4695,99 @@
     <hyperlink ref="E51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="E52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="E53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E66" r:id="rId51" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E70" r:id="rId54" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E74" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E75" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E76" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E77" r:id="rId61" location="/search" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E79" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E80" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E81" r:id="rId65" location="/home" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E82" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E86" r:id="rId68" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E87" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E88" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E89" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E90" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E92" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E107" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E109" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E111" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E112" r:id="rId86" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E113" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E114" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E118" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E119" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E120" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E121" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E122" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E123" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E124" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E125" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E127" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E128" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E129" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E131" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E132" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E133" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E135" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E137" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E138" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E139" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E140" r:id="rId111" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E141" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E142" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E143" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E144" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E145" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E146" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E147" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E148" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E149" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E150" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E151" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E152" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E153" r:id="rId124" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E154" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E155" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E156" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E157" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E158" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E160" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E161" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E126" r:id="rId132" xr:uid="{0576AAE8-938F-47F8-8354-C7A6D1BFAD55}"/>
+    <hyperlink ref="E56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E67" r:id="rId51" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E70" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E71" r:id="rId54" location="/point-to-coords" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E76" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E77" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E78" r:id="rId61" location="/search" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E79" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E80" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E81" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E82" r:id="rId65" location="/home" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E83" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E87" r:id="rId68" location="presentation-de-loutil" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E88" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E90" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E91" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E93" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E101" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E102" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E104" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E106" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E107" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E108" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E110" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E111" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E112" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E113" r:id="rId86" location="a-quoi-s-attendre-dans-ce-guide" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E114" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E115" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E116" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E117" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E118" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E119" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E120" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E121" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E122" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E123" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E124" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E125" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E126" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E130" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E134" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E136" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E137" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E138" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E139" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E140" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E141" r:id="rId111" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E142" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E143" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E144" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E145" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E146" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E147" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E148" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E149" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E150" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E151" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E152" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E153" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E154" r:id="rId124" location="6.64/-21.2085/56.2301" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E155" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E156" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E157" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E158" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E159" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E161" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E162" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E127" r:id="rId132" xr:uid="{0576AAE8-938F-47F8-8354-C7A6D1BFAD55}"/>
+    <hyperlink ref="E54" r:id="rId133" xr:uid="{33FB3A71-0F8B-4956-A1FF-633861FBBAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C49B3D1-43BA-4CAD-9B94-277A4440EABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078A203-F7DC-4D11-9587-8EEBFCCC1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$180</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="476">
   <si>
     <t>Titre_1</t>
   </si>
@@ -1359,9 +1359,6 @@
     <t>Réglementaire</t>
   </si>
   <si>
-    <t>Legislatif</t>
-  </si>
-  <si>
     <t>Code de l'environnement</t>
   </si>
   <si>
@@ -1447,6 +1444,21 @@
   </si>
   <si>
     <t>Monde des minuscules</t>
+  </si>
+  <si>
+    <t>Etude d'impact</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640</t>
+  </si>
+  <si>
+    <t>ANNEXES (Articles Annexe à l'article R122-2 à Annexe à la section 1 du chapitre III du titre IX du livre V)</t>
+  </si>
+  <si>
+    <t>Georisques</t>
+  </si>
+  <si>
+    <t>Etude d'impact ou cas par cas ?</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2274,10 +2286,10 @@
         <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4756,7 +4768,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>341</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>341</v>
       </c>
@@ -4796,7 +4808,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>341</v>
       </c>
@@ -4816,7 +4828,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>341</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>341</v>
       </c>
@@ -4856,7 +4868,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>341</v>
       </c>
@@ -4876,7 +4888,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>341</v>
       </c>
@@ -4896,7 +4908,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>341</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>341</v>
       </c>
@@ -4936,7 +4948,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>341</v>
       </c>
@@ -4956,7 +4968,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>441</v>
       </c>
@@ -4981,145 +4993,168 @@
         <v>442</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F173" s="1" t="s">
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="D175" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H179" s="1">
+      <c r="H180" s="1">
         <v>8</v>
       </c>
-      <c r="I179" s="1">
+      <c r="I180" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I179" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5264,13 +5299,14 @@
     <hyperlink ref="E168" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="E169" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="E170" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E173" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E174" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E175" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E176" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E178" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E179" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E174" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E175" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E176" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E177" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E179" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E180" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="E20" r:id="rId150" xr:uid="{5D7C6342-FE67-48CF-B43F-86B152A9445F}"/>
+    <hyperlink ref="E173" r:id="rId151" location="LEGISCTA000006108640" xr:uid="{8B1B026A-2D35-4CE8-916E-94E9E7CDC581}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078A203-F7DC-4D11-9587-8EEBFCCC1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2428D8F4-CBF0-47D5-B4F9-E8B90E1B7054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$181</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="479">
   <si>
     <t>Titre_1</t>
   </si>
@@ -1459,6 +1459,15 @@
   </si>
   <si>
     <t>Etude d'impact ou cas par cas ?</t>
+  </si>
+  <si>
+    <t>https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse</t>
+  </si>
+  <si>
+    <t>Infloflora</t>
+  </si>
+  <si>
+    <t>Suisse</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C172" sqref="A172:C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4987,19 +4996,19 @@
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>443</v>
+        <v>77</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5010,16 +5019,13 @@
         <v>442</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>472</v>
+        <v>21</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5027,36 +5033,36 @@
         <v>441</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>446</v>
+        <v>471</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>447</v>
+        <v>475</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5069,11 +5075,14 @@
       <c r="C176" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="D176" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="E176" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5087,10 +5096,10 @@
         <v>365</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5098,19 +5107,16 @@
         <v>448</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5118,16 +5124,19 @@
         <v>448</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5135,26 +5144,43 @@
         <v>448</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H180" s="1">
+      <c r="H181" s="1">
         <v>8</v>
       </c>
-      <c r="I180" s="1">
+      <c r="I181" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5299,14 +5325,15 @@
     <hyperlink ref="E168" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="E169" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="E170" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E174" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E175" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E176" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E177" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E179" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E180" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E175" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E176" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E177" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E178" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E180" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E181" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="E20" r:id="rId150" xr:uid="{5D7C6342-FE67-48CF-B43F-86B152A9445F}"/>
-    <hyperlink ref="E173" r:id="rId151" location="LEGISCTA000006108640" xr:uid="{8B1B026A-2D35-4CE8-916E-94E9E7CDC581}"/>
+    <hyperlink ref="E174" r:id="rId151" location="LEGISCTA000006108640" xr:uid="{8B1B026A-2D35-4CE8-916E-94E9E7CDC581}"/>
+    <hyperlink ref="E172" r:id="rId152" xr:uid="{F97A1B87-164F-4228-8EB0-E1BFA5A909F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$181</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$236</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="622">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -61,58 +61,100 @@
     <t xml:space="preserve">Application</t>
   </si>
   <si>
+    <t xml:space="preserve">Flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://plantnet.org/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantNet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Général</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.inaturalist.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inaturalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cardobs.mnhn.fr/cardObs/auth/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CardObs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenObs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clef d’identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://explorer.xper3.fr/accueil/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explorer Xper 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données de clef d’identification Xper 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://depot-legal-biodiversite.naturefrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depobio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn.mnhn.fr/accueil/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lenaturaliste.net/portail/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le naturaliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.recolnat.org/fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recolnat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indépendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scientartistmdano.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site de Mathilde Dano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faune</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/</t>
   </si>
   <si>
-    <t xml:space="preserve">Découvrir la faune</t>
+    <t xml:space="preserve">Découvrir la faune – Antoine Csutoros</t>
   </si>
   <si>
     <t xml:space="preserve">Bibliothèque naturaliste par Antoine Csutoros</t>
   </si>
   <si>
-    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenObs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef d’identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://explorer.xper3.fr/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explorer Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données de clef d’identification Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Général</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://depot-legal-biodiversite.naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depobio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/accueil/index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.lenaturaliste.net/portail/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le naturaliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.recolnat.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recolnat</t>
+    <t xml:space="preserve">https://www.zoom-nature.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom-nature</t>
   </si>
   <si>
     <t xml:space="preserve">Mondial</t>
@@ -145,13 +187,13 @@
     <t xml:space="preserve">GBIF</t>
   </si>
   <si>
-    <t xml:space="preserve">Saisie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inaturalist.org/users/sign_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inaturalist</t>
+    <t xml:space="preserve">Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.oreme.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data OREME</t>
   </si>
   <si>
     <t xml:space="preserve">Ecologie</t>
@@ -169,7 +211,13 @@
     <t xml:space="preserve">Base de données d’indicateurs floristiques</t>
   </si>
   <si>
-    <t xml:space="preserve">Faune</t>
+    <t xml:space="preserve">Annélides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ecobiosoil.univ-rennes1.fr/cle-de-determination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clé d'identification des vers de terre</t>
   </si>
   <si>
     <t xml:space="preserve">Araignées</t>
@@ -187,9 +235,30 @@
     <t xml:space="preserve">Piwigo Arachno</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.quelestcetanimal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est cet animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herpétofaune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://coronella.free.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronella</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insectes</t>
   </si>
   <si>
+    <t xml:space="preserve">http://aramel.free.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aramel.free</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.insecte.org/</t>
   </si>
   <si>
@@ -208,6 +277,15 @@
     <t xml:space="preserve">Monde des minuscules</t>
   </si>
   <si>
+    <t xml:space="preserve">Larves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.animateur-nature.com/guide-invertebres/les-larves.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animateur nature – Larves d’insectes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myrmécologie</t>
   </si>
   <si>
@@ -244,6 +322,54 @@
     <t xml:space="preserve">Oiseaux.net</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.ornitho.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornitho.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biofotoquiz – Oiseaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://alsace.lpo.fr/Jeux/Comptage/Comptage.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comptage – Mania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computerbording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://fotooizo.free.fr/jeu3.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fotooizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerto – LPO Alsace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPN – Chants des oiseaux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outils faune</t>
   </si>
   <si>
@@ -262,7 +388,10 @@
     <t xml:space="preserve">Trombinoscope Jean-Marc Charel</t>
   </si>
   <si>
-    <t xml:space="preserve">Flore</t>
+    <t xml:space="preserve">https://xeno-canto.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeno-canto</t>
   </si>
   <si>
     <t xml:space="preserve">Bryophytes</t>
@@ -424,7 +553,34 @@
     <t xml:space="preserve">Fonge</t>
   </si>
   <si>
+    <t xml:space="preserve">Champignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Guide des champignons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://champis.net/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champis.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mycodb.fr/searchfam.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycodb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.afl-lichenologie.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association française de Lichénologie</t>
   </si>
   <si>
     <t xml:space="preserve">https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352</t>
@@ -481,6 +637,36 @@
     <t xml:space="preserve">Visualisateur Carhab</t>
   </si>
   <si>
+    <t xml:space="preserve">Eau douce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freshwaterecology.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwaterecology.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://habitats-naturels.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitats-naturels.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doris.ffessm.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marinespecies.org/photogallery.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Register of marine Species</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natura 2000</t>
   </si>
   <si>
@@ -514,10 +700,25 @@
     <t xml:space="preserve">Site Guy Bouxin</t>
   </si>
   <si>
-    <t xml:space="preserve">http://habitats-naturels.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitats-naturels.info</t>
+    <t xml:space="preserve">EEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nobanis.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOBANIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eol.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encyclopedia of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://naturefrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature France</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences participatives</t>
@@ -529,15 +730,774 @@
     <t xml:space="preserve">Participae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature France</t>
+    <t xml:space="preserve">https://www.vigienature.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigienature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oiseauxdesjardins.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oiseaux des jardins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollinisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sapoll.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.spipoll.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIPOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référentiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-web/api/doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Taxref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone humide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prélocalisation nationale des zones humides (2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sig.reseau-zones-humides.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau zone humide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.laccreteil.fr/spip.php?rubrique2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-php/accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation IRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://explore.openaire.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plateforme d’Open Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zotero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zotero.org/styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zotero Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outil de création de clef d'identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://faunedefrance.org/bibliotheque-virtuelle-numerique/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliothèque virtuelle numérique – Faune de France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1JiM9drwXFP6inyruDVzBAwRDGi330CDC?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive Natural-host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eu-nomen.eu/portal/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu-nomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction ISNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geomatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carte thématique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light pollution map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://svgsilh.com/fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svgsilh : Base de donnees de formes SVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.3liz.com/lizmap.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logiciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geodacenter.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoda Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastre.gouv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DicoGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.dogeo.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoGeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.dogeo.fr/Projection/#/point-to-coords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoGeo projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eaufrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geo.data.gouv.fr/fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géo data gouv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geofoncier.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geofoncier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geoservices.ign.fr/services-web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géoservices IGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.geotribu.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geotribu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGN : remonter le temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPN inspire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://peigeo.re/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeiGeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://peps.cnes.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.risquesnaturels.re/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risques naturels (PPR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandre Eau France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qfield.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qgis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutoriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.qgis.org/3.10/fr/docs/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docs Qgis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://naturagis.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturagis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.qgistutorials.com/fr/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qgis tutirials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.multibao.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutibao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils collecte information / suivi de biodiversite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.emploi-territorial.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emploi-territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reseau-tee.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau TEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.actu-environnement.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actu environnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.conservation-nature.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rcarto.github.io/carto_avec_r/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rcarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheatsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggplot 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagrammR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc DiagrammR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mermaid-js.github.io/mermaid/#/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mermaid doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mermaid editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qastack Gantt charts with R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rstudio Graphviz and DiagrammR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R markdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bookdown.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheatsheet Flextable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bookdown.org/yihui/rmarkdown-cookbook/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flextable book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://davidgohel.github.io/flextable/reference/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flextable David Gohel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de donnees mondiale pour les plantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ardata-fr.github.io/flextable-gallery/gallery/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flextable Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rmarkdown.rstudio.com/lesson-1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecon R markdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tablesgenerator.com/markdown_tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markdown tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shiny.rstudio.com/tutorial/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny Rstudio tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiny sur serveur AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tidymodels.org/learn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidymodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R pour statophobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stt4230.rbind.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuto R : stt4230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chat.openai.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat GPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://you.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifemap-ncbi.univ-lyon1.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://identificationkey.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificationkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxref-match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xper 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.xper3.fr/?language=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulgarisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.biodiville.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La forêt méditerranéenne vue par un écureuil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@augustinsoulard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustin Soulard – Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Minute nature – Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie Wild – Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/user/EditionsSalamandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamandre - Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversité Wallonie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norvège</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.artsdatabanken.no/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artsdatabanken.no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suède</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://artfakta.se/artinformation?lang=sv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artfakta.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infloflora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchéquie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biolib.cz/en/main/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biolib.cz</t>
   </si>
   <si>
     <t xml:space="preserve">Régions</t>
   </si>
   <si>
+    <t xml:space="preserve">Auvergne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos araignées, insectes, fleurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bretagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.faune-bretagne.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faune Bretagne – LPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bretagne-vivante.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bretagne vivante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre-Val-de-loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fne-centrevaldeloire.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNE Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://plantes-rizieres-guyane.cirad.fr/generalites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantes rizières Guyane Cirad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile-de-France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cettia.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cettia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massif central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faune&amp;Flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fauneflore-massifcentral.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faune &amp; Flore du Massif Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion &amp; restauration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pépinière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pépinière Mayotte de plans indigènes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sauvagesdupoitou.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauvages du Poitou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occitanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrénées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lafloredespyrenees.fr/pagefamille.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La flore des pyrénées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.afleurdepau.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afleurdepau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.atlasflore04.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Flore 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réunion</t>
   </si>
   <si>
@@ -550,588 +1510,12 @@
     <t xml:space="preserve">Nature Océan Indien</t>
   </si>
   <si>
-    <t xml:space="preserve">Référentiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-web/api/doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prélocalisation nationale des zones humides (2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sig.reseau-zones-humides.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zotero.org/styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero Styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outil de création de clef d'identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-php/accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation IRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme d’Open Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraction ISNP</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://data.regionreunion.com/pages/accueil/</t>
   </si>
   <si>
     <t xml:space="preserve">Open data Réunion</t>
   </si>
   <si>
-    <t xml:space="preserve">https://explore.openaire.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geomatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte thématique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light pollution map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://svgsilh.com/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svgsilh : Base de donnees de formes SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastre.gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blog.dogeo.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.dogeo.fr/Projection/#/point-to-coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eaufrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geo.data.gouv.fr/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géo data gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.geofoncier.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofoncier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geoservices.ign.fr/services-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géoservices IGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geotribu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGN : remonter le temps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN inspire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://peigeo.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeiGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://peps.cnes.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.risquesnaturels.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques naturels (PPR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandre Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qfield.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutoriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.qgis.org/3.10/fr/docs/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docs Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturagis.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturagis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.qgistutorials.com/fr/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis tutirials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DicoGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logiciel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geodacenter.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoda Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.3liz.com/lizmap.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.multibao.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutibao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils collecte information / suivi de biodiversite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emploi-territorial.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emploi-territorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reseau-tee.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau TEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.actu-environnement.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actu environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.conservation-nature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rcarto.github.io/carto_avec_r/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rcarto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggplot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid/#/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qastack Gantt charts with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rstudio Graphviz and DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bookdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet Flextable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/yihui/rmarkdown-cookbook/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://davidgohel.github.io/flextable/reference/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable David Gohel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de donnees mondiale pour les plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-gallery/gallery/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rmarkdown.rstudio.com/lesson-1.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecon R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tablesgenerator.com/markdown_tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markdown tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://shiny.rstudio.com/tutorial/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny Rstudio tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny sur serveur AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tidymodels.org/learn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidymodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R pour statophobe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://stt4230.rbind.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuto R : stt4230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://chat.openai.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chat GPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://you.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref-match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xper3.fr/?language=fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulgarisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La forêt méditerranéenne vue par un écureuil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.laccreteil.fr/spip.php?rubrique2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auvergne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photos araignées, insectes, fleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité Wallonie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://plantes-rizieres-guyane.cirad.fr/generalites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantes rizières Guyane Cirad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion &amp; restauration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière Mayotte de plans indigènes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occitanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrénées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.lafloredespyrenees.fr/pagefamille.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.afleurdepau.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afleurdepau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpes-de-Haute-Provence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.atlasflore04.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Flore 04</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://biotopeoi.shinyapps.io/statfore/</t>
   </si>
   <si>
@@ -1360,13 +1744,10 @@
     <t xml:space="preserve">Nature Ocean Idien - Reptiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infloflora</t>
+    <t xml:space="preserve">https://www.vogelwarte.ch/fr/oiseaux/jeu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogewarte</t>
   </si>
   <si>
     <t xml:space="preserve">Réglementaire</t>
@@ -1409,6 +1790,51 @@
   </si>
   <si>
     <t xml:space="preserve">Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cerclenaturalisteetudiants.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cercle Naturaliste des Etudiants Rennais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loiret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://somosorleans.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Société pour le Muséum d’Orléans et les Sciences (So.MOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aspas-nature.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspas-nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://faunedefrance.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fédération Française des Sociétés de Sciences Naturelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occitanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.natureo.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natureo</t>
   </si>
   <si>
     <t xml:space="preserve">Bouches-du-Rhônes (13)</t>
@@ -1475,7 +1901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1505,12 +1931,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1558,7 +1978,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,10 +1993,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1685,7 +2101,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
@@ -1744,13 +2160,13 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1764,11 +2180,14 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1779,15 +2198,15 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1799,13 +2218,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1816,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -1824,8 +2246,8 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>5</v>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1836,13 +2258,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1853,13 +2275,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1870,16 +2295,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1890,16 +2312,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1910,14 +2329,20 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1927,13 +2352,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1944,14 +2375,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1961,13 +2398,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1975,19 +2415,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1995,10 +2435,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
@@ -2012,10 +2452,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
@@ -2029,14 +2469,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2049,19 +2486,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,39 +2506,36 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2109,19 +2543,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2129,19 +2560,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2149,16 +2577,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2166,16 +2597,19 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2183,16 +2617,19 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2200,48 +2637,39 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2249,22 +2677,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2272,16 +2697,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2289,16 +2717,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2306,16 +2737,19 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2323,16 +2757,19 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2340,16 +2777,19 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2357,10 +2797,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>102</v>
@@ -2374,10 +2817,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>104</v>
@@ -2391,10 +2837,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>106</v>
@@ -2408,10 +2857,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>108</v>
@@ -2425,39 +2877,39 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2465,10 +2917,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>116</v>
@@ -2482,16 +2934,16 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2499,16 +2951,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2516,16 +2971,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2533,16 +2991,28 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2550,16 +3020,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2567,16 +3043,16 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2584,16 +3060,16 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2601,16 +3077,16 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2618,16 +3094,16 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2635,16 +3111,16 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2652,19 +3128,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2672,10 +3145,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>147</v>
@@ -2689,10 +3162,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>149</v>
@@ -2700,28 +3173,22 @@
       <c r="F54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2729,19 +3196,22 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>157</v>
+      <c r="H56" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2749,16 +3219,16 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2766,16 +3236,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2783,16 +3253,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2800,16 +3270,16 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2817,33 +3287,33 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2851,791 +3321,833 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>176</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>176</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>44</v>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>44</v>
+        <v>216</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H82" s="1" t="n">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>224</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>44</v>
+        <v>231</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>287</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>289</v>
@@ -3646,13 +4158,13 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>291</v>
@@ -3663,1091 +4175,1037 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F118" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H120" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="1" t="n">
-        <v>6</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>21</v>
+        <v>331</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>195</v>
+        <v>356</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="H152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="F161" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>170</v>
+        <v>433</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>434</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -4756,422 +5214,1509 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>170</v>
+        <v>436</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>170</v>
+        <v>439</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>439</v>
+        <v>12</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>450</v>
+        <v>38</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>478</v>
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H181" s="1" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H236" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I181" s="1" t="n">
+      <c r="I236" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I181"/>
+  <autoFilter ref="A1:I236"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E4" r:id="rId2" display="http://explorer.xper3.fr/accueil/"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
-    <hyperlink ref="E7" r:id="rId4" display="http://www.lenaturaliste.net/portail/index.php"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://www.recolnat.org/fr/"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://www.gbif.org/"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://www.inaturalist.org/users/sign_in"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://openobs.mnhn.fr/"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://asfra.fr/"/>
-    <hyperlink ref="E17" r:id="rId14" display="https://arachno.piwigo.com/index.php?/categories"/>
-    <hyperlink ref="E19" r:id="rId15" display="https://www.insectes-net.fr/index.htm"/>
-    <hyperlink ref="E20" r:id="rId16" display="https://mondedesminuscules.fr/"/>
-    <hyperlink ref="E21" r:id="rId17" display="https://www.myrmecofourmis.fr/"/>
-    <hyperlink ref="E22" r:id="rId18" display="https://ascete.org/"/>
-    <hyperlink ref="E23" r:id="rId19" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E24" r:id="rId20" display="https://www.oiseaux.net/"/>
-    <hyperlink ref="E25" r:id="rId21" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E27" r:id="rId22" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E28" r:id="rId23" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E31" r:id="rId26" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E32" r:id="rId27" display="http://floristic.org/"/>
-    <hyperlink ref="E33" r:id="rId28" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E35" r:id="rId29" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E36" r:id="rId30" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E37" r:id="rId31" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E38" r:id="rId32" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E39" r:id="rId33" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E40" r:id="rId34" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E42" r:id="rId35" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E43" r:id="rId36" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E45" r:id="rId37" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E47" r:id="rId38" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E48" r:id="rId39" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E49" r:id="rId40" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E50" r:id="rId41" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E51" r:id="rId42" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E52" r:id="rId43" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E53" r:id="rId44" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E54" r:id="rId45" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E55" r:id="rId46" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E56" r:id="rId47" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E57" r:id="rId48" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E58" r:id="rId49" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E59" r:id="rId50" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E60" r:id="rId51" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E62" r:id="rId52" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E63" r:id="rId53" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E64" r:id="rId54" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E65" r:id="rId55" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E66" r:id="rId56" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E67" r:id="rId57" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E68" r:id="rId58" display="https://zenodo.org"/>
-    <hyperlink ref="E69" r:id="rId59" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E70" r:id="rId60" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E71" r:id="rId61" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E72" r:id="rId62" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E74" r:id="rId63" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E75" r:id="rId64" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E76" r:id="rId65" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E77" r:id="rId66" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E78" r:id="rId67" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E79" r:id="rId68" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E80" r:id="rId69" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E81" r:id="rId70" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E82" r:id="rId71" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E83" r:id="rId72" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E84" r:id="rId73" display="http://peigeo.re/"/>
-    <hyperlink ref="E85" r:id="rId74" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E86" r:id="rId75" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E87" r:id="rId76" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E88" r:id="rId77" display="https://qfield.org/"/>
-    <hyperlink ref="E91" r:id="rId78" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E92" r:id="rId79" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E93" r:id="rId80" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E94" r:id="rId81" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E95" r:id="rId82" display="http://www.multibao.org/"/>
-    <hyperlink ref="E96" r:id="rId83" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E97" r:id="rId84" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E100" r:id="rId85" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E101" r:id="rId86" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E103" r:id="rId87" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E104" r:id="rId88" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E107" r:id="rId89" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E108" r:id="rId90" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E110" r:id="rId91" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E112" r:id="rId92" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E113" r:id="rId93" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E114" r:id="rId94" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E116" r:id="rId95" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E117" r:id="rId96" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E118" r:id="rId97" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E119" r:id="rId98" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E120" r:id="rId99" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E121" r:id="rId100" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E122" r:id="rId101" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E123" r:id="rId102" display="https://chat.openai.com/"/>
-    <hyperlink ref="E124" r:id="rId103" display="https://you.com/"/>
-    <hyperlink ref="E125" r:id="rId104" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E126" r:id="rId105" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E127" r:id="rId106" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E128" r:id="rId107" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E129" r:id="rId108" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E130" r:id="rId109" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E131" r:id="rId110" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E132" r:id="rId111" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E133" r:id="rId112" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E134" r:id="rId113" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E135" r:id="rId114" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E136" r:id="rId115" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E137" r:id="rId116" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E138" r:id="rId117" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E140" r:id="rId118" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E141" r:id="rId119" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E145" r:id="rId120" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E147" r:id="rId121" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E148" r:id="rId122" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E149" r:id="rId123" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E150" r:id="rId124" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E151" r:id="rId125" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E152" r:id="rId126" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E153" r:id="rId127" display="https://datamermaid.org/"/>
-    <hyperlink ref="E154" r:id="rId128" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E155" r:id="rId129" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E156" r:id="rId130" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E157" r:id="rId131" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E158" r:id="rId132" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E159" r:id="rId133" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E160" r:id="rId134" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E161" r:id="rId135" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E162" r:id="rId136" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E163" r:id="rId137" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E164" r:id="rId138" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E165" r:id="rId139" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E166" r:id="rId140" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E167" r:id="rId141" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E168" r:id="rId142" display="http://peigeo.re/"/>
-    <hyperlink ref="E169" r:id="rId143" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E170" r:id="rId144" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E172" r:id="rId145" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E173" r:id="rId146" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E175" r:id="rId147" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E176" r:id="rId148" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E177" r:id="rId149" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E178" r:id="rId150" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E180" r:id="rId151" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E181" r:id="rId152" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
+    <hyperlink ref="E6" r:id="rId4" display="http://explorer.xper3.fr/accueil/"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
+    <hyperlink ref="E9" r:id="rId6" display="http://www.lenaturaliste.net/portail/index.php"/>
+    <hyperlink ref="E10" r:id="rId7" display="https://www.recolnat.org/fr/"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://scientartistmdano.wordpress.com/"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://www.zoom-nature.fr/"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.gbif.org/"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://data.oreme.org/"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://zenodo.org/record/7534792"/>
+    <hyperlink ref="E20" r:id="rId17" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://asfra.fr/"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://arachno.piwigo.com/index.php?/categories"/>
+    <hyperlink ref="E23" r:id="rId20" display="https://www.quelestcetanimal.com/"/>
+    <hyperlink ref="E24" r:id="rId21" display="http://coronella.free.fr/"/>
+    <hyperlink ref="E25" r:id="rId22" display="http://aramel.free.fr/"/>
+    <hyperlink ref="E27" r:id="rId23" display="https://www.insectes-net.fr/index.htm"/>
+    <hyperlink ref="E28" r:id="rId24" display="https://mondedesminuscules.fr/"/>
+    <hyperlink ref="E29" r:id="rId25" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
+    <hyperlink ref="E30" r:id="rId26" display="https://www.myrmecofourmis.fr/"/>
+    <hyperlink ref="E31" r:id="rId27" display="https://ascete.org/"/>
+    <hyperlink ref="E32" r:id="rId28" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E33" r:id="rId29" display="https://www.oiseaux.net/"/>
+    <hyperlink ref="E34" r:id="rId30" display="http://www.ornitho.fr/"/>
+    <hyperlink ref="E35" r:id="rId31" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
+    <hyperlink ref="E36" r:id="rId32" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
+    <hyperlink ref="E37" r:id="rId33" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
+    <hyperlink ref="E38" r:id="rId34" display="http://fotooizo.free.fr/jeu3.php"/>
+    <hyperlink ref="E39" r:id="rId35" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
+    <hyperlink ref="E40" r:id="rId36" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
+    <hyperlink ref="E41" r:id="rId37" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E43" r:id="rId38" display="https://xeno-canto.org/"/>
+    <hyperlink ref="E44" r:id="rId39" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E45" r:id="rId40" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E46" r:id="rId41" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E47" r:id="rId42" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E48" r:id="rId43" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E49" r:id="rId44" display="http://floristic.org/"/>
+    <hyperlink ref="E50" r:id="rId45" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E52" r:id="rId46" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E53" r:id="rId47" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E54" r:id="rId48" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E55" r:id="rId49" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E56" r:id="rId50" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E57" r:id="rId51" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E59" r:id="rId52" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E60" r:id="rId53" display="http://www.plantsoftheworldonline.org/"/>
+    <hyperlink ref="E62" r:id="rId54" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E64" r:id="rId55" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E65" r:id="rId56" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E66" r:id="rId57" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E67" r:id="rId58" display="https://champis.net/home"/>
+    <hyperlink ref="E68" r:id="rId59" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E69" r:id="rId60" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E70" r:id="rId61" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E71" r:id="rId62" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E72" r:id="rId63" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E73" r:id="rId64" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E74" r:id="rId65" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E75" r:id="rId66" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E76" r:id="rId67" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E77" r:id="rId68" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E79" r:id="rId69" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E80" r:id="rId70" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E81" r:id="rId71" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E82" r:id="rId72" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E83" r:id="rId73" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E84" r:id="rId74" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E85" r:id="rId75" display="https://eol.org/"/>
+    <hyperlink ref="E87" r:id="rId76" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E88" r:id="rId77" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E89" r:id="rId78" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E90" r:id="rId79" display="https://sapoll.eu/"/>
+    <hyperlink ref="E91" r:id="rId80" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E92" r:id="rId81" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E93" r:id="rId82" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E94" r:id="rId83" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E95" r:id="rId84" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E96" r:id="rId85" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E97" r:id="rId86" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E98" r:id="rId87" display="https://zenodo.org"/>
+    <hyperlink ref="E99" r:id="rId88" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E100" r:id="rId89" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E102" r:id="rId90" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E103" r:id="rId91" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E104" r:id="rId92" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E106" r:id="rId93" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E107" r:id="rId94" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E108" r:id="rId95" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E109" r:id="rId96" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E110" r:id="rId97" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E111" r:id="rId98" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E112" r:id="rId99" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E113" r:id="rId100" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E114" r:id="rId101" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E115" r:id="rId102" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E116" r:id="rId103" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E117" r:id="rId104" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E118" r:id="rId105" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E119" r:id="rId106" display="http://peigeo.re/"/>
+    <hyperlink ref="E120" r:id="rId107" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E121" r:id="rId108" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E122" r:id="rId109" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E123" r:id="rId110" display="https://qfield.org/"/>
+    <hyperlink ref="E126" r:id="rId111" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E127" r:id="rId112" display="http://www.multibao.org/"/>
+    <hyperlink ref="E128" r:id="rId113" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E129" r:id="rId114" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E132" r:id="rId115" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E133" r:id="rId116" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E135" r:id="rId117" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E136" r:id="rId118" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E139" r:id="rId119" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E140" r:id="rId120" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E142" r:id="rId121" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E144" r:id="rId122" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E145" r:id="rId123" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E146" r:id="rId124" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E148" r:id="rId125" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E149" r:id="rId126" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E150" r:id="rId127" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E151" r:id="rId128" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E152" r:id="rId129" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E153" r:id="rId130" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E154" r:id="rId131" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E155" r:id="rId132" display="https://chat.openai.com/"/>
+    <hyperlink ref="E156" r:id="rId133" display="https://you.com/"/>
+    <hyperlink ref="E157" r:id="rId134" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E159" r:id="rId135" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E160" r:id="rId136" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E161" r:id="rId137" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E162" r:id="rId138" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E163" r:id="rId139" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E164" r:id="rId140" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E165" r:id="rId141" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E166" r:id="rId142" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E167" r:id="rId143" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E168" r:id="rId144" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E169" r:id="rId145" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E170" r:id="rId146" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E171" r:id="rId147" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E172" r:id="rId148" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E173" r:id="rId149" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E174" r:id="rId150" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E175" r:id="rId151" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E176" r:id="rId152" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E177" r:id="rId153" display="https://cettia.fr/"/>
+    <hyperlink ref="E179" r:id="rId154" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E180" r:id="rId155" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E181" r:id="rId156" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E182" r:id="rId157" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E183" r:id="rId158" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E184" r:id="rId159" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E185" r:id="rId160" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E186" r:id="rId161" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E187" r:id="rId162" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E188" r:id="rId163" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E190" r:id="rId164" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E191" r:id="rId165" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E195" r:id="rId166" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E197" r:id="rId167" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E198" r:id="rId168" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E199" r:id="rId169" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E200" r:id="rId170" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E201" r:id="rId171" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E202" r:id="rId172" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E203" r:id="rId173" display="https://datamermaid.org/"/>
+    <hyperlink ref="E204" r:id="rId174" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E205" r:id="rId175" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E206" r:id="rId176" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E207" r:id="rId177" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E208" r:id="rId178" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E209" r:id="rId179" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E210" r:id="rId180" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E211" r:id="rId181" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E212" r:id="rId182" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E213" r:id="rId183" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E214" r:id="rId184" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E215" r:id="rId185" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E216" r:id="rId186" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E217" r:id="rId187" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E218" r:id="rId188" display="http://peigeo.re/"/>
+    <hyperlink ref="E219" r:id="rId189" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E220" r:id="rId190" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E222" r:id="rId191" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E223" r:id="rId192" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E225" r:id="rId193" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E226" r:id="rId194" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E227" r:id="rId195" display="https://somosorleans.org/"/>
+    <hyperlink ref="E228" r:id="rId196" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E229" r:id="rId197" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E230" r:id="rId198" display="https://www.natureo.org/"/>
+    <hyperlink ref="E231" r:id="rId199" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E232" r:id="rId200" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E233" r:id="rId201" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E235" r:id="rId202" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E236" r:id="rId203" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5180,6 +6725,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId153"/>
+  <drawing r:id="rId204"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$236</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$241</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="639">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -157,6 +157,12 @@
     <t xml:space="preserve">Zoom-nature</t>
   </si>
   <si>
+    <t xml:space="preserve">https://u-g-o.jimdofree.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild World</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mondial</t>
   </si>
   <si>
@@ -427,7 +433,22 @@
     <t xml:space="preserve">Clef XPER 3 Orchidées de France</t>
   </si>
   <si>
+    <t xml:space="preserve">Orobanchaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clef Xper 3 des Orobanchaceae des Bouches-du-Rhône</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outils flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-FLORA-sys</t>
   </si>
   <si>
     <t xml:space="preserve">https://my.plantnet.org/usage</t>
@@ -619,6 +640,12 @@
 Centre-Val de Loire</t>
   </si>
   <si>
+    <t xml:space="preserve">http://cahiers-techniques.espaces-naturels.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cahier technique des espaces naturels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Habitats</t>
   </si>
   <si>
@@ -1240,6 +1267,9 @@
     <t xml:space="preserve">Chat GPT</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.futurepedia.io/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://you.com/</t>
   </si>
   <si>
@@ -1828,9 +1858,6 @@
     <t xml:space="preserve">Fédération Française des Sociétés de Sciences Naturelles</t>
   </si>
   <si>
-    <t xml:space="preserve">occitanie</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.natureo.org/</t>
   </si>
   <si>
@@ -1892,6 +1919,30 @@
   </si>
   <si>
     <t xml:space="preserve">DREAL PACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBOCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sbocc.fr/calendrier/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendrier SBOCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carte Naturalistes des Terres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tourduvalat.centredoc.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Tour du Valat</t>
   </si>
 </sst>
 </file>
@@ -2101,10 +2152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,17 +2449,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2418,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -2438,7 +2492,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
@@ -2455,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
@@ -2472,13 +2529,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,19 +2543,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2506,19 +2560,19 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2529,13 +2583,16 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2546,7 +2603,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>68</v>
@@ -2563,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>70</v>
@@ -2580,16 +2637,13 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2600,16 +2654,16 @@
         <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2620,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
@@ -2640,19 +2694,19 @@
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2714,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -2672,7 +2726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2680,16 +2734,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2700,16 +2754,16 @@
         <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2720,16 +2774,16 @@
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2740,16 +2794,16 @@
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2760,16 +2814,16 @@
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2780,7 +2834,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
@@ -2800,16 +2854,16 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2820,10 +2874,10 @@
         <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>104</v>
@@ -2840,10 +2894,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>106</v>
@@ -2860,10 +2914,10 @@
         <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>108</v>
@@ -2880,16 +2934,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2900,10 +2954,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>113</v>
@@ -2920,13 +2974,16 @@
         <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2937,13 +2994,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2954,10 +3011,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>121</v>
@@ -2971,19 +3025,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2994,26 +3048,17 @@
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -3023,19 +3068,25 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H46" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3046,13 +3097,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>136</v>
+      <c r="H47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3063,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>137</v>
@@ -3080,13 +3137,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3097,13 +3154,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3114,13 +3171,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3131,13 +3188,13 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3148,13 +3205,13 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3165,13 +3222,13 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3182,13 +3239,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3199,20 +3256,14 @@
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H56" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -3222,13 +3273,13 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3239,13 +3290,13 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3256,14 +3307,20 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H59" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -3273,13 +3330,13 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3290,13 +3347,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3307,13 +3364,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3324,13 +3381,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3341,13 +3398,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3358,13 +3415,13 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3372,19 +3429,16 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3392,19 +3446,16 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3412,19 +3463,16 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3432,13 +3480,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>184</v>
@@ -3452,11 +3500,14 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="1" t="s">
         <v>186</v>
       </c>
@@ -3469,11 +3520,14 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>188</v>
       </c>
@@ -3486,16 +3540,19 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3503,19 +3560,16 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3523,16 +3577,16 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3540,22 +3594,16 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3563,19 +3611,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3583,16 +3631,16 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3600,19 +3648,16 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3620,19 +3665,22 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>212</v>
+      <c r="H79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3640,16 +3688,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3657,19 +3708,16 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3677,16 +3725,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3694,16 +3745,19 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3711,19 +3765,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3731,10 +3782,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>15</v>
+        <v>225</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>227</v>
@@ -3748,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>229</v>
@@ -3765,19 +3819,16 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3785,10 +3836,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>15</v>
@@ -3805,13 +3856,10 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>236</v>
@@ -3825,19 +3873,16 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3845,13 +3890,13 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>241</v>
@@ -3865,323 +3910,335 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>126</v>
+        <v>240</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H93" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v>8</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H94" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I94" s="1" t="n">
-        <v>10</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>260</v>
+      <c r="H97" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>263</v>
+      <c r="H98" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>58</v>
+        <v>291</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>293</v>
@@ -4192,484 +4249,484 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H117" s="1" t="n">
-        <v>7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>322</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F136" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>360</v>
@@ -4680,33 +4737,33 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>365</v>
@@ -4714,30 +4771,30 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>369</v>
@@ -4748,13 +4805,13 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>371</v>
@@ -4765,13 +4822,13 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>373</v>
@@ -4782,13 +4839,13 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>375</v>
@@ -4799,33 +4856,30 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G145" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>380</v>
@@ -4836,13 +4890,13 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>382</v>
@@ -4853,13 +4907,13 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>384</v>
@@ -4870,30 +4924,33 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>389</v>
@@ -4904,13 +4961,13 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>391</v>
@@ -4921,36 +4978,30 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H152" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>396</v>
@@ -4961,13 +5012,13 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>398</v>
@@ -4978,621 +5029,618 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>405</v>
+      <c r="H156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="F162" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="F164" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D166" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>459</v>
+        <v>12</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>462</v>
+        <v>15</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>469</v>
+        <v>38</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>496</v>
+        <v>12</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>93</v>
+        <v>501</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>502</v>
@@ -5603,13 +5651,13 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>504</v>
@@ -5620,16 +5668,13 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>506</v>
@@ -5640,13 +5685,13 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>508</v>
@@ -5657,13 +5702,16 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>510</v>
@@ -5674,13 +5722,16 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>512</v>
@@ -5691,13 +5742,13 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>514</v>
@@ -5708,16 +5759,16 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>473</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>516</v>
@@ -5728,153 +5779,141 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>9</v>
@@ -5886,15 +5925,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>9</v>
@@ -5908,276 +5947,276 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>537</v>
+        <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>537</v>
+        <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>537</v>
+        <v>9</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>313</v>
+        <v>563</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>314</v>
+        <v>564</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>565</v>
@@ -6188,33 +6227,36 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>569</v>
+        <v>528</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>570</v>
@@ -6225,16 +6267,16 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>96</v>
+        <v>567</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>572</v>
@@ -6243,276 +6285,430 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="E225" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="E228" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="F228" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>486</v>
+        <v>601</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>486</v>
+        <v>605</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F234" s="1" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="F237" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E235" s="1" t="s">
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F238" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B236" s="1" t="s">
+    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E236" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="H236" s="1" t="n">
+      <c r="F239" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H241" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I236" s="1" t="n">
+      <c r="I241" s="1" t="n">
         <v>8</v>
       </c>
     </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I236"/>
+  <autoFilter ref="A1:I241"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
     <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
@@ -6524,199 +6720,207 @@
     <hyperlink ref="E11" r:id="rId8" display="https://scientartistmdano.wordpress.com/"/>
     <hyperlink ref="E12" r:id="rId9" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
     <hyperlink ref="E13" r:id="rId10" display="https://www.zoom-nature.fr/"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E17" r:id="rId14" display="https://www.gbif.org/"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://data.oreme.org/"/>
-    <hyperlink ref="E19" r:id="rId16" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E20" r:id="rId17" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
-    <hyperlink ref="E21" r:id="rId18" display="https://asfra.fr/"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://arachno.piwigo.com/index.php?/categories"/>
-    <hyperlink ref="E23" r:id="rId20" display="https://www.quelestcetanimal.com/"/>
-    <hyperlink ref="E24" r:id="rId21" display="http://coronella.free.fr/"/>
-    <hyperlink ref="E25" r:id="rId22" display="http://aramel.free.fr/"/>
-    <hyperlink ref="E27" r:id="rId23" display="https://www.insectes-net.fr/index.htm"/>
-    <hyperlink ref="E28" r:id="rId24" display="https://mondedesminuscules.fr/"/>
-    <hyperlink ref="E29" r:id="rId25" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
-    <hyperlink ref="E30" r:id="rId26" display="https://www.myrmecofourmis.fr/"/>
-    <hyperlink ref="E31" r:id="rId27" display="https://ascete.org/"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://www.oiseaux.net/"/>
-    <hyperlink ref="E34" r:id="rId30" display="http://www.ornitho.fr/"/>
-    <hyperlink ref="E35" r:id="rId31" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
-    <hyperlink ref="E36" r:id="rId32" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
-    <hyperlink ref="E37" r:id="rId33" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
-    <hyperlink ref="E38" r:id="rId34" display="http://fotooizo.free.fr/jeu3.php"/>
-    <hyperlink ref="E39" r:id="rId35" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
-    <hyperlink ref="E40" r:id="rId36" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
-    <hyperlink ref="E41" r:id="rId37" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E43" r:id="rId38" display="https://xeno-canto.org/"/>
-    <hyperlink ref="E44" r:id="rId39" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E45" r:id="rId40" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E46" r:id="rId41" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E47" r:id="rId42" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E48" r:id="rId43" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E49" r:id="rId44" display="http://floristic.org/"/>
-    <hyperlink ref="E50" r:id="rId45" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E52" r:id="rId46" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E53" r:id="rId47" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E54" r:id="rId48" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E55" r:id="rId49" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E56" r:id="rId50" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E57" r:id="rId51" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E59" r:id="rId52" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E60" r:id="rId53" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E62" r:id="rId54" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E64" r:id="rId55" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E65" r:id="rId56" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E66" r:id="rId57" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
-    <hyperlink ref="E67" r:id="rId58" display="https://champis.net/home"/>
-    <hyperlink ref="E68" r:id="rId59" display="https://www.mycodb.fr/searchfam.php"/>
-    <hyperlink ref="E69" r:id="rId60" display="https://www.afl-lichenologie.fr/"/>
-    <hyperlink ref="E70" r:id="rId61" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E71" r:id="rId62" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E72" r:id="rId63" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E73" r:id="rId64" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E74" r:id="rId65" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E75" r:id="rId66" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E76" r:id="rId67" display="https://www.freshwaterecology.info/"/>
-    <hyperlink ref="E77" r:id="rId68" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E79" r:id="rId69" display="https://www.marinespecies.org/photogallery.php"/>
-    <hyperlink ref="E80" r:id="rId70" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E81" r:id="rId71" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E82" r:id="rId72" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E83" r:id="rId73" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E84" r:id="rId74" display="https://www.nobanis.org/"/>
-    <hyperlink ref="E85" r:id="rId75" display="https://eol.org/"/>
-    <hyperlink ref="E87" r:id="rId76" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E88" r:id="rId77" display="https://www.vigienature.fr/"/>
-    <hyperlink ref="E89" r:id="rId78" display="https://www.oiseauxdesjardins.fr/"/>
-    <hyperlink ref="E90" r:id="rId79" display="https://sapoll.eu/"/>
-    <hyperlink ref="E91" r:id="rId80" display="https://www.spipoll.org/"/>
-    <hyperlink ref="E92" r:id="rId81" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E93" r:id="rId82" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E94" r:id="rId83" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E95" r:id="rId84" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E96" r:id="rId85" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E97" r:id="rId86" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E98" r:id="rId87" display="https://zenodo.org"/>
-    <hyperlink ref="E99" r:id="rId88" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E100" r:id="rId89" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
-    <hyperlink ref="E102" r:id="rId90" display="https://www.eu-nomen.eu/portal/index.php"/>
-    <hyperlink ref="E103" r:id="rId91" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E104" r:id="rId92" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E106" r:id="rId93" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E107" r:id="rId94" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E108" r:id="rId95" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E109" r:id="rId96" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E110" r:id="rId97" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E111" r:id="rId98" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E112" r:id="rId99" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E113" r:id="rId100" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E114" r:id="rId101" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E115" r:id="rId102" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E116" r:id="rId103" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E117" r:id="rId104" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E118" r:id="rId105" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E119" r:id="rId106" display="http://peigeo.re/"/>
-    <hyperlink ref="E120" r:id="rId107" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E121" r:id="rId108" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E122" r:id="rId109" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E123" r:id="rId110" display="https://qfield.org/"/>
-    <hyperlink ref="E126" r:id="rId111" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E127" r:id="rId112" display="http://www.multibao.org/"/>
-    <hyperlink ref="E128" r:id="rId113" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E129" r:id="rId114" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E132" r:id="rId115" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E133" r:id="rId116" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E135" r:id="rId117" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E136" r:id="rId118" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E139" r:id="rId119" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E140" r:id="rId120" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E142" r:id="rId121" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E144" r:id="rId122" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E145" r:id="rId123" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E146" r:id="rId124" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E148" r:id="rId125" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E149" r:id="rId126" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E150" r:id="rId127" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E151" r:id="rId128" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E152" r:id="rId129" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E153" r:id="rId130" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E154" r:id="rId131" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E155" r:id="rId132" display="https://chat.openai.com/"/>
-    <hyperlink ref="E156" r:id="rId133" display="https://you.com/"/>
-    <hyperlink ref="E157" r:id="rId134" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
-    <hyperlink ref="E159" r:id="rId135" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E160" r:id="rId136" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E161" r:id="rId137" display="http://www.biodiville.org/"/>
-    <hyperlink ref="E162" r:id="rId138" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E163" r:id="rId139" display="https://www.youtube.com/@augustinsoulard"/>
-    <hyperlink ref="E164" r:id="rId140" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
-    <hyperlink ref="E165" r:id="rId141" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
-    <hyperlink ref="E166" r:id="rId142" display="https://www.youtube.com/user/EditionsSalamandre"/>
-    <hyperlink ref="E167" r:id="rId143" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E168" r:id="rId144" display="https://www.artsdatabanken.no/"/>
-    <hyperlink ref="E169" r:id="rId145" display="https://artfakta.se/artinformation?lang=sv"/>
-    <hyperlink ref="E170" r:id="rId146" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E171" r:id="rId147" display="https://www.biolib.cz/en/main/"/>
-    <hyperlink ref="E172" r:id="rId148" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E173" r:id="rId149" display="https://www.faune-bretagne.org/"/>
-    <hyperlink ref="E174" r:id="rId150" display="https://www.bretagne-vivante.org/"/>
-    <hyperlink ref="E175" r:id="rId151" display="https://fne-centrevaldeloire.org/"/>
-    <hyperlink ref="E176" r:id="rId152" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E177" r:id="rId153" display="https://cettia.fr/"/>
-    <hyperlink ref="E179" r:id="rId154" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E180" r:id="rId155" display="https://www.sauvagesdupoitou.com/"/>
-    <hyperlink ref="E181" r:id="rId156" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E182" r:id="rId157" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E183" r:id="rId158" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E184" r:id="rId159" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E185" r:id="rId160" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E186" r:id="rId161" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E187" r:id="rId162" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E188" r:id="rId163" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E190" r:id="rId164" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E191" r:id="rId165" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E195" r:id="rId166" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E197" r:id="rId167" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E198" r:id="rId168" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E199" r:id="rId169" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E200" r:id="rId170" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E201" r:id="rId171" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E202" r:id="rId172" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E203" r:id="rId173" display="https://datamermaid.org/"/>
-    <hyperlink ref="E204" r:id="rId174" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E205" r:id="rId175" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E206" r:id="rId176" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E207" r:id="rId177" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E208" r:id="rId178" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E209" r:id="rId179" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E210" r:id="rId180" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E211" r:id="rId181" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E212" r:id="rId182" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E213" r:id="rId183" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E214" r:id="rId184" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E215" r:id="rId185" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E216" r:id="rId186" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E217" r:id="rId187" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E218" r:id="rId188" display="http://peigeo.re/"/>
-    <hyperlink ref="E219" r:id="rId189" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E220" r:id="rId190" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E222" r:id="rId191" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
-    <hyperlink ref="E223" r:id="rId192" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E225" r:id="rId193" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E226" r:id="rId194" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
-    <hyperlink ref="E227" r:id="rId195" display="https://somosorleans.org/"/>
-    <hyperlink ref="E228" r:id="rId196" display="https://www.aspas-nature.org/"/>
-    <hyperlink ref="E229" r:id="rId197" display="https://faunedefrance.org/"/>
-    <hyperlink ref="E230" r:id="rId198" display="https://www.natureo.org/"/>
-    <hyperlink ref="E231" r:id="rId199" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E232" r:id="rId200" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E233" r:id="rId201" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E235" r:id="rId202" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E236" r:id="rId203" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://u-g-o.jimdofree.com/"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://www.gbif.org/"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://data.oreme.org/"/>
+    <hyperlink ref="E20" r:id="rId17" display="https://zenodo.org/record/7534792"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://asfra.fr/"/>
+    <hyperlink ref="E23" r:id="rId20" display="https://arachno.piwigo.com/index.php?/categories"/>
+    <hyperlink ref="E24" r:id="rId21" display="https://www.quelestcetanimal.com/"/>
+    <hyperlink ref="E25" r:id="rId22" display="http://coronella.free.fr/"/>
+    <hyperlink ref="E26" r:id="rId23" display="http://aramel.free.fr/"/>
+    <hyperlink ref="E28" r:id="rId24" display="https://www.insectes-net.fr/index.htm"/>
+    <hyperlink ref="E29" r:id="rId25" display="https://mondedesminuscules.fr/"/>
+    <hyperlink ref="E30" r:id="rId26" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
+    <hyperlink ref="E31" r:id="rId27" display="https://www.myrmecofourmis.fr/"/>
+    <hyperlink ref="E32" r:id="rId28" display="https://ascete.org/"/>
+    <hyperlink ref="E33" r:id="rId29" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E34" r:id="rId30" display="https://www.oiseaux.net/"/>
+    <hyperlink ref="E35" r:id="rId31" display="http://www.ornitho.fr/"/>
+    <hyperlink ref="E36" r:id="rId32" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
+    <hyperlink ref="E37" r:id="rId33" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
+    <hyperlink ref="E38" r:id="rId34" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
+    <hyperlink ref="E39" r:id="rId35" display="http://fotooizo.free.fr/jeu3.php"/>
+    <hyperlink ref="E40" r:id="rId36" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
+    <hyperlink ref="E41" r:id="rId37" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
+    <hyperlink ref="E42" r:id="rId38" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E44" r:id="rId39" display="https://xeno-canto.org/"/>
+    <hyperlink ref="E45" r:id="rId40" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E46" r:id="rId41" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E47" r:id="rId42" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E48" r:id="rId43" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
+    <hyperlink ref="E49" r:id="rId44" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
+    <hyperlink ref="E50" r:id="rId45" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E51" r:id="rId46" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E52" r:id="rId47" display="http://floristic.org/"/>
+    <hyperlink ref="E53" r:id="rId48" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E55" r:id="rId49" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E56" r:id="rId50" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E57" r:id="rId51" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E58" r:id="rId52" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E59" r:id="rId53" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E60" r:id="rId54" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E62" r:id="rId55" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E63" r:id="rId56" display="http://www.plantsoftheworldonline.org/"/>
+    <hyperlink ref="E65" r:id="rId57" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E67" r:id="rId58" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E68" r:id="rId59" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E69" r:id="rId60" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E70" r:id="rId61" display="https://champis.net/home"/>
+    <hyperlink ref="E71" r:id="rId62" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E72" r:id="rId63" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E73" r:id="rId64" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E74" r:id="rId65" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E75" r:id="rId66" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E76" r:id="rId67" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E77" r:id="rId68" display="http://cahiers-techniques.espaces-naturels.fr/"/>
+    <hyperlink ref="E78" r:id="rId69" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E79" r:id="rId70" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E80" r:id="rId71" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E81" r:id="rId72" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E83" r:id="rId73" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E84" r:id="rId74" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E85" r:id="rId75" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E86" r:id="rId76" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E87" r:id="rId77" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E88" r:id="rId78" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E89" r:id="rId79" display="https://eol.org/"/>
+    <hyperlink ref="E91" r:id="rId80" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E92" r:id="rId81" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E93" r:id="rId82" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E94" r:id="rId83" display="https://sapoll.eu/"/>
+    <hyperlink ref="E95" r:id="rId84" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E96" r:id="rId85" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E97" r:id="rId86" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E98" r:id="rId87" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E99" r:id="rId88" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E100" r:id="rId89" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E101" r:id="rId90" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E102" r:id="rId91" display="https://zenodo.org"/>
+    <hyperlink ref="E103" r:id="rId92" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E104" r:id="rId93" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E106" r:id="rId94" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E107" r:id="rId95" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E108" r:id="rId96" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E110" r:id="rId97" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E111" r:id="rId98" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E112" r:id="rId99" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E113" r:id="rId100" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E114" r:id="rId101" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E115" r:id="rId102" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E116" r:id="rId103" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E117" r:id="rId104" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E118" r:id="rId105" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E119" r:id="rId106" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E120" r:id="rId107" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E121" r:id="rId108" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E122" r:id="rId109" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E123" r:id="rId110" display="http://peigeo.re/"/>
+    <hyperlink ref="E124" r:id="rId111" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E125" r:id="rId112" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E126" r:id="rId113" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E127" r:id="rId114" display="https://qfield.org/"/>
+    <hyperlink ref="E130" r:id="rId115" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E131" r:id="rId116" display="http://www.multibao.org/"/>
+    <hyperlink ref="E132" r:id="rId117" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E133" r:id="rId118" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E136" r:id="rId119" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E137" r:id="rId120" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E139" r:id="rId121" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E140" r:id="rId122" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E143" r:id="rId123" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E144" r:id="rId124" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E146" r:id="rId125" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E148" r:id="rId126" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E149" r:id="rId127" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E150" r:id="rId128" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E152" r:id="rId129" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E153" r:id="rId130" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E154" r:id="rId131" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E155" r:id="rId132" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E156" r:id="rId133" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E157" r:id="rId134" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E158" r:id="rId135" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E159" r:id="rId136" display="https://chat.openai.com/"/>
+    <hyperlink ref="E160" r:id="rId137" display="https://www.futurepedia.io/"/>
+    <hyperlink ref="E161" r:id="rId138" display="https://you.com/"/>
+    <hyperlink ref="E162" r:id="rId139" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E164" r:id="rId140" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E165" r:id="rId141" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E166" r:id="rId142" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E167" r:id="rId143" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E168" r:id="rId144" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E169" r:id="rId145" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E170" r:id="rId146" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E171" r:id="rId147" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E172" r:id="rId148" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E173" r:id="rId149" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E174" r:id="rId150" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E175" r:id="rId151" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E176" r:id="rId152" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E177" r:id="rId153" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E178" r:id="rId154" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E179" r:id="rId155" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E180" r:id="rId156" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E181" r:id="rId157" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E182" r:id="rId158" display="https://cettia.fr/"/>
+    <hyperlink ref="E184" r:id="rId159" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E185" r:id="rId160" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E186" r:id="rId161" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E187" r:id="rId162" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E188" r:id="rId163" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E189" r:id="rId164" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E190" r:id="rId165" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E191" r:id="rId166" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E192" r:id="rId167" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E193" r:id="rId168" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E195" r:id="rId169" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E196" r:id="rId170" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E200" r:id="rId171" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E202" r:id="rId172" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E203" r:id="rId173" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E204" r:id="rId174" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E205" r:id="rId175" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E206" r:id="rId176" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E207" r:id="rId177" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E208" r:id="rId178" display="https://datamermaid.org/"/>
+    <hyperlink ref="E209" r:id="rId179" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E210" r:id="rId180" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E211" r:id="rId181" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E212" r:id="rId182" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E213" r:id="rId183" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E214" r:id="rId184" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E215" r:id="rId185" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E216" r:id="rId186" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E217" r:id="rId187" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E218" r:id="rId188" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E219" r:id="rId189" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E220" r:id="rId190" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E221" r:id="rId191" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E222" r:id="rId192" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E223" r:id="rId193" display="http://peigeo.re/"/>
+    <hyperlink ref="E224" r:id="rId194" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E225" r:id="rId195" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E227" r:id="rId196" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E228" r:id="rId197" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E230" r:id="rId198" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E231" r:id="rId199" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E232" r:id="rId200" display="https://somosorleans.org/"/>
+    <hyperlink ref="E233" r:id="rId201" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E234" r:id="rId202" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E235" r:id="rId203" display="https://www.natureo.org/"/>
+    <hyperlink ref="E236" r:id="rId204" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E237" r:id="rId205" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E238" r:id="rId206" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E240" r:id="rId207" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E241" r:id="rId208" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E242" r:id="rId209" display="https://sbocc.fr/calendrier/"/>
+    <hyperlink ref="E243" r:id="rId210" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
+    <hyperlink ref="E244" r:id="rId211" display="https://tourduvalat.centredoc.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6725,6 +6929,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId204"/>
+  <drawing r:id="rId212"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$241</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$272</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="706">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -151,18 +151,18 @@
     <t xml:space="preserve">Bibliothèque naturaliste par Antoine Csutoros</t>
   </si>
   <si>
+    <t xml:space="preserve">https://u-g-o.jimdofree.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild World</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.zoom-nature.fr/</t>
   </si>
   <si>
     <t xml:space="preserve">Zoom-nature</t>
   </si>
   <si>
-    <t xml:space="preserve">https://u-g-o.jimdofree.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild World</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mondial</t>
   </si>
   <si>
@@ -400,6 +400,159 @@
     <t xml:space="preserve">Xeno-canto</t>
   </si>
   <si>
+    <t xml:space="preserve">Donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comestible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discovery.dundee.ac.uk/en/datasets/edible-plant-database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edible Plant Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boite à outil – Le Plantoscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.try-db.org/TryWeb/Home.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.florealpes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloreAlpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.preservons-la-nature.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préservons la nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sysbio.univ-lille1.fr/fiches/plantae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sysbio – Plante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tela-botanica.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela-botanica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.quantitative-plant.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://plants.jstor.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le trésor de Rémi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biologievegetale.be/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biologie végétale – UCLouvain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://my.plantnet.org/usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API plantnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-FLORA-sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flore-en-ligne.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flore en Ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://floristic.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.bgci.org/global_tree_search.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Tree Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossaire botanique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbier MNHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/identify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantnet identification la Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uses.plantnet-project.org/fr/Accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://theplantgame.com/login/?next=/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThePlantGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par groupe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bryophytes</t>
   </si>
   <si>
@@ -409,22 +562,7 @@
     <t xml:space="preserve">Bryophytes de France - La Réunion</t>
   </si>
   <si>
-    <t xml:space="preserve">Donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.try-db.org/TryWeb/Home.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées</t>
+    <t xml:space="preserve">Orchidaceae</t>
   </si>
   <si>
     <t xml:space="preserve">https://orchidees-france.identificationkey.org/mkey.html</t>
@@ -433,6 +571,30 @@
     <t xml:space="preserve">Clef XPER 3 Orchidées de France</t>
   </si>
   <si>
+    <t xml:space="preserve">http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchidées en France – durbphil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elisajeanluc.fr/orchidees_nature/index.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchidées Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.orchidsofbritainandeurope.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchids of Britain and Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.orchidee-poitou-charentes.org/spip.php?rubrique155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFO-PCV Société Française d'Orchidophilie de Poitou-Charentes et Vendée</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orobanchaceae</t>
   </si>
   <si>
@@ -442,67 +604,13 @@
     <t xml:space="preserve">Clef Xper 3 des Orobanchaceae des Bouches-du-Rhône</t>
   </si>
   <si>
-    <t xml:space="preserve">Outils flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-FLORA-sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://my.plantnet.org/usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API plantnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flore-en-ligne.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flore en Ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://floristic.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tools.bgci.org/global_tree_search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Tree Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossaire botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbier MNHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet identification la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uses.plantnet-project.org/fr/Accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlantUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://theplantgame.com/login/?next=/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThePlantGame</t>
+    <t xml:space="preserve">Poaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://botarela.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botarela</t>
   </si>
   <si>
     <t xml:space="preserve">Photo</t>
@@ -529,6 +637,12 @@
     <t xml:space="preserve">Habiter la Reunion - Flore</t>
   </si>
   <si>
+    <t xml:space="preserve">https://abiris.snv.jussieu.fr/flore/herbier.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’herbier en image – Pierre Goujon</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.plantes-botanique.org/</t>
   </si>
   <si>
@@ -547,12 +661,15 @@
     <t xml:space="preserve">PNR - flore</t>
   </si>
   <si>
+    <t xml:space="preserve">https://quelle-est-cette-fleur.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est cette plante</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.quelleestcetteplante.fr/</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelle est cette plante</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
   </si>
   <si>
@@ -571,6 +688,48 @@
     <t xml:space="preserve">Willyplante canalblog</t>
   </si>
   <si>
+    <t xml:space="preserve">Taxonomie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipni.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Plant Names Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theplantlist.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Plant List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.worldfloraonline.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Flora Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://floranet.pagesperso-orange.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floranet : Identification de plantes médicinales et toxiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pfaf.org/user/Default.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant for a futur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wikiphyto.org/wiki/Accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WikiPhyto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fonge</t>
   </si>
   <si>
@@ -623,6 +782,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cahiers-techniques.espaces-naturels.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cahier technique des espaces naturels</t>
   </si>
   <si>
     <t xml:space="preserve">Restauration</t>
@@ -640,12 +805,6 @@
 Centre-Val de Loire</t>
   </si>
   <si>
-    <t xml:space="preserve">http://cahiers-techniques.espaces-naturels.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cahier technique des espaces naturels</t>
-  </si>
-  <si>
     <t xml:space="preserve">Habitats</t>
   </si>
   <si>
@@ -667,12 +826,27 @@
     <t xml:space="preserve">Eau douce</t>
   </si>
   <si>
+    <t xml:space="preserve">http://cfb.unh.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Fresjwater Biology</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.freshwaterecology.info/</t>
   </si>
   <si>
     <t xml:space="preserve">Freshwaterecology.info</t>
   </si>
   <si>
+    <t xml:space="preserve">Plancton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive Plancton</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://habitats-naturels.info/</t>
   </si>
   <si>
@@ -751,6 +925,12 @@
     <t xml:space="preserve">Sciences participatives</t>
   </si>
   <si>
+    <t xml:space="preserve">http://lesherbonautes.mnhn.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbonautes</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.particitae.upmc.fr/fr/index.html</t>
   </si>
   <si>
@@ -817,9 +997,6 @@
     <t xml:space="preserve">Outils</t>
   </si>
   <si>
-    <t xml:space="preserve">Bibliographie</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.laccreteil.fr/spip.php?rubrique2</t>
   </si>
   <si>
@@ -1087,6 +1264,12 @@
     <t xml:space="preserve">Réseau TEE</t>
   </si>
   <si>
+    <t xml:space="preserve">https://leplantoscope.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Plantoscope</t>
+  </si>
+  <si>
     <t xml:space="preserve">Media</t>
   </si>
   <si>
@@ -1267,18 +1450,15 @@
     <t xml:space="preserve">Chat GPT</t>
   </si>
   <si>
+    <t xml:space="preserve">https://you.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.futurepedia.io/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://you.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomie</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://lifemap-ncbi.univ-lyon1.fr/</t>
   </si>
   <si>
@@ -1330,6 +1510,12 @@
     <t xml:space="preserve">Youtube</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le chemin de la nature</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.youtube.com/@augustinsoulard</t>
   </si>
   <si>
@@ -1366,6 +1552,12 @@
     <t xml:space="preserve">Biodiversité Wallonie</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.herbierimages.be/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’herbier en image – Belgique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norvège</t>
   </si>
   <si>
@@ -1576,6 +1768,9 @@
     <t xml:space="preserve">Faune Réunion</t>
   </si>
   <si>
+    <t xml:space="preserve">Orchidées</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://orchidees.vandes.com/</t>
   </si>
   <si>
@@ -1858,12 +2053,27 @@
     <t xml:space="preserve">Fédération Française des Sociétés de Sciences Naturelles</t>
   </si>
   <si>
+    <t xml:space="preserve">https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carte Naturalistes des Terres</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.natureo.org/</t>
   </si>
   <si>
     <t xml:space="preserve">Natureo</t>
   </si>
   <si>
+    <t xml:space="preserve">SBOCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sbocc.fr/calendrier/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendrier SBOCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bouches-du-Rhônes (13)</t>
   </si>
   <si>
@@ -1912,6 +2122,12 @@
     <t xml:space="preserve">CBN Massif Central</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.cbn-alpin.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBN Alpin</t>
+  </si>
+  <si>
     <t xml:space="preserve">DREAL</t>
   </si>
   <si>
@@ -1919,21 +2135,6 @@
   </si>
   <si>
     <t xml:space="preserve">DREAL PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBOCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sbocc.fr/calendrier/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendrier SBOCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte Naturalistes des Terres</t>
   </si>
   <si>
     <t xml:space="preserve">Réserve</t>
@@ -2152,10 +2353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3050,14 +3251,14 @@
       <c r="C45" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3068,25 +3269,16 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3097,19 +3289,25 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H47" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3120,13 +3318,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3137,13 +3335,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3154,13 +3352,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3171,13 +3369,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3188,13 +3386,16 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3205,7 +3406,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>148</v>
@@ -3222,7 +3426,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>150</v>
@@ -3239,13 +3446,16 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3256,13 +3466,13 @@
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3273,13 +3483,13 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3290,13 +3500,13 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3307,20 +3517,14 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -3330,13 +3534,13 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3347,13 +3551,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3364,13 +3568,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3381,13 +3585,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3398,13 +3602,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3415,13 +3619,13 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3432,13 +3636,19 @@
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3449,13 +3659,22 @@
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3466,13 +3685,16 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3480,13 +3702,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>184</v>
@@ -3500,13 +3722,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>186</v>
@@ -3520,13 +3742,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>188</v>
@@ -3540,13 +3762,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>191</v>
@@ -3560,16 +3782,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3577,16 +3802,22 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3594,16 +3825,16 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3611,18 +3842,15 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G76" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3631,10 +3859,10 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>204</v>
@@ -3648,16 +3876,16 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3665,22 +3893,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I79" s="1" t="n">
-        <v>8</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3688,19 +3910,16 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3708,16 +3927,16 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3725,19 +3944,16 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3745,19 +3961,16 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3765,16 +3978,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3782,19 +3995,16 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3802,16 +4012,19 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3819,16 +4032,19 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3836,19 +4052,19 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3856,16 +4072,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3873,16 +4092,19 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3890,19 +4112,19 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3910,19 +4132,19 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3930,19 +4152,19 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3950,19 +4172,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3970,19 +4192,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3990,2253 +4212,2238 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I97" s="1" t="n">
-        <v>8</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H98" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I98" s="1" t="n">
-        <v>10</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>235</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>15</v>
+        <v>265</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="F112" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>60</v>
+        <v>291</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H121" s="1" t="n">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="F130" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>341</v>
+        <v>38</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="F142" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="H148" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H156" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1" t="n">
-        <v>6</v>
+        <v>396</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>333</v>
+        <v>391</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F161" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>444</v>
+        <v>426</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>461</v>
+        <v>438</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>486</v>
+        <v>465</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>15</v>
+        <v>392</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>492</v>
+        <v>392</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>15</v>
+        <v>471</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>498</v>
+        <v>471</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>500</v>
+        <v>221</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>500</v>
+        <v>221</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>277</v>
+        <v>479</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>500</v>
+        <v>221</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>256</v>
+        <v>482</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>500</v>
+        <v>221</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>514</v>
+        <v>490</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>12</v>
+        <v>493</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>12</v>
+        <v>493</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="F199" s="1" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>12</v>
+        <v>493</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D201" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>526</v>
+      <c r="E201" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>529</v>
+        <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="1" t="s">
+      <c r="F208" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="1" t="s">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F208" s="1" t="s">
+    </row>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F210" s="1" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F212" s="1" t="s">
+    </row>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E213" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E214" s="1" t="s">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="E216" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F215" s="1" t="s">
+    </row>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E216" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F216" s="1" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="D218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F218" s="1" t="s">
+    </row>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>568</v>
@@ -6245,18 +6452,15 @@
         <v>569</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>570</v>
@@ -6265,18 +6469,15 @@
         <v>571</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>567</v>
+        <v>316</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>572</v>
@@ -6285,430 +6486,1033 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>567</v>
+        <v>77</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>322</v>
+        <v>574</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>574</v>
+        <v>95</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>574</v>
+        <v>38</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>579</v>
+        <v>12</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>452</v>
+        <v>564</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="228" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C230" s="1" t="s">
+      <c r="F233" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="D234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="F234" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F231" s="1" t="s">
+    </row>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C232" s="1" t="s">
+      <c r="F235" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D232" s="1" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="F236" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>496</v>
+        <v>593</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>496</v>
+        <v>593</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>620</v>
+        <v>593</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>625</v>
+        <v>593</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>496</v>
+        <v>593</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="H241" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I241" s="1" t="n">
-        <v>8</v>
+        <v>614</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>490</v>
+        <v>593</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>15</v>
+        <v>593</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>636</v>
+        <v>564</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>496</v>
+        <v>593</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>612</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F244" s="1" t="s">
+      <c r="F252" s="1" t="s">
         <v>638</v>
       </c>
     </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H274" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I274" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I241"/>
+  <autoFilter ref="A1:I272"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
     <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
@@ -6719,8 +7523,8 @@
     <hyperlink ref="E10" r:id="rId7" display="https://www.recolnat.org/fr/"/>
     <hyperlink ref="E11" r:id="rId8" display="https://scientartistmdano.wordpress.com/"/>
     <hyperlink ref="E12" r:id="rId9" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://www.zoom-nature.fr/"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://u-g-o.jimdofree.com/"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://u-g-o.jimdofree.com/"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.zoom-nature.fr/"/>
     <hyperlink ref="E15" r:id="rId12" display="https://www.iucnredlist.org/fr/"/>
     <hyperlink ref="E16" r:id="rId13" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
     <hyperlink ref="E17" r:id="rId14" display="https://www.biodiversitylibrary.org/"/>
@@ -6749,178 +7553,209 @@
     <hyperlink ref="E41" r:id="rId37" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
     <hyperlink ref="E42" r:id="rId38" display="https://www.deepfaune.cnrs.fr/"/>
     <hyperlink ref="E44" r:id="rId39" display="https://xeno-canto.org/"/>
-    <hyperlink ref="E45" r:id="rId40" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E46" r:id="rId41" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E47" r:id="rId42" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E48" r:id="rId43" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
-    <hyperlink ref="E49" r:id="rId44" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
-    <hyperlink ref="E50" r:id="rId45" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E51" r:id="rId46" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E52" r:id="rId47" display="http://floristic.org/"/>
-    <hyperlink ref="E53" r:id="rId48" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E55" r:id="rId49" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E56" r:id="rId50" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E57" r:id="rId51" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E58" r:id="rId52" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E59" r:id="rId53" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E60" r:id="rId54" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E62" r:id="rId55" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E63" r:id="rId56" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E65" r:id="rId57" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E67" r:id="rId58" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E68" r:id="rId59" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E69" r:id="rId60" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
-    <hyperlink ref="E70" r:id="rId61" display="https://champis.net/home"/>
-    <hyperlink ref="E71" r:id="rId62" display="https://www.mycodb.fr/searchfam.php"/>
-    <hyperlink ref="E72" r:id="rId63" display="https://www.afl-lichenologie.fr/"/>
-    <hyperlink ref="E73" r:id="rId64" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E74" r:id="rId65" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E75" r:id="rId66" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E76" r:id="rId67" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E77" r:id="rId68" display="http://cahiers-techniques.espaces-naturels.fr/"/>
-    <hyperlink ref="E78" r:id="rId69" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E79" r:id="rId70" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E80" r:id="rId71" display="https://www.freshwaterecology.info/"/>
-    <hyperlink ref="E81" r:id="rId72" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E83" r:id="rId73" display="https://www.marinespecies.org/photogallery.php"/>
-    <hyperlink ref="E84" r:id="rId74" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E85" r:id="rId75" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E86" r:id="rId76" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E87" r:id="rId77" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E88" r:id="rId78" display="https://www.nobanis.org/"/>
-    <hyperlink ref="E89" r:id="rId79" display="https://eol.org/"/>
-    <hyperlink ref="E91" r:id="rId80" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E92" r:id="rId81" display="https://www.vigienature.fr/"/>
-    <hyperlink ref="E93" r:id="rId82" display="https://www.oiseauxdesjardins.fr/"/>
-    <hyperlink ref="E94" r:id="rId83" display="https://sapoll.eu/"/>
-    <hyperlink ref="E95" r:id="rId84" display="https://www.spipoll.org/"/>
-    <hyperlink ref="E96" r:id="rId85" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E97" r:id="rId86" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E98" r:id="rId87" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E99" r:id="rId88" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E100" r:id="rId89" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E101" r:id="rId90" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E102" r:id="rId91" display="https://zenodo.org"/>
-    <hyperlink ref="E103" r:id="rId92" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E104" r:id="rId93" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
-    <hyperlink ref="E106" r:id="rId94" display="https://www.eu-nomen.eu/portal/index.php"/>
-    <hyperlink ref="E107" r:id="rId95" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E108" r:id="rId96" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E110" r:id="rId97" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E111" r:id="rId98" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E112" r:id="rId99" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E113" r:id="rId100" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E114" r:id="rId101" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E115" r:id="rId102" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E116" r:id="rId103" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E117" r:id="rId104" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E118" r:id="rId105" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E119" r:id="rId106" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E120" r:id="rId107" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E121" r:id="rId108" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E122" r:id="rId109" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E123" r:id="rId110" display="http://peigeo.re/"/>
-    <hyperlink ref="E124" r:id="rId111" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E125" r:id="rId112" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E126" r:id="rId113" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E127" r:id="rId114" display="https://qfield.org/"/>
-    <hyperlink ref="E130" r:id="rId115" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E131" r:id="rId116" display="http://www.multibao.org/"/>
-    <hyperlink ref="E132" r:id="rId117" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E133" r:id="rId118" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E136" r:id="rId119" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E137" r:id="rId120" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E139" r:id="rId121" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E140" r:id="rId122" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E143" r:id="rId123" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E144" r:id="rId124" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E146" r:id="rId125" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E148" r:id="rId126" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E149" r:id="rId127" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E150" r:id="rId128" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E152" r:id="rId129" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E153" r:id="rId130" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E154" r:id="rId131" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E155" r:id="rId132" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E156" r:id="rId133" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E157" r:id="rId134" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E158" r:id="rId135" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E159" r:id="rId136" display="https://chat.openai.com/"/>
-    <hyperlink ref="E160" r:id="rId137" display="https://www.futurepedia.io/"/>
-    <hyperlink ref="E161" r:id="rId138" display="https://you.com/"/>
-    <hyperlink ref="E162" r:id="rId139" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
-    <hyperlink ref="E164" r:id="rId140" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E165" r:id="rId141" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E166" r:id="rId142" display="http://www.biodiville.org/"/>
-    <hyperlink ref="E167" r:id="rId143" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E168" r:id="rId144" display="https://www.youtube.com/@augustinsoulard"/>
-    <hyperlink ref="E169" r:id="rId145" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
-    <hyperlink ref="E170" r:id="rId146" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
-    <hyperlink ref="E171" r:id="rId147" display="https://www.youtube.com/user/EditionsSalamandre"/>
-    <hyperlink ref="E172" r:id="rId148" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E173" r:id="rId149" display="https://www.artsdatabanken.no/"/>
-    <hyperlink ref="E174" r:id="rId150" display="https://artfakta.se/artinformation?lang=sv"/>
-    <hyperlink ref="E175" r:id="rId151" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E176" r:id="rId152" display="https://www.biolib.cz/en/main/"/>
-    <hyperlink ref="E177" r:id="rId153" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E178" r:id="rId154" display="https://www.faune-bretagne.org/"/>
-    <hyperlink ref="E179" r:id="rId155" display="https://www.bretagne-vivante.org/"/>
-    <hyperlink ref="E180" r:id="rId156" display="https://fne-centrevaldeloire.org/"/>
-    <hyperlink ref="E181" r:id="rId157" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E182" r:id="rId158" display="https://cettia.fr/"/>
-    <hyperlink ref="E184" r:id="rId159" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E185" r:id="rId160" display="https://www.sauvagesdupoitou.com/"/>
-    <hyperlink ref="E186" r:id="rId161" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E187" r:id="rId162" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E188" r:id="rId163" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E189" r:id="rId164" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E190" r:id="rId165" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E191" r:id="rId166" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E192" r:id="rId167" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E193" r:id="rId168" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E195" r:id="rId169" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E196" r:id="rId170" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E200" r:id="rId171" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E202" r:id="rId172" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E203" r:id="rId173" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E204" r:id="rId174" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E205" r:id="rId175" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E206" r:id="rId176" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E207" r:id="rId177" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E208" r:id="rId178" display="https://datamermaid.org/"/>
-    <hyperlink ref="E209" r:id="rId179" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E210" r:id="rId180" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E211" r:id="rId181" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E212" r:id="rId182" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E213" r:id="rId183" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E214" r:id="rId184" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E215" r:id="rId185" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E216" r:id="rId186" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E217" r:id="rId187" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E218" r:id="rId188" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E219" r:id="rId189" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E220" r:id="rId190" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E221" r:id="rId191" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E222" r:id="rId192" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E223" r:id="rId193" display="http://peigeo.re/"/>
-    <hyperlink ref="E224" r:id="rId194" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E225" r:id="rId195" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E227" r:id="rId196" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
-    <hyperlink ref="E228" r:id="rId197" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E230" r:id="rId198" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E231" r:id="rId199" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
-    <hyperlink ref="E232" r:id="rId200" display="https://somosorleans.org/"/>
-    <hyperlink ref="E233" r:id="rId201" display="https://www.aspas-nature.org/"/>
-    <hyperlink ref="E234" r:id="rId202" display="https://faunedefrance.org/"/>
-    <hyperlink ref="E235" r:id="rId203" display="https://www.natureo.org/"/>
-    <hyperlink ref="E236" r:id="rId204" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E237" r:id="rId205" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E238" r:id="rId206" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E240" r:id="rId207" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E241" r:id="rId208" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E242" r:id="rId209" display="https://sbocc.fr/calendrier/"/>
-    <hyperlink ref="E243" r:id="rId210" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
-    <hyperlink ref="E244" r:id="rId211" display="https://tourduvalat.centredoc.fr/"/>
+    <hyperlink ref="E45" r:id="rId40" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
+    <hyperlink ref="E46" r:id="rId41" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
+    <hyperlink ref="E47" r:id="rId42" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E48" r:id="rId43" display="https://www.florealpes.com/"/>
+    <hyperlink ref="E49" r:id="rId44" display="https://www.preservons-la-nature.fr/"/>
+    <hyperlink ref="E50" r:id="rId45" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
+    <hyperlink ref="E51" r:id="rId46" display="https://www.tela-botanica.org/"/>
+    <hyperlink ref="E52" r:id="rId47" display="https://www.quantitative-plant.org/"/>
+    <hyperlink ref="E53" r:id="rId48" display="https://plants.jstor.org/"/>
+    <hyperlink ref="E54" r:id="rId49" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
+    <hyperlink ref="E55" r:id="rId50" display="https://biologievegetale.be/"/>
+    <hyperlink ref="E56" r:id="rId51" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E57" r:id="rId52" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
+    <hyperlink ref="E58" r:id="rId53" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E59" r:id="rId54" display="http://floristic.org/"/>
+    <hyperlink ref="E60" r:id="rId55" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E62" r:id="rId56" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E63" r:id="rId57" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E64" r:id="rId58" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E65" r:id="rId59" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E66" r:id="rId60" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E67" r:id="rId61" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E68" r:id="rId62" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
+    <hyperlink ref="E69" r:id="rId63" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
+    <hyperlink ref="E70" r:id="rId64" display="http://www.orchidsofbritainandeurope.co.uk/"/>
+    <hyperlink ref="E71" r:id="rId65" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
+    <hyperlink ref="E72" r:id="rId66" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
+    <hyperlink ref="E73" r:id="rId67" display="https://botarela.fr/"/>
+    <hyperlink ref="E74" r:id="rId68" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E75" r:id="rId69" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E77" r:id="rId70" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
+    <hyperlink ref="E78" r:id="rId71" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E79" r:id="rId72" display="http://www.plantsoftheworldonline.org/"/>
+    <hyperlink ref="E81" r:id="rId73" display="https://quelle-est-cette-fleur.com/"/>
+    <hyperlink ref="E82" r:id="rId74" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E84" r:id="rId75" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E85" r:id="rId76" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E86" r:id="rId77" display="https://www.ipni.org/"/>
+    <hyperlink ref="E87" r:id="rId78" display="http://www.theplantlist.org/"/>
+    <hyperlink ref="E88" r:id="rId79" display="http://www.worldfloraonline.org/"/>
+    <hyperlink ref="E89" r:id="rId80" display="https://floranet.pagesperso-orange.fr/"/>
+    <hyperlink ref="E90" r:id="rId81" display="https://pfaf.org/user/Default.aspx"/>
+    <hyperlink ref="E91" r:id="rId82" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E92" r:id="rId83" display="http://www.wikiphyto.org/wiki/Accueil"/>
+    <hyperlink ref="E93" r:id="rId84" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E94" r:id="rId85" display="https://champis.net/home"/>
+    <hyperlink ref="E95" r:id="rId86" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E96" r:id="rId87" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E97" r:id="rId88" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E98" r:id="rId89" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E99" r:id="rId90" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E100" r:id="rId91" display="http://cahiers-techniques.espaces-naturels.fr/"/>
+    <hyperlink ref="E101" r:id="rId92" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E102" r:id="rId93" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E103" r:id="rId94" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E104" r:id="rId95" display="http://cfb.unh.edu/"/>
+    <hyperlink ref="E105" r:id="rId96" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E106" r:id="rId97" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
+    <hyperlink ref="E107" r:id="rId98" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E109" r:id="rId99" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E110" r:id="rId100" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E111" r:id="rId101" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E112" r:id="rId102" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E113" r:id="rId103" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E114" r:id="rId104" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E115" r:id="rId105" display="https://eol.org/"/>
+    <hyperlink ref="E117" r:id="rId106" display="http://lesherbonautes.mnhn.fr/"/>
+    <hyperlink ref="E118" r:id="rId107" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E119" r:id="rId108" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E120" r:id="rId109" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E121" r:id="rId110" display="https://sapoll.eu/"/>
+    <hyperlink ref="E122" r:id="rId111" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E123" r:id="rId112" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E124" r:id="rId113" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E125" r:id="rId114" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E126" r:id="rId115" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E127" r:id="rId116" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E128" r:id="rId117" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E129" r:id="rId118" display="https://zenodo.org"/>
+    <hyperlink ref="E130" r:id="rId119" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E131" r:id="rId120" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E133" r:id="rId121" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E134" r:id="rId122" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E135" r:id="rId123" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E137" r:id="rId124" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E138" r:id="rId125" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E139" r:id="rId126" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E140" r:id="rId127" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E141" r:id="rId128" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E142" r:id="rId129" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E143" r:id="rId130" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E144" r:id="rId131" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E145" r:id="rId132" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E146" r:id="rId133" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E147" r:id="rId134" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E148" r:id="rId135" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E149" r:id="rId136" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E150" r:id="rId137" display="http://peigeo.re/"/>
+    <hyperlink ref="E151" r:id="rId138" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E152" r:id="rId139" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E153" r:id="rId140" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E154" r:id="rId141" display="https://qfield.org/"/>
+    <hyperlink ref="E157" r:id="rId142" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E158" r:id="rId143" display="http://www.multibao.org/"/>
+    <hyperlink ref="E159" r:id="rId144" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E160" r:id="rId145" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E162" r:id="rId146" display="https://leplantoscope.fr/"/>
+    <hyperlink ref="E164" r:id="rId147" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E165" r:id="rId148" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E167" r:id="rId149" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E168" r:id="rId150" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E171" r:id="rId151" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E172" r:id="rId152" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E174" r:id="rId153" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E176" r:id="rId154" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E177" r:id="rId155" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E178" r:id="rId156" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E180" r:id="rId157" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E181" r:id="rId158" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E182" r:id="rId159" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E183" r:id="rId160" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E184" r:id="rId161" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E185" r:id="rId162" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E186" r:id="rId163" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E187" r:id="rId164" display="https://chat.openai.com/"/>
+    <hyperlink ref="E188" r:id="rId165" display="https://you.com/"/>
+    <hyperlink ref="E189" r:id="rId166" display="https://www.futurepedia.io/"/>
+    <hyperlink ref="E190" r:id="rId167" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E192" r:id="rId168" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E193" r:id="rId169" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E194" r:id="rId170" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E195" r:id="rId171" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E196" r:id="rId172" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
+    <hyperlink ref="E197" r:id="rId173" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E198" r:id="rId174" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E199" r:id="rId175" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E200" r:id="rId176" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E201" r:id="rId177" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E202" r:id="rId178" display="https://www.herbierimages.be/"/>
+    <hyperlink ref="E203" r:id="rId179" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E204" r:id="rId180" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E205" r:id="rId181" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E206" r:id="rId182" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E207" r:id="rId183" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E208" r:id="rId184" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E209" r:id="rId185" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E210" r:id="rId186" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E211" r:id="rId187" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E212" r:id="rId188" display="https://cettia.fr/"/>
+    <hyperlink ref="E214" r:id="rId189" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E215" r:id="rId190" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E216" r:id="rId191" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E217" r:id="rId192" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E218" r:id="rId193" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E219" r:id="rId194" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E220" r:id="rId195" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E221" r:id="rId196" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E222" r:id="rId197" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E223" r:id="rId198" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E225" r:id="rId199" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E226" r:id="rId200" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E230" r:id="rId201" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E232" r:id="rId202" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E233" r:id="rId203" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E234" r:id="rId204" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E235" r:id="rId205" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E236" r:id="rId206" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E237" r:id="rId207" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E238" r:id="rId208" display="https://datamermaid.org/"/>
+    <hyperlink ref="E239" r:id="rId209" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E240" r:id="rId210" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E241" r:id="rId211" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E242" r:id="rId212" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E243" r:id="rId213" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E244" r:id="rId214" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E245" r:id="rId215" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E246" r:id="rId216" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E247" r:id="rId217" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E248" r:id="rId218" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E249" r:id="rId219" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E250" r:id="rId220" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E251" r:id="rId221" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E252" r:id="rId222" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E253" r:id="rId223" display="http://peigeo.re/"/>
+    <hyperlink ref="E254" r:id="rId224" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E255" r:id="rId225" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E257" r:id="rId226" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E258" r:id="rId227" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E260" r:id="rId228" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E261" r:id="rId229" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E262" r:id="rId230" display="https://somosorleans.org/"/>
+    <hyperlink ref="E263" r:id="rId231" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E264" r:id="rId232" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E265" r:id="rId233" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
+    <hyperlink ref="E266" r:id="rId234" display="https://www.natureo.org/"/>
+    <hyperlink ref="E267" r:id="rId235" display="https://sbocc.fr/calendrier/"/>
+    <hyperlink ref="E268" r:id="rId236" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E269" r:id="rId237" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E270" r:id="rId238" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E272" r:id="rId239" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E273" r:id="rId240" display="https://www.cbn-alpin.fr/"/>
+    <hyperlink ref="E274" r:id="rId241" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E275" r:id="rId242" display="https://tourduvalat.centredoc.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6929,6 +7764,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId212"/>
+  <drawing r:id="rId243"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$272</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$276</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="716">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -61,6 +61,15 @@
     <t xml:space="preserve">Application</t>
   </si>
   <si>
+    <t xml:space="preserve">Phytosociologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sci.muni.cz/botany/juice/?idm%3D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUICE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flore</t>
   </si>
   <si>
@@ -400,7 +409,7 @@
     <t xml:space="preserve">Xeno-canto</t>
   </si>
   <si>
-    <t xml:space="preserve">Donnees</t>
+    <t xml:space="preserve">Données</t>
   </si>
   <si>
     <t xml:space="preserve">Comestible</t>
@@ -412,6 +421,12 @@
     <t xml:space="preserve">Edible Plant Database</t>
   </si>
   <si>
+    <t xml:space="preserve">https://floraveg.eu/download/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloraVeg.EU</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
   </si>
   <si>
@@ -428,6 +443,12 @@
   </si>
   <si>
     <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://euroveg.org/eva-database/databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Vegetation Survey</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.florealpes.com/</t>
@@ -877,9 +898,6 @@
     <t xml:space="preserve">Evaluation de l'état de conservation</t>
   </si>
   <si>
-    <t xml:space="preserve">Phytosociologie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Outil</t>
   </si>
   <si>
@@ -901,6 +919,12 @@
     <t xml:space="preserve">Site Guy Bouxin</t>
   </si>
   <si>
+    <t xml:space="preserve">https://vegfrance.univ-rennes1.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VegFrance</t>
+  </si>
+  <si>
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
@@ -982,6 +1006,9 @@
     <t xml:space="preserve">Zone humide</t>
   </si>
   <si>
+    <t xml:space="preserve">Donnees</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
   </si>
   <si>
@@ -1036,9 +1063,6 @@
     <t xml:space="preserve">Outil de création de clef d'identification</t>
   </si>
   <si>
-    <t xml:space="preserve">Données</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://faunedefrance.org/bibliotheque-virtuelle-numerique/</t>
   </si>
   <si>
@@ -2120,6 +2144,12 @@
   </si>
   <si>
     <t xml:space="preserve">CBN Massif Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cbnbl.org/digitale2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBN Bailleul – Digitale2</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cbn-alpin.fr/</t>
@@ -2353,10 +2383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2412,15 +2442,18 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2473,13 +2506,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2490,7 +2523,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -2498,9 +2534,6 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2510,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
@@ -2518,6 +2551,9 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2527,16 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2547,13 +2580,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2564,13 +2600,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2581,20 +2617,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2604,20 +2634,20 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2627,20 +2657,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2650,16 +2680,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2673,17 +2703,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2693,16 +2726,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2713,13 +2746,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2730,13 +2766,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2747,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>57</v>
@@ -2761,19 +2797,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2781,18 +2814,18 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2801,11 +2834,14 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2818,16 +2854,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2835,16 +2871,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,13 +2888,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>75</v>
@@ -2872,13 +2905,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>78</v>
@@ -2892,19 +2925,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2912,53 +2945,53 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>87</v>
@@ -2972,15 +3005,15 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2992,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>92</v>
@@ -3012,13 +3045,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>96</v>
@@ -3032,13 +3065,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>99</v>
@@ -3052,19 +3085,19 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3072,13 +3105,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>104</v>
@@ -3092,19 +3125,19 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3112,19 +3145,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3132,19 +3165,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3152,13 +3185,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>113</v>
@@ -3172,19 +3205,19 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3192,10 +3225,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>118</v>
@@ -3209,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>120</v>
@@ -3226,19 +3262,16 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3246,19 +3279,19 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3266,19 +3299,19 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3286,13 +3319,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>132</v>
@@ -3300,31 +3333,25 @@
       <c r="F47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3332,10 +3359,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>137</v>
@@ -3343,22 +3373,34 @@
       <c r="F49" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3366,16 +3408,16 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3383,19 +3425,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3403,19 +3442,16 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3423,19 +3459,16 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3443,19 +3476,19 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,10 +3496,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>155</v>
@@ -3480,10 +3516,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>157</v>
@@ -3497,16 +3536,19 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,16 +3556,16 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3531,16 +3573,16 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3548,16 +3590,16 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3565,16 +3607,16 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3582,16 +3624,16 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3599,16 +3641,16 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3616,16 +3658,16 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3633,22 +3675,16 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3656,25 +3692,16 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3682,19 +3709,16 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3702,13 +3726,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>184</v>
@@ -3716,25 +3740,34 @@
       <c r="F69" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H69" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3742,19 +3775,19 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3762,13 +3795,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>191</v>
@@ -3782,19 +3815,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3802,22 +3835,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3825,16 +3855,19 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3842,16 +3875,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3859,33 +3895,39 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="H77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3893,16 +3935,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3910,16 +3952,16 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3927,16 +3969,16 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3944,16 +3986,16 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3961,16 +4003,16 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3978,16 +4020,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3995,13 +4037,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>220</v>
@@ -4012,13 +4054,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>222</v>
@@ -4032,13 +4071,10 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>224</v>
@@ -4052,13 +4088,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>226</v>
@@ -4072,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>228</v>
@@ -4092,7 +4125,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>228</v>
@@ -4112,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>228</v>
@@ -4121,10 +4154,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4132,19 +4165,19 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4152,19 +4185,19 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4172,19 +4205,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4192,19 +4225,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4212,13 +4245,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>244</v>
@@ -4232,11 +4265,14 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="D97" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>246</v>
       </c>
@@ -4249,11 +4285,14 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>248</v>
       </c>
@@ -4266,16 +4305,19 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4283,10 +4325,10 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>253</v>
@@ -4300,19 +4342,16 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4320,16 +4359,16 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4340,19 +4379,13 @@
         <v>259</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H103" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I103" s="1" t="n">
-        <v>8</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4363,16 +4396,16 @@
         <v>259</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4380,13 +4413,10 @@
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>268</v>
@@ -4400,19 +4430,22 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>272</v>
+      <c r="H106" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4420,10 +4453,13 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>272</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>273</v>
@@ -4437,19 +4473,19 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4457,13 +4493,13 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>278</v>
@@ -4477,16 +4513,16 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4494,19 +4530,19 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4514,16 +4550,19 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4531,16 +4570,16 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4548,19 +4587,19 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4568,16 +4607,16 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4585,16 +4624,16 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4602,19 +4641,19 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4622,19 +4661,19 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4642,19 +4681,16 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4662,19 +4698,16 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4682,19 +4715,19 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,19 +4735,19 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4722,107 +4755,107 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>316</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>125</v>
+        <v>306</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H124" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I124" s="1" t="n">
-        <v>8</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H125" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I125" s="1" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>327</v>
@@ -4830,16 +4863,22 @@
       <c r="F128" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="H128" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>329</v>
@@ -4847,232 +4886,238 @@
       <c r="F129" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>331</v>
+      <c r="H129" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>354</v>
+        <v>18</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>60</v>
+        <v>358</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>60</v>
+        <v>362</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>363</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>365</v>
@@ -5083,13 +5128,13 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>367</v>
@@ -5100,13 +5145,13 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>369</v>
@@ -5117,13 +5162,13 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>371</v>
@@ -5134,13 +5179,13 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>373</v>
@@ -5151,13 +5196,13 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>375</v>
@@ -5168,13 +5213,13 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>377</v>
@@ -5182,19 +5227,16 @@
       <c r="F148" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H148" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>379</v>
@@ -5205,13 +5247,13 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>381</v>
@@ -5222,13 +5264,13 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>383</v>
@@ -5239,13 +5281,13 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>385</v>
@@ -5253,16 +5295,19 @@
       <c r="F152" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="H152" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>387</v>
@@ -5273,294 +5318,294 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>392</v>
+        <v>63</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>392</v>
+        <v>63</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>403</v>
+      <c r="D159" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>423</v>
+        <v>15</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>432</v>
@@ -5571,30 +5616,30 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>436</v>
@@ -5605,81 +5650,81 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>447</v>
@@ -5687,247 +5732,247 @@
       <c r="F177" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H184" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="H188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E191" s="1" t="s">
         <v>480</v>
       </c>
@@ -5937,161 +5982,149 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>491</v>
+      <c r="D195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>15</v>
@@ -6105,399 +6138,408 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>12</v>
+        <v>501</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>15</v>
+        <v>501</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>15</v>
+        <v>501</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>525</v>
+        <v>18</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="F208" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>530</v>
+      <c r="E209" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>543</v>
+        <v>18</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>548</v>
+        <v>18</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>15</v>
+        <v>544</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>556</v>
+        <v>80</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>15</v>
+        <v>551</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>565</v>
+        <v>18</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E220" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="F220" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>77</v>
+        <v>573</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>574</v>
@@ -6508,16 +6550,13 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>576</v>
@@ -6528,13 +6567,13 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>578</v>
@@ -6545,84 +6584,90 @@
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>589</v>
@@ -6633,16 +6678,13 @@
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>591</v>
@@ -6653,133 +6695,124 @@
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="F232" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F235" s="1" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="D236" s="1" t="s">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>9</v>
@@ -6791,15 +6824,15 @@
         <v>607</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>9</v>
@@ -6813,13 +6846,13 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>9</v>
@@ -6833,176 +6866,176 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="F241" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>612</v>
+        <v>9</v>
       </c>
       <c r="E242" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>612</v>
+        <v>9</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>612</v>
+        <v>9</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D245" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="F245" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E246" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>630</v>
@@ -7013,133 +7046,136 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D250" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="F250" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>381</v>
+        <v>638</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>382</v>
+        <v>639</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>644</v>
+        <v>601</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>645</v>
@@ -7150,612 +7186,710 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>38</v>
+        <v>601</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>98</v>
+        <v>640</v>
       </c>
       <c r="E257" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+      <c r="F258" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B258" s="1" t="s">
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="F259" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>649</v>
+        <v>530</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D261" s="1" t="s">
+    </row>
+    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>15</v>
+        <v>666</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>15</v>
+        <v>535</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>554</v>
+        <v>674</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>15</v>
+        <v>675</v>
       </c>
       <c r="E266" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>554</v>
+        <v>678</v>
       </c>
       <c r="D267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F267" s="1" t="s">
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D268" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>560</v>
+        <v>18</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E270" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B271" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C271" s="1" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F271" s="1" t="s">
+      <c r="F272" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F273" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="H274" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I274" s="1" t="n">
-        <v>8</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E275" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F275" s="1" t="s">
+      <c r="F276" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H279" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I279" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I272"/>
+  <autoFilter ref="A1:I276"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
-    <hyperlink ref="E6" r:id="rId4" display="http://explorer.xper3.fr/accueil/"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
-    <hyperlink ref="E9" r:id="rId6" display="http://www.lenaturaliste.net/portail/index.php"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://www.recolnat.org/fr/"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://scientartistmdano.wordpress.com/"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://u-g-o.jimdofree.com/"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://www.zoom-nature.fr/"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E17" r:id="rId14" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://www.gbif.org/"/>
-    <hyperlink ref="E19" r:id="rId16" display="https://data.oreme.org/"/>
-    <hyperlink ref="E20" r:id="rId17" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E21" r:id="rId18" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://asfra.fr/"/>
-    <hyperlink ref="E23" r:id="rId20" display="https://arachno.piwigo.com/index.php?/categories"/>
-    <hyperlink ref="E24" r:id="rId21" display="https://www.quelestcetanimal.com/"/>
-    <hyperlink ref="E25" r:id="rId22" display="http://coronella.free.fr/"/>
-    <hyperlink ref="E26" r:id="rId23" display="http://aramel.free.fr/"/>
-    <hyperlink ref="E28" r:id="rId24" display="https://www.insectes-net.fr/index.htm"/>
-    <hyperlink ref="E29" r:id="rId25" display="https://mondedesminuscules.fr/"/>
-    <hyperlink ref="E30" r:id="rId26" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
-    <hyperlink ref="E31" r:id="rId27" display="https://www.myrmecofourmis.fr/"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://ascete.org/"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E34" r:id="rId30" display="https://www.oiseaux.net/"/>
-    <hyperlink ref="E35" r:id="rId31" display="http://www.ornitho.fr/"/>
-    <hyperlink ref="E36" r:id="rId32" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
-    <hyperlink ref="E37" r:id="rId33" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
-    <hyperlink ref="E38" r:id="rId34" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
-    <hyperlink ref="E39" r:id="rId35" display="http://fotooizo.free.fr/jeu3.php"/>
-    <hyperlink ref="E40" r:id="rId36" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
-    <hyperlink ref="E41" r:id="rId37" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
-    <hyperlink ref="E42" r:id="rId38" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E44" r:id="rId39" display="https://xeno-canto.org/"/>
-    <hyperlink ref="E45" r:id="rId40" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
-    <hyperlink ref="E46" r:id="rId41" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
-    <hyperlink ref="E47" r:id="rId42" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E48" r:id="rId43" display="https://www.florealpes.com/"/>
-    <hyperlink ref="E49" r:id="rId44" display="https://www.preservons-la-nature.fr/"/>
-    <hyperlink ref="E50" r:id="rId45" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
-    <hyperlink ref="E51" r:id="rId46" display="https://www.tela-botanica.org/"/>
-    <hyperlink ref="E52" r:id="rId47" display="https://www.quantitative-plant.org/"/>
-    <hyperlink ref="E53" r:id="rId48" display="https://plants.jstor.org/"/>
-    <hyperlink ref="E54" r:id="rId49" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
-    <hyperlink ref="E55" r:id="rId50" display="https://biologievegetale.be/"/>
-    <hyperlink ref="E56" r:id="rId51" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E57" r:id="rId52" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
-    <hyperlink ref="E58" r:id="rId53" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E59" r:id="rId54" display="http://floristic.org/"/>
-    <hyperlink ref="E60" r:id="rId55" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E62" r:id="rId56" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E63" r:id="rId57" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E64" r:id="rId58" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E65" r:id="rId59" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E66" r:id="rId60" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E67" r:id="rId61" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E68" r:id="rId62" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
-    <hyperlink ref="E69" r:id="rId63" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
-    <hyperlink ref="E70" r:id="rId64" display="http://www.orchidsofbritainandeurope.co.uk/"/>
-    <hyperlink ref="E71" r:id="rId65" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
-    <hyperlink ref="E72" r:id="rId66" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
-    <hyperlink ref="E73" r:id="rId67" display="https://botarela.fr/"/>
-    <hyperlink ref="E74" r:id="rId68" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E75" r:id="rId69" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E77" r:id="rId70" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
-    <hyperlink ref="E78" r:id="rId71" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E79" r:id="rId72" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E81" r:id="rId73" display="https://quelle-est-cette-fleur.com/"/>
-    <hyperlink ref="E82" r:id="rId74" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E84" r:id="rId75" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E85" r:id="rId76" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E86" r:id="rId77" display="https://www.ipni.org/"/>
-    <hyperlink ref="E87" r:id="rId78" display="http://www.theplantlist.org/"/>
-    <hyperlink ref="E88" r:id="rId79" display="http://www.worldfloraonline.org/"/>
-    <hyperlink ref="E89" r:id="rId80" display="https://floranet.pagesperso-orange.fr/"/>
-    <hyperlink ref="E90" r:id="rId81" display="https://pfaf.org/user/Default.aspx"/>
-    <hyperlink ref="E91" r:id="rId82" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E92" r:id="rId83" display="http://www.wikiphyto.org/wiki/Accueil"/>
-    <hyperlink ref="E93" r:id="rId84" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
-    <hyperlink ref="E94" r:id="rId85" display="https://champis.net/home"/>
-    <hyperlink ref="E95" r:id="rId86" display="https://www.mycodb.fr/searchfam.php"/>
-    <hyperlink ref="E96" r:id="rId87" display="https://www.afl-lichenologie.fr/"/>
-    <hyperlink ref="E97" r:id="rId88" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E98" r:id="rId89" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E99" r:id="rId90" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E100" r:id="rId91" display="http://cahiers-techniques.espaces-naturels.fr/"/>
-    <hyperlink ref="E101" r:id="rId92" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E102" r:id="rId93" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E103" r:id="rId94" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E104" r:id="rId95" display="http://cfb.unh.edu/"/>
-    <hyperlink ref="E105" r:id="rId96" display="https://www.freshwaterecology.info/"/>
-    <hyperlink ref="E106" r:id="rId97" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
-    <hyperlink ref="E107" r:id="rId98" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E109" r:id="rId99" display="https://www.marinespecies.org/photogallery.php"/>
-    <hyperlink ref="E110" r:id="rId100" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E111" r:id="rId101" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E112" r:id="rId102" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E113" r:id="rId103" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E114" r:id="rId104" display="https://www.nobanis.org/"/>
-    <hyperlink ref="E115" r:id="rId105" display="https://eol.org/"/>
-    <hyperlink ref="E117" r:id="rId106" display="http://lesherbonautes.mnhn.fr/"/>
-    <hyperlink ref="E118" r:id="rId107" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E119" r:id="rId108" display="https://www.vigienature.fr/"/>
-    <hyperlink ref="E120" r:id="rId109" display="https://www.oiseauxdesjardins.fr/"/>
-    <hyperlink ref="E121" r:id="rId110" display="https://sapoll.eu/"/>
-    <hyperlink ref="E122" r:id="rId111" display="https://www.spipoll.org/"/>
-    <hyperlink ref="E123" r:id="rId112" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E124" r:id="rId113" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E125" r:id="rId114" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E126" r:id="rId115" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E127" r:id="rId116" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E128" r:id="rId117" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E129" r:id="rId118" display="https://zenodo.org"/>
-    <hyperlink ref="E130" r:id="rId119" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E131" r:id="rId120" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
-    <hyperlink ref="E133" r:id="rId121" display="https://www.eu-nomen.eu/portal/index.php"/>
-    <hyperlink ref="E134" r:id="rId122" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E135" r:id="rId123" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E137" r:id="rId124" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E138" r:id="rId125" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E139" r:id="rId126" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E140" r:id="rId127" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E141" r:id="rId128" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E142" r:id="rId129" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E143" r:id="rId130" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E144" r:id="rId131" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E145" r:id="rId132" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E146" r:id="rId133" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E147" r:id="rId134" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E148" r:id="rId135" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E149" r:id="rId136" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E150" r:id="rId137" display="http://peigeo.re/"/>
-    <hyperlink ref="E151" r:id="rId138" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E152" r:id="rId139" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E153" r:id="rId140" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E154" r:id="rId141" display="https://qfield.org/"/>
-    <hyperlink ref="E157" r:id="rId142" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E158" r:id="rId143" display="http://www.multibao.org/"/>
-    <hyperlink ref="E159" r:id="rId144" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E160" r:id="rId145" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E162" r:id="rId146" display="https://leplantoscope.fr/"/>
-    <hyperlink ref="E164" r:id="rId147" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E165" r:id="rId148" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E167" r:id="rId149" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E168" r:id="rId150" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E171" r:id="rId151" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E172" r:id="rId152" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E174" r:id="rId153" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E176" r:id="rId154" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E177" r:id="rId155" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E178" r:id="rId156" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E180" r:id="rId157" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E181" r:id="rId158" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E182" r:id="rId159" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E183" r:id="rId160" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E184" r:id="rId161" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E185" r:id="rId162" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E186" r:id="rId163" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E187" r:id="rId164" display="https://chat.openai.com/"/>
-    <hyperlink ref="E188" r:id="rId165" display="https://you.com/"/>
-    <hyperlink ref="E189" r:id="rId166" display="https://www.futurepedia.io/"/>
-    <hyperlink ref="E190" r:id="rId167" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
-    <hyperlink ref="E192" r:id="rId168" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E193" r:id="rId169" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E194" r:id="rId170" display="http://www.biodiville.org/"/>
-    <hyperlink ref="E195" r:id="rId171" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E196" r:id="rId172" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
-    <hyperlink ref="E197" r:id="rId173" display="https://www.youtube.com/@augustinsoulard"/>
-    <hyperlink ref="E198" r:id="rId174" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
-    <hyperlink ref="E199" r:id="rId175" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
-    <hyperlink ref="E200" r:id="rId176" display="https://www.youtube.com/user/EditionsSalamandre"/>
-    <hyperlink ref="E201" r:id="rId177" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E202" r:id="rId178" display="https://www.herbierimages.be/"/>
-    <hyperlink ref="E203" r:id="rId179" display="https://www.artsdatabanken.no/"/>
-    <hyperlink ref="E204" r:id="rId180" display="https://artfakta.se/artinformation?lang=sv"/>
-    <hyperlink ref="E205" r:id="rId181" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E206" r:id="rId182" display="https://www.biolib.cz/en/main/"/>
-    <hyperlink ref="E207" r:id="rId183" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E208" r:id="rId184" display="https://www.faune-bretagne.org/"/>
-    <hyperlink ref="E209" r:id="rId185" display="https://www.bretagne-vivante.org/"/>
-    <hyperlink ref="E210" r:id="rId186" display="https://fne-centrevaldeloire.org/"/>
-    <hyperlink ref="E211" r:id="rId187" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E212" r:id="rId188" display="https://cettia.fr/"/>
-    <hyperlink ref="E214" r:id="rId189" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E215" r:id="rId190" display="https://www.sauvagesdupoitou.com/"/>
-    <hyperlink ref="E216" r:id="rId191" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E217" r:id="rId192" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E218" r:id="rId193" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E219" r:id="rId194" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E220" r:id="rId195" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E221" r:id="rId196" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E222" r:id="rId197" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E223" r:id="rId198" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E225" r:id="rId199" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E226" r:id="rId200" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E230" r:id="rId201" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E232" r:id="rId202" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E233" r:id="rId203" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E234" r:id="rId204" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E235" r:id="rId205" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E236" r:id="rId206" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E237" r:id="rId207" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E238" r:id="rId208" display="https://datamermaid.org/"/>
-    <hyperlink ref="E239" r:id="rId209" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E240" r:id="rId210" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E241" r:id="rId211" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E242" r:id="rId212" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E243" r:id="rId213" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E244" r:id="rId214" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E245" r:id="rId215" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E246" r:id="rId216" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E247" r:id="rId217" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E248" r:id="rId218" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E249" r:id="rId219" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E250" r:id="rId220" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E251" r:id="rId221" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E252" r:id="rId222" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E253" r:id="rId223" display="http://peigeo.re/"/>
-    <hyperlink ref="E254" r:id="rId224" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E255" r:id="rId225" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E257" r:id="rId226" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
-    <hyperlink ref="E258" r:id="rId227" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E260" r:id="rId228" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E261" r:id="rId229" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
-    <hyperlink ref="E262" r:id="rId230" display="https://somosorleans.org/"/>
-    <hyperlink ref="E263" r:id="rId231" display="https://www.aspas-nature.org/"/>
-    <hyperlink ref="E264" r:id="rId232" display="https://faunedefrance.org/"/>
-    <hyperlink ref="E265" r:id="rId233" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
-    <hyperlink ref="E266" r:id="rId234" display="https://www.natureo.org/"/>
-    <hyperlink ref="E267" r:id="rId235" display="https://sbocc.fr/calendrier/"/>
-    <hyperlink ref="E268" r:id="rId236" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E269" r:id="rId237" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E270" r:id="rId238" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E272" r:id="rId239" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E273" r:id="rId240" display="https://www.cbn-alpin.fr/"/>
-    <hyperlink ref="E274" r:id="rId241" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E275" r:id="rId242" display="https://tourduvalat.centredoc.fr/"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.sci.muni.cz/botany/juice/?idm%3D10"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://plantnet.org/en/"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.inaturalist.org/"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
+    <hyperlink ref="E7" r:id="rId5" display="http://explorer.xper3.fr/accueil/"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
+    <hyperlink ref="E10" r:id="rId7" display="http://www.lenaturaliste.net/portail/index.php"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://www.recolnat.org/fr/"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://scientartistmdano.wordpress.com/"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://u-g-o.jimdofree.com/"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://www.zoom-nature.fr/"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://www.gbif.org/"/>
+    <hyperlink ref="E20" r:id="rId17" display="https://data.oreme.org/"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://zenodo.org/record/7534792"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
+    <hyperlink ref="E23" r:id="rId20" display="https://asfra.fr/"/>
+    <hyperlink ref="E24" r:id="rId21" display="https://arachno.piwigo.com/index.php?/categories"/>
+    <hyperlink ref="E25" r:id="rId22" display="https://www.quelestcetanimal.com/"/>
+    <hyperlink ref="E26" r:id="rId23" display="http://coronella.free.fr/"/>
+    <hyperlink ref="E27" r:id="rId24" display="http://aramel.free.fr/"/>
+    <hyperlink ref="E29" r:id="rId25" display="https://www.insectes-net.fr/index.htm"/>
+    <hyperlink ref="E30" r:id="rId26" display="https://mondedesminuscules.fr/"/>
+    <hyperlink ref="E31" r:id="rId27" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
+    <hyperlink ref="E32" r:id="rId28" display="https://www.myrmecofourmis.fr/"/>
+    <hyperlink ref="E33" r:id="rId29" display="https://ascete.org/"/>
+    <hyperlink ref="E34" r:id="rId30" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E35" r:id="rId31" display="https://www.oiseaux.net/"/>
+    <hyperlink ref="E36" r:id="rId32" display="http://www.ornitho.fr/"/>
+    <hyperlink ref="E37" r:id="rId33" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
+    <hyperlink ref="E38" r:id="rId34" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
+    <hyperlink ref="E39" r:id="rId35" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
+    <hyperlink ref="E40" r:id="rId36" display="http://fotooizo.free.fr/jeu3.php"/>
+    <hyperlink ref="E41" r:id="rId37" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
+    <hyperlink ref="E42" r:id="rId38" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
+    <hyperlink ref="E43" r:id="rId39" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E45" r:id="rId40" display="https://xeno-canto.org/"/>
+    <hyperlink ref="E46" r:id="rId41" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
+    <hyperlink ref="E47" r:id="rId42" display="https://floraveg.eu/download/"/>
+    <hyperlink ref="E48" r:id="rId43" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
+    <hyperlink ref="E49" r:id="rId44" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E50" r:id="rId45" display="https://euroveg.org/eva-database/databases"/>
+    <hyperlink ref="E51" r:id="rId46" display="https://www.florealpes.com/"/>
+    <hyperlink ref="E52" r:id="rId47" display="https://www.preservons-la-nature.fr/"/>
+    <hyperlink ref="E53" r:id="rId48" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
+    <hyperlink ref="E54" r:id="rId49" display="https://www.tela-botanica.org/"/>
+    <hyperlink ref="E55" r:id="rId50" display="https://www.quantitative-plant.org/"/>
+    <hyperlink ref="E56" r:id="rId51" display="https://plants.jstor.org/"/>
+    <hyperlink ref="E57" r:id="rId52" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
+    <hyperlink ref="E58" r:id="rId53" display="https://biologievegetale.be/"/>
+    <hyperlink ref="E59" r:id="rId54" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E60" r:id="rId55" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
+    <hyperlink ref="E61" r:id="rId56" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E62" r:id="rId57" display="http://floristic.org/"/>
+    <hyperlink ref="E63" r:id="rId58" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E65" r:id="rId59" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E66" r:id="rId60" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E67" r:id="rId61" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E68" r:id="rId62" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E69" r:id="rId63" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E70" r:id="rId64" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E71" r:id="rId65" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
+    <hyperlink ref="E72" r:id="rId66" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
+    <hyperlink ref="E73" r:id="rId67" display="http://www.orchidsofbritainandeurope.co.uk/"/>
+    <hyperlink ref="E74" r:id="rId68" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
+    <hyperlink ref="E75" r:id="rId69" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
+    <hyperlink ref="E76" r:id="rId70" display="https://botarela.fr/"/>
+    <hyperlink ref="E77" r:id="rId71" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E78" r:id="rId72" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E80" r:id="rId73" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
+    <hyperlink ref="E81" r:id="rId74" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E82" r:id="rId75" display="http://www.plantsoftheworldonline.org/"/>
+    <hyperlink ref="E84" r:id="rId76" display="https://quelle-est-cette-fleur.com/"/>
+    <hyperlink ref="E85" r:id="rId77" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E87" r:id="rId78" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E88" r:id="rId79" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E89" r:id="rId80" display="https://www.ipni.org/"/>
+    <hyperlink ref="E90" r:id="rId81" display="http://www.theplantlist.org/"/>
+    <hyperlink ref="E91" r:id="rId82" display="http://www.worldfloraonline.org/"/>
+    <hyperlink ref="E92" r:id="rId83" display="https://floranet.pagesperso-orange.fr/"/>
+    <hyperlink ref="E93" r:id="rId84" display="https://pfaf.org/user/Default.aspx"/>
+    <hyperlink ref="E94" r:id="rId85" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E95" r:id="rId86" display="http://www.wikiphyto.org/wiki/Accueil"/>
+    <hyperlink ref="E96" r:id="rId87" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E97" r:id="rId88" display="https://champis.net/home"/>
+    <hyperlink ref="E98" r:id="rId89" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E99" r:id="rId90" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E100" r:id="rId91" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E101" r:id="rId92" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E102" r:id="rId93" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E103" r:id="rId94" display="http://cahiers-techniques.espaces-naturels.fr/"/>
+    <hyperlink ref="E104" r:id="rId95" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E105" r:id="rId96" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E106" r:id="rId97" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E107" r:id="rId98" display="http://cfb.unh.edu/"/>
+    <hyperlink ref="E108" r:id="rId99" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E109" r:id="rId100" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
+    <hyperlink ref="E110" r:id="rId101" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E112" r:id="rId102" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E113" r:id="rId103" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E114" r:id="rId104" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E115" r:id="rId105" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E116" r:id="rId106" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E117" r:id="rId107" display="https://vegfrance.univ-rennes1.fr/"/>
+    <hyperlink ref="E118" r:id="rId108" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E119" r:id="rId109" display="https://eol.org/"/>
+    <hyperlink ref="E121" r:id="rId110" display="http://lesherbonautes.mnhn.fr/"/>
+    <hyperlink ref="E122" r:id="rId111" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E123" r:id="rId112" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E124" r:id="rId113" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E125" r:id="rId114" display="https://sapoll.eu/"/>
+    <hyperlink ref="E126" r:id="rId115" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E127" r:id="rId116" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E128" r:id="rId117" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E129" r:id="rId118" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E130" r:id="rId119" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E131" r:id="rId120" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E132" r:id="rId121" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E133" r:id="rId122" display="https://zenodo.org"/>
+    <hyperlink ref="E134" r:id="rId123" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E135" r:id="rId124" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E137" r:id="rId125" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E138" r:id="rId126" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E139" r:id="rId127" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E141" r:id="rId128" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E142" r:id="rId129" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E143" r:id="rId130" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E144" r:id="rId131" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E145" r:id="rId132" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E146" r:id="rId133" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E147" r:id="rId134" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E148" r:id="rId135" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E149" r:id="rId136" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E150" r:id="rId137" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E151" r:id="rId138" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E152" r:id="rId139" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E153" r:id="rId140" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E154" r:id="rId141" display="http://peigeo.re/"/>
+    <hyperlink ref="E155" r:id="rId142" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E156" r:id="rId143" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E157" r:id="rId144" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E158" r:id="rId145" display="https://qfield.org/"/>
+    <hyperlink ref="E161" r:id="rId146" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E162" r:id="rId147" display="http://www.multibao.org/"/>
+    <hyperlink ref="E163" r:id="rId148" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E164" r:id="rId149" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E166" r:id="rId150" display="https://leplantoscope.fr/"/>
+    <hyperlink ref="E168" r:id="rId151" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E169" r:id="rId152" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E171" r:id="rId153" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E172" r:id="rId154" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E175" r:id="rId155" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E176" r:id="rId156" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E178" r:id="rId157" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E180" r:id="rId158" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E181" r:id="rId159" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E182" r:id="rId160" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E184" r:id="rId161" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E185" r:id="rId162" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E186" r:id="rId163" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E187" r:id="rId164" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E188" r:id="rId165" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E189" r:id="rId166" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E190" r:id="rId167" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E191" r:id="rId168" display="https://chat.openai.com/"/>
+    <hyperlink ref="E192" r:id="rId169" display="https://you.com/"/>
+    <hyperlink ref="E193" r:id="rId170" display="https://www.futurepedia.io/"/>
+    <hyperlink ref="E194" r:id="rId171" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E196" r:id="rId172" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E197" r:id="rId173" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E198" r:id="rId174" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E199" r:id="rId175" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E200" r:id="rId176" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
+    <hyperlink ref="E201" r:id="rId177" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E202" r:id="rId178" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E203" r:id="rId179" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E204" r:id="rId180" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E205" r:id="rId181" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E206" r:id="rId182" display="https://www.herbierimages.be/"/>
+    <hyperlink ref="E207" r:id="rId183" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E208" r:id="rId184" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E209" r:id="rId185" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E210" r:id="rId186" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E211" r:id="rId187" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E212" r:id="rId188" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E213" r:id="rId189" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E214" r:id="rId190" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E215" r:id="rId191" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E216" r:id="rId192" display="https://cettia.fr/"/>
+    <hyperlink ref="E218" r:id="rId193" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E219" r:id="rId194" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E220" r:id="rId195" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E221" r:id="rId196" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E222" r:id="rId197" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E223" r:id="rId198" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E224" r:id="rId199" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E225" r:id="rId200" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E226" r:id="rId201" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E227" r:id="rId202" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E229" r:id="rId203" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E230" r:id="rId204" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E234" r:id="rId205" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E236" r:id="rId206" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E237" r:id="rId207" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E238" r:id="rId208" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E239" r:id="rId209" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E240" r:id="rId210" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E241" r:id="rId211" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E242" r:id="rId212" display="https://datamermaid.org/"/>
+    <hyperlink ref="E243" r:id="rId213" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E244" r:id="rId214" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E245" r:id="rId215" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E246" r:id="rId216" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E247" r:id="rId217" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E248" r:id="rId218" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E249" r:id="rId219" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E250" r:id="rId220" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E251" r:id="rId221" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E252" r:id="rId222" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E253" r:id="rId223" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E254" r:id="rId224" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E255" r:id="rId225" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E256" r:id="rId226" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E257" r:id="rId227" display="http://peigeo.re/"/>
+    <hyperlink ref="E258" r:id="rId228" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E259" r:id="rId229" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E261" r:id="rId230" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E262" r:id="rId231" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E264" r:id="rId232" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E265" r:id="rId233" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E266" r:id="rId234" display="https://somosorleans.org/"/>
+    <hyperlink ref="E267" r:id="rId235" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E268" r:id="rId236" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E269" r:id="rId237" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
+    <hyperlink ref="E270" r:id="rId238" display="https://www.natureo.org/"/>
+    <hyperlink ref="E271" r:id="rId239" display="https://sbocc.fr/calendrier/"/>
+    <hyperlink ref="E272" r:id="rId240" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E273" r:id="rId241" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E274" r:id="rId242" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E276" r:id="rId243" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E277" r:id="rId244" display="https://www.cbnbl.org/digitale2"/>
+    <hyperlink ref="E278" r:id="rId245" display="https://www.cbn-alpin.fr/"/>
+    <hyperlink ref="E279" r:id="rId246" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E280" r:id="rId247" display="https://tourduvalat.centredoc.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7764,6 +7898,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId243"/>
+  <drawing r:id="rId248"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$276</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$303</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="774">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -61,6 +61,39 @@
     <t xml:space="preserve">Application</t>
   </si>
   <si>
+    <t xml:space="preserve">Flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://plantnet.org/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantNet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Général</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.inaturalist.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inaturalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cardobs.mnhn.fr/cardObs/auth/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CardObs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenObs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phytosociologie</t>
   </si>
   <si>
@@ -70,39 +103,6 @@
     <t xml:space="preserve">JUICE</t>
   </si>
   <si>
-    <t xml:space="preserve">Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://plantnet.org/en/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlantNet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Général</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inaturalist.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inaturalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cardobs.mnhn.fr/cardObs/auth/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CardObs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenObs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clef d’identification</t>
   </si>
   <si>
@@ -172,156 +172,165 @@
     <t xml:space="preserve">Zoom-nature</t>
   </si>
   <si>
+    <t xml:space="preserve">Mondiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.idigbio.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdigBio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iucnredlist.org/fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accueil - Red list - IUCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données spacial IUCN red list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gbif.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.oreme.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data OREME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plateforme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/record/7534792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIVE 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de données d’indicateurs floristiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annélides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ecobiosoil.univ-rennes1.fr/cle-de-determination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clé d'identification des vers de terre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araignées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://asfra.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asfra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arachno.piwigo.com/index.php?/categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piwigo Arachno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.quelestcetanimal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est cet animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herpétofaune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://coronella.free.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aramel.free.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aramel.free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insecte.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecte.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insectes-net.fr/index.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectes-net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mondedesminuscules.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monde des minuscules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://outils.gretia.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils Gretia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.animateur-nature.com/guide-invertebres/les-larves.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animateur nature – Larves d’insectes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmécologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.myrmecofourmis.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmecofourmis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthoptères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ascete.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollusques</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mondial</t>
   </si>
   <si>
-    <t xml:space="preserve">IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accueil - Red list - IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données spacial IUCN red list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biodiversitylibrary.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversity library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gbif.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montpellier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.oreme.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data OREME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org/record/7534792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIVE 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données d’indicateurs floristiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annélides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ecobiosoil.univ-rennes1.fr/cle-de-determination/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clé d'identification des vers de terre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araignées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://asfra.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asfra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arachno.piwigo.com/index.php?/categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piwigo Arachno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quelestcetanimal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel est cet animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herpétofaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://coronella.free.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://aramel.free.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aramel.free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insecte.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecte.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insectes-net.fr/index.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectes-net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mondedesminuscules.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monde des minuscules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.animateur-nature.com/guide-invertebres/les-larves.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animateur nature – Larves d’insectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmécologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.myrmecofourmis.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmecofourmis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthoptères</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ascete.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusques</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://conchology.be/?t=1</t>
   </si>
   <si>
@@ -421,18 +430,24 @@
     <t xml:space="preserve">Edible Plant Database</t>
   </si>
   <si>
+    <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boite à outil – Le Plantoscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://euroveg.org/eva-database/databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Vegetation Survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://floraveg.eu/download/</t>
   </si>
   <si>
     <t xml:space="preserve">FloraVeg.EU</t>
   </si>
   <si>
-    <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boite à outil – Le Plantoscope</t>
-  </si>
-  <si>
     <t xml:space="preserve">Traits</t>
   </si>
   <si>
@@ -445,12 +460,6 @@
     <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://euroveg.org/eva-database/databases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Vegetation Survey</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.florealpes.com/</t>
   </si>
   <si>
@@ -475,6 +484,27 @@
     <t xml:space="preserve">Tela-botanica</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.plantes-botanique.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantes Botanique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://powo.science.kew.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants of the world online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phylogénie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mobot.org/MOBOT/Research/APweb/welcome.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angiosperm Phylogeny Website</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outils flore</t>
   </si>
   <si>
@@ -511,6 +541,15 @@
     <t xml:space="preserve">Biologie végétale – UCLouvain</t>
   </si>
   <si>
+    <t xml:space="preserve">Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clef des sauvages de ma rue</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://my.plantnet.org/usage</t>
   </si>
   <si>
@@ -625,6 +664,12 @@
     <t xml:space="preserve">Clef Xper 3 des Orobanchaceae des Bouches-du-Rhône</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of Orobanchaceae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poaceae</t>
   </si>
   <si>
@@ -664,18 +709,9 @@
     <t xml:space="preserve">L’herbier en image – Pierre Goujon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.plantes-botanique.org/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plante botanique</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.plantsoftheworldonline.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants of the world online</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.reunion-parcnational.fr/fr/des-connaissances/la-flore</t>
   </si>
   <si>
@@ -685,10 +721,13 @@
     <t xml:space="preserve">https://quelle-est-cette-fleur.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Quelle est cette fleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.quelleestcetteplante.fr/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quelle est cette plante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quelleestcetteplante.fr/</t>
   </si>
   <si>
     <t xml:space="preserve">https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
@@ -868,6 +907,24 @@
     <t xml:space="preserve">Drive Plancton</t>
   </si>
   <si>
+    <t xml:space="preserve">Forêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inventaire-forestier.ign.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventaire Forestier – IGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méditerranée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.foret-mediterraneenne.org/fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forêt méditerranéenne</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://habitats-naturels.info/</t>
   </si>
   <si>
@@ -898,6 +955,12 @@
     <t xml:space="preserve">Evaluation de l'état de conservation</t>
   </si>
   <si>
+    <t xml:space="preserve">https://vegfrance.univ-rennes1.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VegFrance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outil</t>
   </si>
   <si>
@@ -919,12 +982,6 @@
     <t xml:space="preserve">Site Guy Bouxin</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vegfrance.univ-rennes1.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VegFrance</t>
-  </si>
-  <si>
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
@@ -934,16 +991,34 @@
     <t xml:space="preserve">NOBANIS</t>
   </si>
   <si>
+    <t xml:space="preserve">https://naturefrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biodiversitylibrary.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.catalogueoflife.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalogue of Life</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://eol.org/</t>
   </si>
   <si>
     <t xml:space="preserve">Encyclopedia of Life</t>
   </si>
   <si>
-    <t xml:space="preserve">https://naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature France</t>
+    <t xml:space="preserve">https://naturalhistory.si.edu/research/eol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encyclopedia of Life -  natural history</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences participatives</t>
@@ -1024,6 +1099,15 @@
     <t xml:space="preserve">Outils</t>
   </si>
   <si>
+    <t xml:space="preserve">Prospection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openbiodiv.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenBiodiv</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.laccreteil.fr/spip.php?rubrique2</t>
   </si>
   <si>
@@ -1051,6 +1135,12 @@
     <t xml:space="preserve">Plateforme d’Open Science</t>
   </si>
   <si>
+    <t xml:space="preserve">https://plazi.org/blr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plazi - Biodiversity Literature Repository</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zotero</t>
   </si>
   <si>
@@ -1063,6 +1153,15 @@
     <t xml:space="preserve">Outil de création de clef d'identification</t>
   </si>
   <si>
+    <t xml:space="preserve">Annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://annotator.pensoft.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensoft Annotator</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://faunedefrance.org/bibliotheque-virtuelle-numerique/</t>
   </si>
   <si>
@@ -1129,6 +1228,12 @@
     <t xml:space="preserve">Geoda Center</t>
   </si>
   <si>
+    <t xml:space="preserve">https://geonature.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geonature</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
   </si>
   <si>
@@ -1489,7 +1594,10 @@
     <t xml:space="preserve">Lifemap</t>
   </si>
   <si>
-    <t xml:space="preserve">Identification</t>
+    <t xml:space="preserve">https://idao.cirad.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDAO</t>
   </si>
   <si>
     <t xml:space="preserve">https://identificationkey.fr/</t>
@@ -1582,6 +1690,15 @@
     <t xml:space="preserve">L’herbier en image – Belgique</t>
   </si>
   <si>
+    <t xml:space="preserve">Maroc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.floramaroccana.fr/presentation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floramaroccana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norvège</t>
   </si>
   <si>
@@ -1669,6 +1786,15 @@
     <t xml:space="preserve">Plantes rizières Guyane Cirad</t>
   </si>
   <si>
+    <t xml:space="preserve">Haut-de-france</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eee.drealnpdc.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauts-de-France – Espèces Exotiques Envahissantes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ile-de-France</t>
   </si>
   <si>
@@ -1714,6 +1840,18 @@
     <t xml:space="preserve">Sauvages du Poitou</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.foret-aquitaine.com/som.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forêt Aquitaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitats naturels Poitou-Charentes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Occitanie</t>
   </si>
   <si>
@@ -1747,6 +1885,246 @@
     <t xml:space="preserve">Réunion</t>
   </si>
   <si>
+    <t xml:space="preserve">https://data.regionreunion.com/pages/accueil/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open data Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biotopeoi.shinyapps.io/statfore/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatFlore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDAGE 2022 - 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://insectarium-reunion.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectarium La Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollusque de l’île de la Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.faune-reunion.fr/index.php?m_id=1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faune Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchidées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://orchidees.vandes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchidées Vandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.borbonica.re/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borbonica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi aime a ou - Flore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantnet Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zinvaziv.re/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinvaziv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://daupi.cbnm.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milieu Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoustique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy - Ocean Sonics Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORBONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.coralsoftheworld.org/page/home/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corals of the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://coraux.univ-reunion.fr/spip.php?article35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coraux de La Réunion - Univ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fishbase.se/search.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map mondial recif corallien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datamermaid.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine Ecological Research Management Aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOAA Coral Reef Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions marines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données stations météos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marées SHOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluviométrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.windy.com/?-21.100,55.600,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données milieu marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAS DCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oceans-indien-austral.milieumarinfrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plateforme milieu marin France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://inpn.mnhn.fr/habitat/cd_typo/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référentiel Habitats marins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sextant.ifremer.fr/ocean-indien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sextant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wwz.ifremer.fr/surval/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allen Coral Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://portal.emodnet-bathymetry.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathymétrie mondiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marineregions.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carto ZEE Mondiale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.icriforum.org/restoration/coral-restoration-database/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral Restauration Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://prelevements-hydro.ifremer.fr/presentation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocole prélèvements hydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://natureoceanindien.org/Reptiles-reunion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Ocean Idien - Reptiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Associations</t>
   </si>
   <si>
@@ -1756,241 +2134,13 @@
     <t xml:space="preserve">Nature Océan Indien</t>
   </si>
   <si>
-    <t xml:space="preserve">https://data.regionreunion.com/pages/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open data Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biotopeoi.shinyapps.io/statfore/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatFlore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDAGE 2022 - 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://insectarium-reunion.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectarium La Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusque de l’île de la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-reunion.fr/index.php?m_id=1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://orchidees.vandes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées Vandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.borbonica.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borbonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi aime a ou - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zinvaziv.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinvaziv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://daupi.cbnm.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milieu Marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acoustique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy - Ocean Sonics Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORBONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.coralsoftheworld.org/page/home/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corals of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://coraux.univ-reunion.fr/spip.php?article35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coraux de La Réunion - Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fishbase.se/search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map mondial recif corallien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datamermaid.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine Ecological Research Management Aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOAA Coral Reef Watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions marines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données stations météos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marées SHOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluviométrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.windy.com/?-21.100,55.600,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données milieu marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS DCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://oceans-indien-austral.milieumarinfrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme milieu marin France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/habitat/cd_typo/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiel Habitats marins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sextant.ifremer.fr/ocean-indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sextant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wwz.ifremer.fr/surval/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allen Coral Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portal.emodnet-bathymetry.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bathymétrie mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.marineregions.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carto ZEE Mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.icriforum.org/restoration/coral-restoration-database/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral Restauration Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://prelevements-hydro.ifremer.fr/presentation.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocole prélèvements hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://natureoceanindien.org/Reptiles-reunion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Ocean Idien - Reptiles</t>
+    <t xml:space="preserve">Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reunion.developpement-durable.gouv.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAL</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.vogelwarte.ch/fr/oiseaux/jeu/</t>
@@ -2035,12 +2185,21 @@
     <t xml:space="preserve">Géorisques</t>
   </si>
   <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Association</t>
   </si>
   <si>
+    <t xml:space="preserve">AuRa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génréral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frane-auvergne-environnement.fr/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ille-et-Vilaine</t>
   </si>
   <si>
@@ -2083,6 +2242,12 @@
     <t xml:space="preserve">Carte Naturalistes des Terres</t>
   </si>
   <si>
+    <t xml:space="preserve">https://carabes.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARABES – Association</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.natureo.org/</t>
   </si>
   <si>
@@ -2146,18 +2311,18 @@
     <t xml:space="preserve">CBN Massif Central</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.cbn-alpin.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBN Alpin</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.cbnbl.org/digitale2</t>
   </si>
   <si>
     <t xml:space="preserve">CBN Bailleul – Digitale2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cbn-alpin.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN Alpin</t>
-  </si>
-  <si>
     <t xml:space="preserve">DREAL</t>
   </si>
   <si>
@@ -2165,6 +2330,15 @@
   </si>
   <si>
     <t xml:space="preserve">DREAL PACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etablissement Public Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alarencontredelalande.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la rencontre de la lande</t>
   </si>
   <si>
     <t xml:space="preserve">Réserve</t>
@@ -2260,7 +2434,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2271,6 +2445,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2383,10 +2561,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,18 +2620,15 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2506,13 +2681,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2525,15 +2700,18 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2563,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
@@ -2580,13 +2758,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>5</v>
@@ -2600,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -2617,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
@@ -2683,7 +2861,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>45</v>
@@ -2706,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -2725,17 +2903,17 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2745,11 +2923,11 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>53</v>
@@ -2765,8 +2943,11 @@
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
@@ -2782,7 +2963,7 @@
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2891,7 +3072,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>75</v>
@@ -2911,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>78</v>
@@ -2931,7 +3112,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>81</v>
@@ -2951,7 +3132,7 @@
         <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>83</v>
@@ -2971,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2991,9 +3172,9 @@
         <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3011,16 +3192,16 @@
         <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3031,13 +3212,13 @@
         <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3051,13 +3232,13 @@
         <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3068,16 +3249,16 @@
         <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3088,10 +3269,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>102</v>
@@ -3108,16 +3289,16 @@
         <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3128,10 +3309,10 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>107</v>
@@ -3148,16 +3329,16 @@
         <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3168,16 +3349,16 @@
         <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3188,16 +3369,16 @@
         <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3208,10 +3389,10 @@
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>116</v>
@@ -3228,16 +3409,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3248,7 +3429,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>121</v>
@@ -3282,16 +3466,13 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3299,19 +3480,19 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3319,19 +3500,19 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3339,19 +3520,19 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3359,13 +3540,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>137</v>
@@ -3373,34 +3554,25 @@
       <c r="F49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3408,10 +3580,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>142</v>
@@ -3419,22 +3594,31 @@
       <c r="F51" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,16 +3626,16 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3459,16 +3643,16 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3476,19 +3660,16 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3496,19 +3677,19 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3516,19 +3697,19 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3536,19 +3717,19 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3556,10 +3737,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>162</v>
@@ -3573,16 +3757,19 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3590,16 +3777,19 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3607,16 +3797,19 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3624,16 +3817,19 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3641,16 +3837,16 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3658,16 +3854,16 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3675,16 +3871,16 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3692,16 +3888,16 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3709,16 +3905,16 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3726,22 +3922,16 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3749,13 +3939,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>187</v>
@@ -3763,25 +3950,16 @@
       <c r="F70" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>189</v>
@@ -3795,13 +3973,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>191</v>
@@ -3815,13 +3990,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>193</v>
@@ -3835,19 +4007,22 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3855,19 +4030,25 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>182</v>
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3875,19 +4056,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3895,39 +4076,39 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H77" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I77" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3935,16 +4116,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3952,10 +4136,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>211</v>
@@ -3969,10 +4156,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>213</v>
@@ -3986,16 +4176,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4003,16 +4196,22 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4020,16 +4219,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4037,16 +4236,16 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E85" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4054,16 +4253,16 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4071,16 +4270,16 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4088,16 +4287,16 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4105,19 +4304,16 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4125,19 +4321,16 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4145,19 +4338,16 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4165,19 +4355,16 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4185,19 +4372,16 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4205,19 +4389,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4225,19 +4409,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4245,19 +4429,19 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4265,19 +4449,19 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4285,19 +4469,19 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4305,19 +4489,19 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,10 +4509,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>253</v>
@@ -4342,16 +4529,19 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4359,16 +4549,19 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4376,16 +4569,19 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>18</v>
+        <v>256</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4393,18 +4589,18 @@
         <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G104" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4413,16 +4609,16 @@
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4430,22 +4626,16 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H106" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>8</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4453,19 +4643,16 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4473,19 +4660,16 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4493,19 +4677,19 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4513,16 +4697,16 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4530,13 +4714,10 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>283</v>
@@ -4544,25 +4725,31 @@
       <c r="F111" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="H111" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4570,12 +4757,15 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E113" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>288</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4587,10 +4777,10 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>290</v>
@@ -4607,16 +4797,19 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>12</v>
+        <v>293</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4624,16 +4817,19 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>12</v>
+        <v>293</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4641,19 +4837,16 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4661,19 +4854,19 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4681,16 +4874,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>18</v>
+        <v>301</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4698,16 +4894,16 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4715,19 +4911,19 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4735,19 +4931,19 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,19 +4951,16 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4775,19 +4968,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4798,16 +4988,16 @@
         <v>63</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4818,16 +5008,13 @@
         <v>63</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4835,215 +5022,224 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>321</v>
+        <v>49</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H128" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I128" s="1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>326</v>
+        <v>49</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H129" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I129" s="1" t="n">
-        <v>10</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>18</v>
+      <c r="D131" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>18</v>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>18</v>
+      <c r="D133" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>341</v>
+      <c r="D134" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>18</v>
+      <c r="D136" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>351</v>
@@ -5054,456 +5250,474 @@
       <c r="F138" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="H138" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>357</v>
+      <c r="H139" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>362</v>
+        <v>164</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>63</v>
+        <v>375</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H152" s="1" t="n">
-        <v>7</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>63</v>
+        <v>391</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D156" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E156" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>397</v>
+        <v>63</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>408</v>
+        <v>63</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>411</v>
+        <v>63</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>416</v>
@@ -5514,13 +5728,13 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>418</v>
@@ -5531,13 +5745,13 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>420</v>
@@ -5545,169 +5759,181 @@
       <c r="F166" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="H166" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>422</v>
+        <v>63</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>431</v>
+        <v>63</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>434</v>
+        <v>63</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="D173" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="E173" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="D174" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="E174" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="D175" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>444</v>
@@ -5718,10 +5944,10 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>446</v>
@@ -5735,399 +5961,390 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>446</v>
+        <v>12</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H188" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" s="1" t="n">
-        <v>6</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>18</v>
+        <v>481</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>18</v>
+        <v>481</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>18</v>
+        <v>481</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E199" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="E199" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="F199" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>15</v>
+        <v>499</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>502</v>
@@ -6138,16 +6355,13 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>504</v>
@@ -6158,604 +6372,604 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>18</v>
+        <v>506</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="H202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E205" s="3" t="s">
         <v>514</v>
       </c>
+      <c r="E205" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="F205" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>18</v>
+        <v>514</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>524</v>
+        <v>241</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>525</v>
+      <c r="E209" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>527</v>
+        <v>241</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>18</v>
+        <v>172</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>531</v>
+        <v>241</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="F212" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>80</v>
+        <v>537</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>556</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>18</v>
+        <v>537</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>564</v>
+        <v>12</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E222" s="3" t="s">
-        <v>570</v>
+      <c r="E222" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>573</v>
+        <v>15</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>578</v>
+        <v>12</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="F227" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E228" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>15</v>
+        <v>583</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>15</v>
+        <v>593</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>15</v>
+        <v>598</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>599</v>
@@ -6766,39 +6980,36 @@
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="F236" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>601</v>
+        <v>279</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>605</v>
@@ -6806,16 +7017,16 @@
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>601</v>
+        <v>279</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>606</v>
@@ -6826,827 +7037,1261 @@
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>601</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E239" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C240" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>612</v>
+        <v>12</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>9</v>
+        <v>349</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C245" s="1" t="s">
-        <v>601</v>
+        <v>41</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>601</v>
+        <v>41</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>620</v>
+        <v>100</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>620</v>
+        <v>41</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>601</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>629</v>
+        <v>12</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>629</v>
+        <v>12</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>629</v>
+        <v>12</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="F255" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="D256" s="1" t="s">
-        <v>640</v>
+        <v>9</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>640</v>
+        <v>9</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>389</v>
+        <v>651</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>647</v>
+        <v>9</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>647</v>
+        <v>9</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>41</v>
+        <v>644</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>660</v>
+        <v>644</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G262" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>18</v>
+        <v>644</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="F266" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>18</v>
+        <v>672</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>18</v>
+        <v>672</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>18</v>
+        <v>644</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>18</v>
+        <v>672</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>568</v>
+        <v>644</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>568</v>
+        <v>644</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>697</v>
+        <v>618</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>698</v>
+        <v>644</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>699</v>
+        <v>424</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>701</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>703</v>
+        <v>644</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>18</v>
+        <v>644</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>18</v>
+        <v>695</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E282" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E279" s="1" t="s">
+      <c r="F282" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F279" s="1" t="s">
+      <c r="G282" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H279" s="1" t="n">
+    </row>
+    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H301" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I279" s="1" t="n">
+      <c r="I301" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>715</v>
-      </c>
+    <row r="302" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I276"/>
+  <autoFilter ref="A1:I303"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.sci.muni.cz/botany/juice/?idm%3D10"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://plantnet.org/en/"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.inaturalist.org/"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.sci.muni.cz/botany/juice/?idm%3D10"/>
     <hyperlink ref="E7" r:id="rId5" display="http://explorer.xper3.fr/accueil/"/>
     <hyperlink ref="E8" r:id="rId6" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
     <hyperlink ref="E10" r:id="rId7" display="http://www.lenaturaliste.net/portail/index.php"/>
@@ -7655,9 +8300,9 @@
     <hyperlink ref="E13" r:id="rId10" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
     <hyperlink ref="E14" r:id="rId11" display="https://u-g-o.jimdofree.com/"/>
     <hyperlink ref="E15" r:id="rId12" display="https://www.zoom-nature.fr/"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E17" r:id="rId14" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.idigbio.org/"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
     <hyperlink ref="E19" r:id="rId16" display="https://www.gbif.org/"/>
     <hyperlink ref="E20" r:id="rId17" display="https://data.oreme.org/"/>
     <hyperlink ref="E21" r:id="rId18" display="https://zenodo.org/record/7534792"/>
@@ -7669,227 +8314,250 @@
     <hyperlink ref="E27" r:id="rId24" display="http://aramel.free.fr/"/>
     <hyperlink ref="E29" r:id="rId25" display="https://www.insectes-net.fr/index.htm"/>
     <hyperlink ref="E30" r:id="rId26" display="https://mondedesminuscules.fr/"/>
-    <hyperlink ref="E31" r:id="rId27" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://www.myrmecofourmis.fr/"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://ascete.org/"/>
-    <hyperlink ref="E34" r:id="rId30" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E35" r:id="rId31" display="https://www.oiseaux.net/"/>
-    <hyperlink ref="E36" r:id="rId32" display="http://www.ornitho.fr/"/>
-    <hyperlink ref="E37" r:id="rId33" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
-    <hyperlink ref="E38" r:id="rId34" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
-    <hyperlink ref="E39" r:id="rId35" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
-    <hyperlink ref="E40" r:id="rId36" display="http://fotooizo.free.fr/jeu3.php"/>
-    <hyperlink ref="E41" r:id="rId37" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
-    <hyperlink ref="E42" r:id="rId38" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
-    <hyperlink ref="E43" r:id="rId39" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E45" r:id="rId40" display="https://xeno-canto.org/"/>
-    <hyperlink ref="E46" r:id="rId41" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
-    <hyperlink ref="E47" r:id="rId42" display="https://floraveg.eu/download/"/>
+    <hyperlink ref="E31" r:id="rId27" display="https://outils.gretia.org/"/>
+    <hyperlink ref="E32" r:id="rId28" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
+    <hyperlink ref="E33" r:id="rId29" display="https://www.myrmecofourmis.fr/"/>
+    <hyperlink ref="E34" r:id="rId30" display="https://ascete.org/"/>
+    <hyperlink ref="E35" r:id="rId31" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E36" r:id="rId32" display="https://www.oiseaux.net/"/>
+    <hyperlink ref="E37" r:id="rId33" display="http://www.ornitho.fr/"/>
+    <hyperlink ref="E38" r:id="rId34" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
+    <hyperlink ref="E39" r:id="rId35" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
+    <hyperlink ref="E40" r:id="rId36" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
+    <hyperlink ref="E41" r:id="rId37" display="http://fotooizo.free.fr/jeu3.php"/>
+    <hyperlink ref="E42" r:id="rId38" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
+    <hyperlink ref="E43" r:id="rId39" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
+    <hyperlink ref="E44" r:id="rId40" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E46" r:id="rId41" display="https://xeno-canto.org/"/>
+    <hyperlink ref="E47" r:id="rId42" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
     <hyperlink ref="E48" r:id="rId43" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
-    <hyperlink ref="E49" r:id="rId44" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E50" r:id="rId45" display="https://euroveg.org/eva-database/databases"/>
-    <hyperlink ref="E51" r:id="rId46" display="https://www.florealpes.com/"/>
-    <hyperlink ref="E52" r:id="rId47" display="https://www.preservons-la-nature.fr/"/>
-    <hyperlink ref="E53" r:id="rId48" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
-    <hyperlink ref="E54" r:id="rId49" display="https://www.tela-botanica.org/"/>
-    <hyperlink ref="E55" r:id="rId50" display="https://www.quantitative-plant.org/"/>
-    <hyperlink ref="E56" r:id="rId51" display="https://plants.jstor.org/"/>
-    <hyperlink ref="E57" r:id="rId52" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
-    <hyperlink ref="E58" r:id="rId53" display="https://biologievegetale.be/"/>
-    <hyperlink ref="E59" r:id="rId54" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E60" r:id="rId55" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
-    <hyperlink ref="E61" r:id="rId56" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E62" r:id="rId57" display="http://floristic.org/"/>
-    <hyperlink ref="E63" r:id="rId58" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E65" r:id="rId59" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E66" r:id="rId60" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E67" r:id="rId61" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E68" r:id="rId62" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E69" r:id="rId63" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E70" r:id="rId64" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E71" r:id="rId65" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
-    <hyperlink ref="E72" r:id="rId66" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
-    <hyperlink ref="E73" r:id="rId67" display="http://www.orchidsofbritainandeurope.co.uk/"/>
-    <hyperlink ref="E74" r:id="rId68" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
-    <hyperlink ref="E75" r:id="rId69" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
-    <hyperlink ref="E76" r:id="rId70" display="https://botarela.fr/"/>
-    <hyperlink ref="E77" r:id="rId71" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E78" r:id="rId72" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E80" r:id="rId73" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
-    <hyperlink ref="E81" r:id="rId74" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E82" r:id="rId75" display="http://www.plantsoftheworldonline.org/"/>
-    <hyperlink ref="E84" r:id="rId76" display="https://quelle-est-cette-fleur.com/"/>
-    <hyperlink ref="E85" r:id="rId77" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E87" r:id="rId78" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E88" r:id="rId79" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E89" r:id="rId80" display="https://www.ipni.org/"/>
-    <hyperlink ref="E90" r:id="rId81" display="http://www.theplantlist.org/"/>
-    <hyperlink ref="E91" r:id="rId82" display="http://www.worldfloraonline.org/"/>
-    <hyperlink ref="E92" r:id="rId83" display="https://floranet.pagesperso-orange.fr/"/>
-    <hyperlink ref="E93" r:id="rId84" display="https://pfaf.org/user/Default.aspx"/>
-    <hyperlink ref="E94" r:id="rId85" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E95" r:id="rId86" display="http://www.wikiphyto.org/wiki/Accueil"/>
-    <hyperlink ref="E96" r:id="rId87" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
-    <hyperlink ref="E97" r:id="rId88" display="https://champis.net/home"/>
-    <hyperlink ref="E98" r:id="rId89" display="https://www.mycodb.fr/searchfam.php"/>
-    <hyperlink ref="E99" r:id="rId90" display="https://www.afl-lichenologie.fr/"/>
-    <hyperlink ref="E100" r:id="rId91" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E101" r:id="rId92" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E102" r:id="rId93" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E103" r:id="rId94" display="http://cahiers-techniques.espaces-naturels.fr/"/>
-    <hyperlink ref="E104" r:id="rId95" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E105" r:id="rId96" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E106" r:id="rId97" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E107" r:id="rId98" display="http://cfb.unh.edu/"/>
-    <hyperlink ref="E108" r:id="rId99" display="https://www.freshwaterecology.info/"/>
-    <hyperlink ref="E109" r:id="rId100" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
-    <hyperlink ref="E110" r:id="rId101" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E112" r:id="rId102" display="https://www.marinespecies.org/photogallery.php"/>
-    <hyperlink ref="E113" r:id="rId103" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E114" r:id="rId104" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E115" r:id="rId105" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E116" r:id="rId106" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E117" r:id="rId107" display="https://vegfrance.univ-rennes1.fr/"/>
-    <hyperlink ref="E118" r:id="rId108" display="https://www.nobanis.org/"/>
-    <hyperlink ref="E119" r:id="rId109" display="https://eol.org/"/>
-    <hyperlink ref="E121" r:id="rId110" display="http://lesherbonautes.mnhn.fr/"/>
-    <hyperlink ref="E122" r:id="rId111" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E123" r:id="rId112" display="https://www.vigienature.fr/"/>
-    <hyperlink ref="E124" r:id="rId113" display="https://www.oiseauxdesjardins.fr/"/>
-    <hyperlink ref="E125" r:id="rId114" display="https://sapoll.eu/"/>
-    <hyperlink ref="E126" r:id="rId115" display="https://www.spipoll.org/"/>
-    <hyperlink ref="E127" r:id="rId116" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E128" r:id="rId117" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E129" r:id="rId118" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E130" r:id="rId119" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E131" r:id="rId120" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E132" r:id="rId121" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E133" r:id="rId122" display="https://zenodo.org"/>
-    <hyperlink ref="E134" r:id="rId123" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E135" r:id="rId124" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
-    <hyperlink ref="E137" r:id="rId125" display="https://www.eu-nomen.eu/portal/index.php"/>
-    <hyperlink ref="E138" r:id="rId126" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E139" r:id="rId127" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E141" r:id="rId128" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E142" r:id="rId129" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E143" r:id="rId130" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E144" r:id="rId131" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E145" r:id="rId132" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E146" r:id="rId133" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E147" r:id="rId134" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E148" r:id="rId135" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E149" r:id="rId136" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E150" r:id="rId137" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E151" r:id="rId138" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E152" r:id="rId139" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E153" r:id="rId140" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E154" r:id="rId141" display="http://peigeo.re/"/>
-    <hyperlink ref="E155" r:id="rId142" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E156" r:id="rId143" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E157" r:id="rId144" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E158" r:id="rId145" display="https://qfield.org/"/>
-    <hyperlink ref="E161" r:id="rId146" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E162" r:id="rId147" display="http://www.multibao.org/"/>
-    <hyperlink ref="E163" r:id="rId148" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E164" r:id="rId149" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E166" r:id="rId150" display="https://leplantoscope.fr/"/>
-    <hyperlink ref="E168" r:id="rId151" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E169" r:id="rId152" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E171" r:id="rId153" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E172" r:id="rId154" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E175" r:id="rId155" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E176" r:id="rId156" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E178" r:id="rId157" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E180" r:id="rId158" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E181" r:id="rId159" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E182" r:id="rId160" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E184" r:id="rId161" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E185" r:id="rId162" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E186" r:id="rId163" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E187" r:id="rId164" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E188" r:id="rId165" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E189" r:id="rId166" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E190" r:id="rId167" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E191" r:id="rId168" display="https://chat.openai.com/"/>
-    <hyperlink ref="E192" r:id="rId169" display="https://you.com/"/>
-    <hyperlink ref="E193" r:id="rId170" display="https://www.futurepedia.io/"/>
-    <hyperlink ref="E194" r:id="rId171" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
-    <hyperlink ref="E196" r:id="rId172" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E197" r:id="rId173" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E198" r:id="rId174" display="http://www.biodiville.org/"/>
-    <hyperlink ref="E199" r:id="rId175" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E200" r:id="rId176" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
-    <hyperlink ref="E201" r:id="rId177" display="https://www.youtube.com/@augustinsoulard"/>
-    <hyperlink ref="E202" r:id="rId178" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
-    <hyperlink ref="E203" r:id="rId179" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
-    <hyperlink ref="E204" r:id="rId180" display="https://www.youtube.com/user/EditionsSalamandre"/>
-    <hyperlink ref="E205" r:id="rId181" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E206" r:id="rId182" display="https://www.herbierimages.be/"/>
-    <hyperlink ref="E207" r:id="rId183" display="https://www.artsdatabanken.no/"/>
-    <hyperlink ref="E208" r:id="rId184" display="https://artfakta.se/artinformation?lang=sv"/>
-    <hyperlink ref="E209" r:id="rId185" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E210" r:id="rId186" display="https://www.biolib.cz/en/main/"/>
-    <hyperlink ref="E211" r:id="rId187" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E212" r:id="rId188" display="https://www.faune-bretagne.org/"/>
-    <hyperlink ref="E213" r:id="rId189" display="https://www.bretagne-vivante.org/"/>
-    <hyperlink ref="E214" r:id="rId190" display="https://fne-centrevaldeloire.org/"/>
-    <hyperlink ref="E215" r:id="rId191" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E216" r:id="rId192" display="https://cettia.fr/"/>
-    <hyperlink ref="E218" r:id="rId193" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E219" r:id="rId194" display="https://www.sauvagesdupoitou.com/"/>
-    <hyperlink ref="E220" r:id="rId195" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E221" r:id="rId196" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E222" r:id="rId197" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E223" r:id="rId198" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E224" r:id="rId199" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E225" r:id="rId200" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E226" r:id="rId201" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E227" r:id="rId202" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E229" r:id="rId203" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E230" r:id="rId204" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E234" r:id="rId205" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E236" r:id="rId206" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E237" r:id="rId207" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E238" r:id="rId208" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E239" r:id="rId209" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E240" r:id="rId210" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E241" r:id="rId211" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E242" r:id="rId212" display="https://datamermaid.org/"/>
-    <hyperlink ref="E243" r:id="rId213" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E244" r:id="rId214" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E245" r:id="rId215" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E246" r:id="rId216" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E247" r:id="rId217" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E248" r:id="rId218" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E249" r:id="rId219" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E250" r:id="rId220" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E251" r:id="rId221" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E252" r:id="rId222" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E253" r:id="rId223" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E254" r:id="rId224" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E255" r:id="rId225" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E256" r:id="rId226" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E257" r:id="rId227" display="http://peigeo.re/"/>
-    <hyperlink ref="E258" r:id="rId228" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E259" r:id="rId229" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E261" r:id="rId230" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
-    <hyperlink ref="E262" r:id="rId231" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E264" r:id="rId232" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E265" r:id="rId233" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
-    <hyperlink ref="E266" r:id="rId234" display="https://somosorleans.org/"/>
-    <hyperlink ref="E267" r:id="rId235" display="https://www.aspas-nature.org/"/>
-    <hyperlink ref="E268" r:id="rId236" display="https://faunedefrance.org/"/>
-    <hyperlink ref="E269" r:id="rId237" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
-    <hyperlink ref="E270" r:id="rId238" display="https://www.natureo.org/"/>
-    <hyperlink ref="E271" r:id="rId239" display="https://sbocc.fr/calendrier/"/>
-    <hyperlink ref="E272" r:id="rId240" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E273" r:id="rId241" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E274" r:id="rId242" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E276" r:id="rId243" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E277" r:id="rId244" display="https://www.cbnbl.org/digitale2"/>
-    <hyperlink ref="E278" r:id="rId245" display="https://www.cbn-alpin.fr/"/>
-    <hyperlink ref="E279" r:id="rId246" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E280" r:id="rId247" display="https://tourduvalat.centredoc.fr/"/>
+    <hyperlink ref="E49" r:id="rId44" display="https://euroveg.org/eva-database/databases"/>
+    <hyperlink ref="E50" r:id="rId45" display="https://floraveg.eu/download/"/>
+    <hyperlink ref="E51" r:id="rId46" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E52" r:id="rId47" display="https://www.florealpes.com/"/>
+    <hyperlink ref="E53" r:id="rId48" display="https://www.preservons-la-nature.fr/"/>
+    <hyperlink ref="E54" r:id="rId49" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
+    <hyperlink ref="E55" r:id="rId50" display="https://www.tela-botanica.org/"/>
+    <hyperlink ref="E56" r:id="rId51" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E57" r:id="rId52" display="https://powo.science.kew.org/"/>
+    <hyperlink ref="E58" r:id="rId53" display="https://www.mobot.org/MOBOT/Research/APweb/welcome.html"/>
+    <hyperlink ref="E59" r:id="rId54" display="https://www.quantitative-plant.org/"/>
+    <hyperlink ref="E60" r:id="rId55" display="https://plants.jstor.org/"/>
+    <hyperlink ref="E61" r:id="rId56" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
+    <hyperlink ref="E62" r:id="rId57" display="https://biologievegetale.be/"/>
+    <hyperlink ref="E63" r:id="rId58" display="https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys"/>
+    <hyperlink ref="E64" r:id="rId59" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E65" r:id="rId60" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
+    <hyperlink ref="E66" r:id="rId61" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E67" r:id="rId62" display="http://floristic.org/"/>
+    <hyperlink ref="E68" r:id="rId63" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E70" r:id="rId64" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E71" r:id="rId65" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E72" r:id="rId66" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E73" r:id="rId67" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E74" r:id="rId68" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E75" r:id="rId69" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E76" r:id="rId70" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
+    <hyperlink ref="E77" r:id="rId71" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
+    <hyperlink ref="E78" r:id="rId72" display="http://www.orchidsofbritainandeurope.co.uk/"/>
+    <hyperlink ref="E79" r:id="rId73" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
+    <hyperlink ref="E80" r:id="rId74" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
+    <hyperlink ref="E81" r:id="rId75" display="https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm"/>
+    <hyperlink ref="E82" r:id="rId76" display="https://botarela.fr/"/>
+    <hyperlink ref="E83" r:id="rId77" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E84" r:id="rId78" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E86" r:id="rId79" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
+    <hyperlink ref="E87" r:id="rId80" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E89" r:id="rId81" display="https://quelle-est-cette-fleur.com/"/>
+    <hyperlink ref="E90" r:id="rId82" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E92" r:id="rId83" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E93" r:id="rId84" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E94" r:id="rId85" display="https://www.ipni.org/"/>
+    <hyperlink ref="E95" r:id="rId86" display="http://www.theplantlist.org/"/>
+    <hyperlink ref="E96" r:id="rId87" display="http://www.worldfloraonline.org/"/>
+    <hyperlink ref="E97" r:id="rId88" display="https://floranet.pagesperso-orange.fr/"/>
+    <hyperlink ref="E98" r:id="rId89" display="https://pfaf.org/user/Default.aspx"/>
+    <hyperlink ref="E99" r:id="rId90" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E100" r:id="rId91" display="http://www.wikiphyto.org/wiki/Accueil"/>
+    <hyperlink ref="E101" r:id="rId92" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E102" r:id="rId93" display="https://champis.net/home"/>
+    <hyperlink ref="E103" r:id="rId94" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E104" r:id="rId95" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E105" r:id="rId96" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E106" r:id="rId97" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E107" r:id="rId98" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E108" r:id="rId99" display="http://cahiers-techniques.espaces-naturels.fr/"/>
+    <hyperlink ref="E109" r:id="rId100" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E110" r:id="rId101" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E111" r:id="rId102" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E112" r:id="rId103" display="http://cfb.unh.edu/"/>
+    <hyperlink ref="E113" r:id="rId104" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E114" r:id="rId105" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
+    <hyperlink ref="E115" r:id="rId106" display="https://inventaire-forestier.ign.fr/"/>
+    <hyperlink ref="E116" r:id="rId107" display="https://www.foret-mediterraneenne.org/fr/"/>
+    <hyperlink ref="E117" r:id="rId108" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E119" r:id="rId109" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E120" r:id="rId110" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E121" r:id="rId111" display="https://vegfrance.univ-rennes1.fr/"/>
+    <hyperlink ref="E122" r:id="rId112" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E123" r:id="rId113" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E124" r:id="rId114" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E125" r:id="rId115" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E127" r:id="rId116" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E128" r:id="rId117" display="https://www.catalogueoflife.org/"/>
+    <hyperlink ref="E129" r:id="rId118" display="https://eol.org/"/>
+    <hyperlink ref="E130" r:id="rId119" display="https://naturalhistory.si.edu/research/eol"/>
+    <hyperlink ref="E131" r:id="rId120" display="http://lesherbonautes.mnhn.fr/"/>
+    <hyperlink ref="E132" r:id="rId121" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E133" r:id="rId122" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E134" r:id="rId123" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E135" r:id="rId124" display="https://sapoll.eu/"/>
+    <hyperlink ref="E136" r:id="rId125" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E137" r:id="rId126" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E138" r:id="rId127" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E139" r:id="rId128" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E140" r:id="rId129" display="https://openbiodiv.net/"/>
+    <hyperlink ref="E141" r:id="rId130" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E142" r:id="rId131" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E143" r:id="rId132" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E144" r:id="rId133" display="https://zenodo.org"/>
+    <hyperlink ref="E145" r:id="rId134" display="https://plazi.org/blr/"/>
+    <hyperlink ref="E146" r:id="rId135" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E147" r:id="rId136" display="https://annotator.pensoft.net/"/>
+    <hyperlink ref="E148" r:id="rId137" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E150" r:id="rId138" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E151" r:id="rId139" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E152" r:id="rId140" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E154" r:id="rId141" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E155" r:id="rId142" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E156" r:id="rId143" display="https://geonature.fr/"/>
+    <hyperlink ref="E157" r:id="rId144" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E158" r:id="rId145" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E159" r:id="rId146" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E160" r:id="rId147" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E161" r:id="rId148" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E162" r:id="rId149" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E163" r:id="rId150" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E164" r:id="rId151" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E165" r:id="rId152" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E166" r:id="rId153" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E167" r:id="rId154" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E168" r:id="rId155" display="http://peigeo.re/"/>
+    <hyperlink ref="E169" r:id="rId156" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E170" r:id="rId157" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E171" r:id="rId158" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E172" r:id="rId159" display="https://qfield.org/"/>
+    <hyperlink ref="E175" r:id="rId160" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E176" r:id="rId161" display="http://www.multibao.org/"/>
+    <hyperlink ref="E177" r:id="rId162" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E178" r:id="rId163" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E180" r:id="rId164" display="https://leplantoscope.fr/"/>
+    <hyperlink ref="E182" r:id="rId165" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E183" r:id="rId166" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E185" r:id="rId167" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E186" r:id="rId168" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E189" r:id="rId169" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E190" r:id="rId170" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E192" r:id="rId171" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E194" r:id="rId172" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E195" r:id="rId173" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E196" r:id="rId174" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E198" r:id="rId175" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E199" r:id="rId176" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E200" r:id="rId177" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E201" r:id="rId178" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E202" r:id="rId179" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E203" r:id="rId180" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E204" r:id="rId181" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E205" r:id="rId182" display="https://chat.openai.com/"/>
+    <hyperlink ref="E206" r:id="rId183" display="https://you.com/"/>
+    <hyperlink ref="E207" r:id="rId184" display="https://www.futurepedia.io/"/>
+    <hyperlink ref="E208" r:id="rId185" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E209" r:id="rId186" display="https://idao.cirad.fr/"/>
+    <hyperlink ref="E211" r:id="rId187" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E212" r:id="rId188" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E213" r:id="rId189" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E214" r:id="rId190" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E215" r:id="rId191" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
+    <hyperlink ref="E216" r:id="rId192" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E217" r:id="rId193" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E218" r:id="rId194" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E219" r:id="rId195" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E220" r:id="rId196" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E221" r:id="rId197" display="https://www.herbierimages.be/"/>
+    <hyperlink ref="E222" r:id="rId198" display="https://www.floramaroccana.fr/presentation.html"/>
+    <hyperlink ref="E223" r:id="rId199" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E224" r:id="rId200" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E225" r:id="rId201" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E226" r:id="rId202" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E227" r:id="rId203" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E228" r:id="rId204" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E229" r:id="rId205" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E230" r:id="rId206" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E231" r:id="rId207" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E232" r:id="rId208" display="https://eee.drealnpdc.fr/"/>
+    <hyperlink ref="E233" r:id="rId209" display="https://cettia.fr/"/>
+    <hyperlink ref="E235" r:id="rId210" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E236" r:id="rId211" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E237" r:id="rId212" display="http://www.foret-aquitaine.com/som.htm"/>
+    <hyperlink ref="E238" r:id="rId213" display="http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/"/>
+    <hyperlink ref="E239" r:id="rId214" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E240" r:id="rId215" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E241" r:id="rId216" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E242" r:id="rId217" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E243" r:id="rId218" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E244" r:id="rId219" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E245" r:id="rId220" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E247" r:id="rId221" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E248" r:id="rId222" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E252" r:id="rId223" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E254" r:id="rId224" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E255" r:id="rId225" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E256" r:id="rId226" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E257" r:id="rId227" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E258" r:id="rId228" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E259" r:id="rId229" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E260" r:id="rId230" display="https://datamermaid.org/"/>
+    <hyperlink ref="E261" r:id="rId231" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E262" r:id="rId232" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E263" r:id="rId233" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E264" r:id="rId234" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E265" r:id="rId235" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E266" r:id="rId236" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E267" r:id="rId237" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E268" r:id="rId238" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E269" r:id="rId239" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E270" r:id="rId240" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E271" r:id="rId241" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E272" r:id="rId242" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E273" r:id="rId243" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E274" r:id="rId244" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E275" r:id="rId245" display="http://peigeo.re/"/>
+    <hyperlink ref="E276" r:id="rId246" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E277" r:id="rId247" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E279" r:id="rId248" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E280" r:id="rId249" display="https://www.reunion.developpement-durable.gouv.fr/"/>
+    <hyperlink ref="E281" r:id="rId250" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E282" r:id="rId251" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E284" r:id="rId252" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E285" r:id="rId253" display="https://www.frane-auvergne-environnement.fr/index.php"/>
+    <hyperlink ref="E286" r:id="rId254" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E287" r:id="rId255" display="https://somosorleans.org/"/>
+    <hyperlink ref="E288" r:id="rId256" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E289" r:id="rId257" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E290" r:id="rId258" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
+    <hyperlink ref="E291" r:id="rId259" display="https://carabes.fr/"/>
+    <hyperlink ref="E292" r:id="rId260" display="https://www.natureo.org/"/>
+    <hyperlink ref="E293" r:id="rId261" display="https://sbocc.fr/calendrier/"/>
+    <hyperlink ref="E294" r:id="rId262" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E295" r:id="rId263" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E296" r:id="rId264" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E298" r:id="rId265" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E299" r:id="rId266" display="https://www.cbn-alpin.fr/"/>
+    <hyperlink ref="E300" r:id="rId267" display="https://www.cbnbl.org/digitale2"/>
+    <hyperlink ref="E301" r:id="rId268" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E302" r:id="rId269" display="https://www.alarencontredelalande.fr/"/>
+    <hyperlink ref="E303" r:id="rId270" display="https://tourduvalat.centredoc.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7898,6 +8566,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId248"/>
+  <drawing r:id="rId271"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$303</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$327</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="825">
   <si>
     <t xml:space="preserve">Titre_1</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">Flore</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/augustinsoulard/KIT_BOTA_QFIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT BOTA QFIELD </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://plantnet.org/en/</t>
   </si>
   <si>
@@ -181,6 +187,12 @@
     <t xml:space="preserve">IdigBio</t>
   </si>
   <si>
+    <t xml:space="preserve">https://data.nhm.ac.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural History Museum – UK</t>
+  </si>
+  <si>
     <t xml:space="preserve">IUCN</t>
   </si>
   <si>
@@ -268,6 +280,15 @@
     <t xml:space="preserve">Insectes</t>
   </si>
   <si>
+    <t xml:space="preserve">Coléoptères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kerbtier.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerbtier.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://aramel.free.fr/</t>
   </si>
   <si>
@@ -286,6 +307,12 @@
     <t xml:space="preserve">Insectes-net</t>
   </si>
   <si>
+    <t xml:space="preserve">https://sites.google.com/view/mikes-insect-keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike’s Insect Keys</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://mondedesminuscules.fr/</t>
   </si>
   <si>
@@ -430,6 +457,12 @@
     <t xml:space="preserve">Edible Plant Database</t>
   </si>
   <si>
+    <t xml:space="preserve">https://garrigue-gourmande.fr/index.php?option=com_content&amp;view=featured&amp;Itemid=99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La garrigue gourmande</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
   </si>
   <si>
@@ -448,6 +481,21 @@
     <t xml:space="preserve">FloraVeg.EU</t>
   </si>
   <si>
+    <t xml:space="preserve">https://siflore.fcbn.fr/?cd_ref=&amp;r=metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siflore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référentiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://referentiels.tela-botanica.org/referentiel/index.php?module=Accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référentiels taxonomiques – Tela botanica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traits</t>
   </si>
   <si>
@@ -496,6 +544,12 @@
     <t xml:space="preserve">Plants of the world online</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.worldfloraonline.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Flora Online</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phylogénie</t>
   </si>
   <si>
@@ -541,6 +595,12 @@
     <t xml:space="preserve">Biologie végétale – UCLouvain</t>
   </si>
   <si>
+    <t xml:space="preserve">http://floristic.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floristic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identification</t>
   </si>
   <si>
@@ -568,12 +628,6 @@
     <t xml:space="preserve">Flore en Ligne</t>
   </si>
   <si>
-    <t xml:space="preserve">http://floristic.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floristic</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://tools.bgci.org/global_tree_search.php</t>
   </si>
   <si>
@@ -679,6 +733,39 @@
     <t xml:space="preserve">Botarela</t>
   </si>
   <si>
+    <t xml:space="preserve">Solanaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://solanaceaesource.myspecies.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solanaceae Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sites complementaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biologie végétale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rnbio.sorbonne-universite.fr/bio-veg_accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorbonne – Ressources numériques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.botaplus.fr/botaflore/bonnier_mt.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botaplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://societebotaniquedefrance.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Société Botanique de France</t>
+  </si>
+  <si>
     <t xml:space="preserve">Photo</t>
   </si>
   <si>
@@ -688,9 +775,6 @@
     <t xml:space="preserve">Photoflora</t>
   </si>
   <si>
-    <t xml:space="preserve">Sites complementaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://fleurs-fruits-feuilles-de.com/galerie_photos.php</t>
   </si>
   <si>
@@ -763,12 +847,6 @@
     <t xml:space="preserve">The Plant List</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.worldfloraonline.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Flora Online</t>
-  </si>
-  <si>
     <t xml:space="preserve">Usages</t>
   </si>
   <si>
@@ -839,6 +917,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lichen Go – Xper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lichenologue.org/fr/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lichenologue.org</t>
   </si>
   <si>
     <t xml:space="preserve">Gestion</t>
@@ -970,6 +1054,12 @@
     <t xml:space="preserve">Florass par RoZo</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.e-veg.net/accueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eVeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique</t>
   </si>
   <si>
@@ -1030,6 +1120,12 @@
     <t xml:space="preserve">Herbonautes</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.tela-botanica.org/mission/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Flore</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.particitae.upmc.fr/fr/index.html</t>
   </si>
   <si>
@@ -1063,9 +1159,6 @@
     <t xml:space="preserve">SPIPOLL</t>
   </si>
   <si>
-    <t xml:space="preserve">Référentiel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxref</t>
   </si>
   <si>
@@ -1180,6 +1273,15 @@
     <t xml:space="preserve">Eu-nomen</t>
   </si>
   <si>
+    <t xml:space="preserve">Indicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://naturefrance.fr/indicateurs?fulltext=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs ONB</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINP</t>
   </si>
   <si>
@@ -1234,6 +1336,15 @@
     <t xml:space="preserve">Geonature</t>
   </si>
   <si>
+    <t xml:space="preserve">N2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.natura2000.fr/carte-natura-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carte Natura 2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
   </si>
   <si>
@@ -1882,6 +1993,15 @@
     <t xml:space="preserve">Atlas Flore 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://etienne.aspord.free.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Aspord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réunion</t>
   </si>
   <si>
@@ -1903,6 +2023,12 @@
     <t xml:space="preserve">SDAGE 2022 - 2027</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.mi-aime-a-ou.com/faune_ile_reunion.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi aime a ou – Faune</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://insectarium-reunion.fr/</t>
   </si>
   <si>
@@ -1972,6 +2098,12 @@
     <t xml:space="preserve">Lucy - Ocean Sonics Resources</t>
   </si>
   <si>
+    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Biodiversit%C3%A9_marine_des_lagons_de_La_R%C3%A9union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversité marine des lagons de La Réunion – wikipédia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORBONICA</t>
   </si>
   <si>
@@ -1987,6 +2119,12 @@
     <t xml:space="preserve">Coraux de La Réunion - Univ</t>
   </si>
   <si>
+    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-doc/pleins_textes/ed-09-10/010050352.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crustacées de la Réunion</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.fishbase.se/search.php</t>
   </si>
   <si>
@@ -2224,6 +2362,16 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">Ecologues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://afie-asso.fr/?article1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association Française Interprofessionnelle des Ecologues
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.aspas-nature.org/</t>
   </si>
   <si>
@@ -2264,6 +2412,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bouches-du-Rhônes (13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lesnaturalistesdeletoile.com/index.php/liens-utiles-botanique/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Naturalistes de l’étoile</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.linneenne-provence.org/</t>
@@ -2434,7 +2588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2452,6 +2606,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2561,10 +2719,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:XFD327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2623,12 +2781,15 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2641,13 +2802,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2661,13 +2822,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2681,7 +2842,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -2700,18 +2861,15 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2721,17 +2879,20 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2741,12 +2902,15 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2758,16 +2922,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2778,13 +2939,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2795,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
@@ -2812,20 +2976,14 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2835,20 +2993,20 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2858,20 +3016,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2881,10 +3039,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -2903,18 +3061,21 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -2924,19 +3085,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2944,17 +3105,20 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -2964,7 +3128,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>57</v>
@@ -2980,14 +3147,17 @@
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2995,19 +3165,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3015,19 +3182,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3035,16 +3199,19 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3052,16 +3219,19 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3069,10 +3239,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>75</v>
@@ -3086,19 +3256,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3106,19 +3273,16 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3126,19 +3290,19 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3146,19 +3310,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3166,19 +3330,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3186,33 +3350,33 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>92</v>
@@ -3226,79 +3390,79 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3306,19 +3470,19 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3326,19 +3490,19 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3346,19 +3510,19 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3366,13 +3530,13 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>114</v>
@@ -3386,13 +3550,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>116</v>
@@ -3406,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>118</v>
@@ -3426,10 +3590,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>118</v>
@@ -3446,16 +3610,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,16 +3630,19 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3480,19 +3650,19 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3500,19 +3670,19 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3520,19 +3690,16 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3540,19 +3707,16 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3560,19 +3724,19 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3583,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>141</v>
@@ -3594,15 +3758,6 @@
       <c r="F51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -3612,13 +3767,16 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3628,14 +3786,17 @@
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>15</v>
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3646,13 +3807,16 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3663,13 +3827,16 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3679,17 +3846,20 @@
       <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>49</v>
+      <c r="C56" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>154</v>
+      <c r="H56" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3699,11 +3869,11 @@
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>49</v>
+      <c r="C57" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>155</v>
@@ -3719,8 +3889,8 @@
       <c r="B58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>157</v>
@@ -3731,6 +3901,15 @@
       <c r="F58" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -3740,16 +3919,13 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3759,17 +3935,14 @@
       <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,16 +3953,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3800,16 +3970,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3819,17 +3986,17 @@
       <c r="B63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>160</v>
+      <c r="C63" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3839,14 +4006,17 @@
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>160</v>
+      <c r="C64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3856,14 +4026,17 @@
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>160</v>
+      <c r="C65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3873,14 +4046,17 @@
       <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>160</v>
+      <c r="C66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3891,13 +4067,16 @@
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3908,7 +4087,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>183</v>
@@ -3925,7 +4107,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>185</v>
@@ -3942,13 +4127,16 @@
         <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3959,13 +4147,16 @@
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3976,13 +4167,16 @@
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3993,13 +4187,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4010,10 +4204,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>197</v>
@@ -4021,9 +4212,6 @@
       <c r="F74" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H74" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
@@ -4033,22 +4221,13 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4059,16 +4238,13 @@
         <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4079,16 +4255,13 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4099,16 +4272,13 @@
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4119,16 +4289,13 @@
         <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4138,17 +4305,14 @@
       <c r="B80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>210</v>
+      <c r="C80" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4158,17 +4322,14 @@
       <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4179,16 +4340,13 @@
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4199,19 +4357,19 @@
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4222,13 +4380,22 @@
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4239,13 +4406,16 @@
         <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4256,13 +4426,16 @@
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,13 +4446,16 @@
         <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4290,13 +4466,16 @@
         <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4306,14 +4485,17 @@
       <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>221</v>
+      <c r="C89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4323,14 +4505,17 @@
       <c r="B90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>233</v>
+      <c r="C90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4341,13 +4526,16 @@
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4358,7 +4546,10 @@
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>237</v>
@@ -4375,13 +4566,16 @@
         <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4392,16 +4586,16 @@
         <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4412,16 +4606,16 @@
         <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4432,16 +4626,22 @@
         <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4452,16 +4652,13 @@
         <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4472,16 +4669,13 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4492,16 +4686,13 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4512,16 +4703,13 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4529,13 +4717,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>257</v>
@@ -4549,13 +4734,10 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>259</v>
@@ -4569,15 +4751,12 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>261</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4589,19 +4768,16 @@
         <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4609,16 +4785,16 @@
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4626,16 +4802,16 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4643,10 +4819,13 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>270</v>
@@ -4660,16 +4839,19 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4677,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4697,16 +4879,19 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4714,22 +4899,19 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H111" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I111" s="1" t="n">
-        <v>8</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4737,19 +4919,19 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4757,19 +4939,19 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4777,19 +4959,19 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4797,19 +4979,19 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4817,19 +4999,19 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4837,16 +5019,19 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>289</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4854,19 +5039,19 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4874,19 +5059,19 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4894,16 +5079,19 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>307</v>
+        <v>289</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4911,19 +5099,19 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4931,19 +5119,16 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4951,16 +5136,19 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4968,16 +5156,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4985,19 +5173,22 @@
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5005,16 +5196,19 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>15</v>
+        <v>313</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5022,19 +5216,19 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5042,19 +5236,19 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5062,19 +5256,19 @@
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5082,19 +5276,19 @@
         <v>9</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5102,19 +5296,16 @@
         <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5122,19 +5313,19 @@
         <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5142,19 +5333,19 @@
         <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5162,19 +5353,16 @@
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5182,19 +5370,19 @@
         <v>9</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5202,19 +5390,19 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="F136" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5222,2244 +5410,2254 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>347</v>
+        <v>25</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H138" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I138" s="1" t="n">
-        <v>8</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H139" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I139" s="1" t="n">
-        <v>10</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>15</v>
+        <v>361</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>15</v>
+        <v>361</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>387</v>
+        <v>67</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>388</v>
+        <v>361</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>63</v>
+        <v>182</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H166" s="1" t="n">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>63</v>
+        <v>418</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>63</v>
+        <v>422</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>63</v>
+        <v>425</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>63</v>
+        <v>429</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>430</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>434</v>
+        <v>67</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="XFD176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>446</v>
+        <v>67</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>450</v>
+        <v>67</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>450</v>
+        <v>67</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F180" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>457</v>
+        <v>67</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>457</v>
+        <v>67</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>463</v>
+        <v>67</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>469</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="F194" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H202" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" s="1" t="n">
-        <v>6</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>519</v>
+      <c r="F207" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>15</v>
+        <v>506</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>12</v>
+        <v>518</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>15</v>
+        <v>536</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>15</v>
+        <v>536</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>550</v>
+        <v>543</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="H220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>12</v>
+        <v>472</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="F222" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>15</v>
+        <v>551</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>15</v>
+        <v>551</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>548</v>
+        <v>387</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>566</v>
+        <v>269</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>570</v>
+        <v>269</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>572</v>
+        <v>192</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>574</v>
+        <v>269</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>41</v>
+        <v>192</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>574</v>
+        <v>269</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>15</v>
+        <v>563</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>579</v>
+        <v>269</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>15</v>
+        <v>566</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="F231" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>80</v>
+        <v>574</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>598</v>
+        <v>17</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>279</v>
+        <v>574</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>606</v>
+        <v>12</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>610</v>
+      <c r="E239" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>616</v>
+        <v>17</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>621</v>
+        <v>12</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>12</v>
+        <v>620</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>12</v>
+        <v>630</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>12</v>
+        <v>635</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>645</v>
+        <v>17</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>644</v>
+        <v>307</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>644</v>
+        <v>12</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>647</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F259" s="1" t="s">
+      <c r="D260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E260" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F260" s="1" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>659</v>
@@ -7468,18 +7666,15 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>661</v>
@@ -7488,238 +7683,220 @@
         <v>662</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D263" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F263" s="1" t="s">
+    </row>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E264" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="F264" s="1" t="s">
+    </row>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E265" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F265" s="1" t="s">
+    </row>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E266" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F266" s="1" t="s">
+    </row>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D267" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E267" s="1" t="s">
+    </row>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E268" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F268" s="1" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E269" s="1" t="s">
+      <c r="F269" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F269" s="1" t="s">
+    </row>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E270" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F270" s="1" t="s">
+    </row>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E271" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F271" s="1" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="F272" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E272" s="1" t="s">
+    </row>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F272" s="1" t="s">
+      <c r="F273" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E273" s="1" t="s">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F273" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>688</v>
@@ -7728,58 +7905,58 @@
         <v>689</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>683</v>
+        <v>9</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>424</v>
+        <v>690</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>690</v>
+        <v>9</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>690</v>
+        <v>9</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>693</v>
@@ -7788,776 +7965,1273 @@
         <v>694</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="F278" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F278" s="1" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C279" s="1" t="s">
+      <c r="F279" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D279" s="1" t="s">
+    </row>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="F280" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F279" s="1" t="s">
+    </row>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D280" s="1" t="s">
+      <c r="F281" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E280" s="1" t="s">
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F280" s="1" t="s">
+      <c r="F282" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E281" s="1" t="s">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F281" s="1" t="s">
+      <c r="F283" s="1" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="F284" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>574</v>
+        <v>686</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>15</v>
+        <v>709</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="F289" s="1" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>15</v>
+        <v>686</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>15</v>
+        <v>718</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>15</v>
+        <v>718</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>614</v>
+        <v>686</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>614</v>
+        <v>686</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>752</v>
+        <v>658</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>753</v>
+        <v>686</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>754</v>
+        <v>461</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>756</v>
+        <v>462</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>758</v>
+        <v>686</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>15</v>
+        <v>686</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>15</v>
+        <v>741</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E301" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H301" s="1" t="n">
+      <c r="E307" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H325" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I301" s="1" t="n">
+      <c r="I325" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
+    <row r="326" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>824</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I303"/>
+  <autoFilter ref="A1:I327"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://plantnet.org/en/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.inaturalist.org/"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://www.sci.muni.cz/botany/juice/?idm%3D10"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://explorer.xper3.fr/accueil/"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
-    <hyperlink ref="E10" r:id="rId7" display="http://www.lenaturaliste.net/portail/index.php"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://www.recolnat.org/fr/"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://scientartistmdano.wordpress.com/"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://u-g-o.jimdofree.com/"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://www.zoom-nature.fr/"/>
-    <hyperlink ref="E16" r:id="rId13" display="https://www.idigbio.org/"/>
-    <hyperlink ref="E17" r:id="rId14" display="https://www.iucnredlist.org/fr/"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
-    <hyperlink ref="E19" r:id="rId16" display="https://www.gbif.org/"/>
-    <hyperlink ref="E20" r:id="rId17" display="https://data.oreme.org/"/>
-    <hyperlink ref="E21" r:id="rId18" display="https://zenodo.org/record/7534792"/>
-    <hyperlink ref="E22" r:id="rId19" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
-    <hyperlink ref="E23" r:id="rId20" display="https://asfra.fr/"/>
-    <hyperlink ref="E24" r:id="rId21" display="https://arachno.piwigo.com/index.php?/categories"/>
-    <hyperlink ref="E25" r:id="rId22" display="https://www.quelestcetanimal.com/"/>
-    <hyperlink ref="E26" r:id="rId23" display="http://coronella.free.fr/"/>
-    <hyperlink ref="E27" r:id="rId24" display="http://aramel.free.fr/"/>
-    <hyperlink ref="E29" r:id="rId25" display="https://www.insectes-net.fr/index.htm"/>
-    <hyperlink ref="E30" r:id="rId26" display="https://mondedesminuscules.fr/"/>
-    <hyperlink ref="E31" r:id="rId27" display="https://outils.gretia.org/"/>
-    <hyperlink ref="E32" r:id="rId28" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
-    <hyperlink ref="E33" r:id="rId29" display="https://www.myrmecofourmis.fr/"/>
-    <hyperlink ref="E34" r:id="rId30" display="https://ascete.org/"/>
-    <hyperlink ref="E35" r:id="rId31" display="https://conchology.be/?t=1"/>
-    <hyperlink ref="E36" r:id="rId32" display="https://www.oiseaux.net/"/>
-    <hyperlink ref="E37" r:id="rId33" display="http://www.ornitho.fr/"/>
-    <hyperlink ref="E38" r:id="rId34" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
-    <hyperlink ref="E39" r:id="rId35" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
-    <hyperlink ref="E40" r:id="rId36" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
-    <hyperlink ref="E41" r:id="rId37" display="http://fotooizo.free.fr/jeu3.php"/>
-    <hyperlink ref="E42" r:id="rId38" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
-    <hyperlink ref="E43" r:id="rId39" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
-    <hyperlink ref="E44" r:id="rId40" display="https://www.deepfaune.cnrs.fr/"/>
-    <hyperlink ref="E46" r:id="rId41" display="https://xeno-canto.org/"/>
-    <hyperlink ref="E47" r:id="rId42" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
-    <hyperlink ref="E48" r:id="rId43" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
-    <hyperlink ref="E49" r:id="rId44" display="https://euroveg.org/eva-database/databases"/>
-    <hyperlink ref="E50" r:id="rId45" display="https://floraveg.eu/download/"/>
-    <hyperlink ref="E51" r:id="rId46" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="E52" r:id="rId47" display="https://www.florealpes.com/"/>
-    <hyperlink ref="E53" r:id="rId48" display="https://www.preservons-la-nature.fr/"/>
-    <hyperlink ref="E54" r:id="rId49" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
-    <hyperlink ref="E55" r:id="rId50" display="https://www.tela-botanica.org/"/>
-    <hyperlink ref="E56" r:id="rId51" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E57" r:id="rId52" display="https://powo.science.kew.org/"/>
-    <hyperlink ref="E58" r:id="rId53" display="https://www.mobot.org/MOBOT/Research/APweb/welcome.html"/>
-    <hyperlink ref="E59" r:id="rId54" display="https://www.quantitative-plant.org/"/>
-    <hyperlink ref="E60" r:id="rId55" display="https://plants.jstor.org/"/>
-    <hyperlink ref="E61" r:id="rId56" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
-    <hyperlink ref="E62" r:id="rId57" display="https://biologievegetale.be/"/>
-    <hyperlink ref="E63" r:id="rId58" display="https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys"/>
-    <hyperlink ref="E64" r:id="rId59" display="https://my.plantnet.org/usage"/>
-    <hyperlink ref="E65" r:id="rId60" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
-    <hyperlink ref="E66" r:id="rId61" display="http://flore-en-ligne.fr/"/>
-    <hyperlink ref="E67" r:id="rId62" display="http://floristic.org/"/>
-    <hyperlink ref="E68" r:id="rId63" display="https://tools.bgci.org/global_tree_search.php"/>
-    <hyperlink ref="E70" r:id="rId64" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
-    <hyperlink ref="E71" r:id="rId65" display="https://identify.plantnet.org/fr/reunion/identify"/>
-    <hyperlink ref="E72" r:id="rId66" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E73" r:id="rId67" display="http://theplantgame.com/login/?next=/"/>
-    <hyperlink ref="E74" r:id="rId68" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
-    <hyperlink ref="E75" r:id="rId69" display="https://orchidees-france.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E76" r:id="rId70" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
-    <hyperlink ref="E77" r:id="rId71" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
-    <hyperlink ref="E78" r:id="rId72" display="http://www.orchidsofbritainandeurope.co.uk/"/>
-    <hyperlink ref="E79" r:id="rId73" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
-    <hyperlink ref="E80" r:id="rId74" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
-    <hyperlink ref="E81" r:id="rId75" display="https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm"/>
-    <hyperlink ref="E82" r:id="rId76" display="https://botarela.fr/"/>
-    <hyperlink ref="E83" r:id="rId77" display="http://www.photoflora.fr/index.php"/>
-    <hyperlink ref="E84" r:id="rId78" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
-    <hyperlink ref="E86" r:id="rId79" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
-    <hyperlink ref="E87" r:id="rId80" display="https://www.plantes-botanique.org/"/>
-    <hyperlink ref="E89" r:id="rId81" display="https://quelle-est-cette-fleur.com/"/>
-    <hyperlink ref="E90" r:id="rId82" display="https://www.quelleestcetteplante.fr/"/>
-    <hyperlink ref="E92" r:id="rId83" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
-    <hyperlink ref="E93" r:id="rId84" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
-    <hyperlink ref="E94" r:id="rId85" display="https://www.ipni.org/"/>
-    <hyperlink ref="E95" r:id="rId86" display="http://www.theplantlist.org/"/>
-    <hyperlink ref="E96" r:id="rId87" display="http://www.worldfloraonline.org/"/>
-    <hyperlink ref="E97" r:id="rId88" display="https://floranet.pagesperso-orange.fr/"/>
-    <hyperlink ref="E98" r:id="rId89" display="https://pfaf.org/user/Default.aspx"/>
-    <hyperlink ref="E99" r:id="rId90" display="https://uses.plantnet-project.org/fr/Accueil"/>
-    <hyperlink ref="E100" r:id="rId91" display="http://www.wikiphyto.org/wiki/Accueil"/>
-    <hyperlink ref="E101" r:id="rId92" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
-    <hyperlink ref="E102" r:id="rId93" display="https://champis.net/home"/>
-    <hyperlink ref="E103" r:id="rId94" display="https://www.mycodb.fr/searchfam.php"/>
-    <hyperlink ref="E104" r:id="rId95" display="https://www.afl-lichenologie.fr/"/>
-    <hyperlink ref="E105" r:id="rId96" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
-    <hyperlink ref="E106" r:id="rId97" display="https://www.tela-botanica.org/projets/lichens-go/"/>
-    <hyperlink ref="E107" r:id="rId98" display="http://lichengo.identificationkey.org/mkey.html"/>
-    <hyperlink ref="E108" r:id="rId99" display="http://cahiers-techniques.espaces-naturels.fr/"/>
-    <hyperlink ref="E109" r:id="rId100" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
-    <hyperlink ref="E110" r:id="rId101" display="https://inpn.mnhn.fr/programme/carhab"/>
-    <hyperlink ref="E111" r:id="rId102" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
-    <hyperlink ref="E112" r:id="rId103" display="http://cfb.unh.edu/"/>
-    <hyperlink ref="E113" r:id="rId104" display="https://www.freshwaterecology.info/"/>
-    <hyperlink ref="E114" r:id="rId105" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
-    <hyperlink ref="E115" r:id="rId106" display="https://inventaire-forestier.ign.fr/"/>
-    <hyperlink ref="E116" r:id="rId107" display="https://www.foret-mediterraneenne.org/fr/"/>
-    <hyperlink ref="E117" r:id="rId108" display="http://habitats-naturels.info/"/>
-    <hyperlink ref="E119" r:id="rId109" display="https://www.marinespecies.org/photogallery.php"/>
-    <hyperlink ref="E120" r:id="rId110" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
-    <hyperlink ref="E121" r:id="rId111" display="https://vegfrance.univ-rennes1.fr/"/>
-    <hyperlink ref="E122" r:id="rId112" display="http://florass.zoom-ecologue.com/index.php"/>
-    <hyperlink ref="E123" r:id="rId113" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
-    <hyperlink ref="E124" r:id="rId114" display="http://guy-bouxin.e-monsite.com/"/>
-    <hyperlink ref="E125" r:id="rId115" display="https://www.nobanis.org/"/>
-    <hyperlink ref="E127" r:id="rId116" display="https://www.biodiversitylibrary.org/"/>
-    <hyperlink ref="E128" r:id="rId117" display="https://www.catalogueoflife.org/"/>
-    <hyperlink ref="E129" r:id="rId118" display="https://eol.org/"/>
-    <hyperlink ref="E130" r:id="rId119" display="https://naturalhistory.si.edu/research/eol"/>
-    <hyperlink ref="E131" r:id="rId120" display="http://lesherbonautes.mnhn.fr/"/>
-    <hyperlink ref="E132" r:id="rId121" display="http://www.particitae.upmc.fr/fr/index.html"/>
-    <hyperlink ref="E133" r:id="rId122" display="https://www.vigienature.fr/"/>
-    <hyperlink ref="E134" r:id="rId123" display="https://www.oiseauxdesjardins.fr/"/>
-    <hyperlink ref="E135" r:id="rId124" display="https://sapoll.eu/"/>
-    <hyperlink ref="E136" r:id="rId125" display="https://www.spipoll.org/"/>
-    <hyperlink ref="E137" r:id="rId126" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
-    <hyperlink ref="E138" r:id="rId127" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
-    <hyperlink ref="E139" r:id="rId128" display="http://sig.reseau-zones-humides.org/"/>
-    <hyperlink ref="E140" r:id="rId129" display="https://openbiodiv.net/"/>
-    <hyperlink ref="E141" r:id="rId130" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
-    <hyperlink ref="E142" r:id="rId131" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
-    <hyperlink ref="E143" r:id="rId132" display="https://explore.openaire.eu/"/>
-    <hyperlink ref="E144" r:id="rId133" display="https://zenodo.org"/>
-    <hyperlink ref="E145" r:id="rId134" display="https://plazi.org/blr/"/>
-    <hyperlink ref="E146" r:id="rId135" display="https://www.zotero.org/styles"/>
-    <hyperlink ref="E147" r:id="rId136" display="https://annotator.pensoft.net/"/>
-    <hyperlink ref="E148" r:id="rId137" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
-    <hyperlink ref="E150" r:id="rId138" display="https://www.eu-nomen.eu/portal/index.php"/>
-    <hyperlink ref="E151" r:id="rId139" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
-    <hyperlink ref="E152" r:id="rId140" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
-    <hyperlink ref="E154" r:id="rId141" display="https://www.3liz.com/lizmap.html"/>
-    <hyperlink ref="E155" r:id="rId142" display="https://geodacenter.github.io/"/>
-    <hyperlink ref="E156" r:id="rId143" display="https://geonature.fr/"/>
-    <hyperlink ref="E157" r:id="rId144" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
-    <hyperlink ref="E158" r:id="rId145" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
-    <hyperlink ref="E159" r:id="rId146" display="https://blog.dogeo.fr/"/>
-    <hyperlink ref="E160" r:id="rId147" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
-    <hyperlink ref="E161" r:id="rId148" display="https://www.eaufrance.fr/"/>
-    <hyperlink ref="E162" r:id="rId149" display="https://geo.data.gouv.fr/fr/"/>
-    <hyperlink ref="E163" r:id="rId150" display="https://www.geofoncier.fr/"/>
-    <hyperlink ref="E164" r:id="rId151" display="https://geoservices.ign.fr/services-web"/>
-    <hyperlink ref="E165" r:id="rId152" display="https://static.geotribu.fr/"/>
-    <hyperlink ref="E166" r:id="rId153" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
-    <hyperlink ref="E167" r:id="rId154" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
-    <hyperlink ref="E168" r:id="rId155" display="http://peigeo.re/"/>
-    <hyperlink ref="E169" r:id="rId156" display="https://peps.cnes.fr"/>
-    <hyperlink ref="E170" r:id="rId157" display="http://www.risquesnaturels.re/"/>
-    <hyperlink ref="E171" r:id="rId158" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
-    <hyperlink ref="E172" r:id="rId159" display="https://qfield.org/"/>
-    <hyperlink ref="E175" r:id="rId160" display="http://www.qgistutorials.com/fr/index.html"/>
-    <hyperlink ref="E176" r:id="rId161" display="http://www.multibao.org/"/>
-    <hyperlink ref="E177" r:id="rId162" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
-    <hyperlink ref="E178" r:id="rId163" display="https://www.emploi-territorial.fr/"/>
-    <hyperlink ref="E180" r:id="rId164" display="https://leplantoscope.fr/"/>
-    <hyperlink ref="E182" r:id="rId165" display="https://www.conservation-nature.fr/"/>
-    <hyperlink ref="E183" r:id="rId166" display="https://rcarto.github.io/carto_avec_r/"/>
-    <hyperlink ref="E185" r:id="rId167" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
-    <hyperlink ref="E186" r:id="rId168" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
-    <hyperlink ref="E189" r:id="rId169" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
-    <hyperlink ref="E190" r:id="rId170" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
-    <hyperlink ref="E192" r:id="rId171" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
-    <hyperlink ref="E194" r:id="rId172" display="https://ardata-fr.github.io/flextable-book/"/>
-    <hyperlink ref="E195" r:id="rId173" display="https://davidgohel.github.io/flextable/reference/index.html"/>
-    <hyperlink ref="E196" r:id="rId174" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
-    <hyperlink ref="E198" r:id="rId175" display="https://www.tablesgenerator.com/markdown_tables"/>
-    <hyperlink ref="E199" r:id="rId176" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
-    <hyperlink ref="E200" r:id="rId177" display="https://shiny.rstudio.com/tutorial/"/>
-    <hyperlink ref="E201" r:id="rId178" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
-    <hyperlink ref="E202" r:id="rId179" display="https://www.tidymodels.org/learn/"/>
-    <hyperlink ref="E203" r:id="rId180" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
-    <hyperlink ref="E204" r:id="rId181" display="https://stt4230.rbind.io/"/>
-    <hyperlink ref="E205" r:id="rId182" display="https://chat.openai.com/"/>
-    <hyperlink ref="E206" r:id="rId183" display="https://you.com/"/>
-    <hyperlink ref="E207" r:id="rId184" display="https://www.futurepedia.io/"/>
-    <hyperlink ref="E208" r:id="rId185" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
-    <hyperlink ref="E209" r:id="rId186" display="https://idao.cirad.fr/"/>
-    <hyperlink ref="E211" r:id="rId187" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
-    <hyperlink ref="E212" r:id="rId188" display="https://www.xper3.fr/?language=fr"/>
-    <hyperlink ref="E213" r:id="rId189" display="http://www.biodiville.org/"/>
-    <hyperlink ref="E214" r:id="rId190" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
-    <hyperlink ref="E215" r:id="rId191" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
-    <hyperlink ref="E216" r:id="rId192" display="https://www.youtube.com/@augustinsoulard"/>
-    <hyperlink ref="E217" r:id="rId193" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
-    <hyperlink ref="E218" r:id="rId194" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
-    <hyperlink ref="E219" r:id="rId195" display="https://www.youtube.com/user/EditionsSalamandre"/>
-    <hyperlink ref="E220" r:id="rId196" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
-    <hyperlink ref="E221" r:id="rId197" display="https://www.herbierimages.be/"/>
-    <hyperlink ref="E222" r:id="rId198" display="https://www.floramaroccana.fr/presentation.html"/>
-    <hyperlink ref="E223" r:id="rId199" display="https://www.artsdatabanken.no/"/>
-    <hyperlink ref="E224" r:id="rId200" display="https://artfakta.se/artinformation?lang=sv"/>
-    <hyperlink ref="E225" r:id="rId201" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
-    <hyperlink ref="E226" r:id="rId202" display="https://www.biolib.cz/en/main/"/>
-    <hyperlink ref="E227" r:id="rId203" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
-    <hyperlink ref="E228" r:id="rId204" display="https://www.faune-bretagne.org/"/>
-    <hyperlink ref="E229" r:id="rId205" display="https://www.bretagne-vivante.org/"/>
-    <hyperlink ref="E230" r:id="rId206" display="https://fne-centrevaldeloire.org/"/>
-    <hyperlink ref="E231" r:id="rId207" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
-    <hyperlink ref="E232" r:id="rId208" display="https://eee.drealnpdc.fr/"/>
-    <hyperlink ref="E233" r:id="rId209" display="https://cettia.fr/"/>
-    <hyperlink ref="E235" r:id="rId210" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
-    <hyperlink ref="E236" r:id="rId211" display="https://www.sauvagesdupoitou.com/"/>
-    <hyperlink ref="E237" r:id="rId212" display="http://www.foret-aquitaine.com/som.htm"/>
-    <hyperlink ref="E238" r:id="rId213" display="http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/"/>
-    <hyperlink ref="E239" r:id="rId214" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
-    <hyperlink ref="E240" r:id="rId215" display="http://www.afleurdepau.com/"/>
-    <hyperlink ref="E241" r:id="rId216" display="https://www.atlasflore04.org/"/>
-    <hyperlink ref="E242" r:id="rId217" display="https://data.regionreunion.com/pages/accueil/"/>
-    <hyperlink ref="E243" r:id="rId218" display="https://biotopeoi.shinyapps.io/statfore/"/>
-    <hyperlink ref="E244" r:id="rId219" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
-    <hyperlink ref="E245" r:id="rId220" display="http://insectarium-reunion.fr/"/>
-    <hyperlink ref="E247" r:id="rId221" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
-    <hyperlink ref="E248" r:id="rId222" display="http://orchidees.vandes.com/"/>
-    <hyperlink ref="E252" r:id="rId223" display="https://zinvaziv.re/"/>
-    <hyperlink ref="E254" r:id="rId224" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
-    <hyperlink ref="E255" r:id="rId225" display="https://www.borbonica.re/"/>
-    <hyperlink ref="E256" r:id="rId226" display="http://www.coralsoftheworld.org/page/home/"/>
-    <hyperlink ref="E257" r:id="rId227" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
-    <hyperlink ref="E258" r:id="rId228" display="https://www.fishbase.se/search.php"/>
-    <hyperlink ref="E259" r:id="rId229" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
-    <hyperlink ref="E260" r:id="rId230" display="https://datamermaid.org/"/>
-    <hyperlink ref="E261" r:id="rId231" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
-    <hyperlink ref="E262" r:id="rId232" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
-    <hyperlink ref="E263" r:id="rId233" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
-    <hyperlink ref="E264" r:id="rId234" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
-    <hyperlink ref="E265" r:id="rId235" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
-    <hyperlink ref="E266" r:id="rId236" display="https://www.windy.com/?-21.100,55.600,5"/>
-    <hyperlink ref="E267" r:id="rId237" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
-    <hyperlink ref="E268" r:id="rId238" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
-    <hyperlink ref="E269" r:id="rId239" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
-    <hyperlink ref="E270" r:id="rId240" display="https://sextant.ifremer.fr/ocean-indien"/>
-    <hyperlink ref="E271" r:id="rId241" display="https://wwz.ifremer.fr/surval/"/>
-    <hyperlink ref="E272" r:id="rId242" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
-    <hyperlink ref="E273" r:id="rId243" display="https://portal.emodnet-bathymetry.eu/"/>
-    <hyperlink ref="E274" r:id="rId244" display="https://www.marineregions.org/"/>
-    <hyperlink ref="E275" r:id="rId245" display="http://peigeo.re/"/>
-    <hyperlink ref="E276" r:id="rId246" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
-    <hyperlink ref="E277" r:id="rId247" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
-    <hyperlink ref="E279" r:id="rId248" display="https://natureoceanindien.org/"/>
-    <hyperlink ref="E280" r:id="rId249" display="https://www.reunion.developpement-durable.gouv.fr/"/>
-    <hyperlink ref="E281" r:id="rId250" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
-    <hyperlink ref="E282" r:id="rId251" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
-    <hyperlink ref="E284" r:id="rId252" display="https://www.georisques.gouv.fr/"/>
-    <hyperlink ref="E285" r:id="rId253" display="https://www.frane-auvergne-environnement.fr/index.php"/>
-    <hyperlink ref="E286" r:id="rId254" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
-    <hyperlink ref="E287" r:id="rId255" display="https://somosorleans.org/"/>
-    <hyperlink ref="E288" r:id="rId256" display="https://www.aspas-nature.org/"/>
-    <hyperlink ref="E289" r:id="rId257" display="https://faunedefrance.org/"/>
-    <hyperlink ref="E290" r:id="rId258" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
-    <hyperlink ref="E291" r:id="rId259" display="https://carabes.fr/"/>
-    <hyperlink ref="E292" r:id="rId260" display="https://www.natureo.org/"/>
-    <hyperlink ref="E293" r:id="rId261" display="https://sbocc.fr/calendrier/"/>
-    <hyperlink ref="E294" r:id="rId262" display="https://www.linneenne-provence.org/"/>
-    <hyperlink ref="E295" r:id="rId263" display="https://cen-paca.org/participer/agenda/"/>
-    <hyperlink ref="E296" r:id="rId264" display="https://www.faune-paca.org/index.php?m_id=20006"/>
-    <hyperlink ref="E298" r:id="rId265" display="https://portail-documentaire.cbnmc.fr/"/>
-    <hyperlink ref="E299" r:id="rId266" display="https://www.cbn-alpin.fr/"/>
-    <hyperlink ref="E300" r:id="rId267" display="https://www.cbnbl.org/digitale2"/>
-    <hyperlink ref="E301" r:id="rId268" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
-    <hyperlink ref="E302" r:id="rId269" display="https://www.alarencontredelalande.fr/"/>
-    <hyperlink ref="E303" r:id="rId270" display="https://tourduvalat.centredoc.fr/"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://github.com/augustinsoulard/KIT_BOTA_QFIELD"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://plantnet.org/en/"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.inaturalist.org/"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://cardobs.mnhn.fr/cardObs/auth/login"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://www.sci.muni.cz/botany/juice/?idm%3D10"/>
+    <hyperlink ref="E8" r:id="rId6" display="http://explorer.xper3.fr/accueil/"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://depot-legal-biodiversite.naturefrance.fr/"/>
+    <hyperlink ref="E11" r:id="rId8" display="http://www.lenaturaliste.net/portail/index.php"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://www.recolnat.org/fr/"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://scientartistmdano.wordpress.com/"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://u-g-o.jimdofree.com/"/>
+    <hyperlink ref="E16" r:id="rId13" display="https://www.zoom-nature.fr/"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.idigbio.org/"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://data.nhm.ac.uk/"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://www.iucnredlist.org/fr/"/>
+    <hyperlink ref="E20" r:id="rId17" display="https://www.iucnredlist.org/fr/resources/spatial-data-download"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://www.gbif.org/"/>
+    <hyperlink ref="E22" r:id="rId19" display="https://data.oreme.org/"/>
+    <hyperlink ref="E23" r:id="rId20" display="https://zenodo.org/record/7534792"/>
+    <hyperlink ref="E24" r:id="rId21" display="https://ecobiosoil.univ-rennes1.fr/cle-de-determination/"/>
+    <hyperlink ref="E25" r:id="rId22" display="https://asfra.fr/"/>
+    <hyperlink ref="E26" r:id="rId23" display="https://arachno.piwigo.com/index.php?/categories"/>
+    <hyperlink ref="E27" r:id="rId24" display="https://www.quelestcetanimal.com/"/>
+    <hyperlink ref="E28" r:id="rId25" display="http://coronella.free.fr/"/>
+    <hyperlink ref="E29" r:id="rId26" display="https://www.kerbtier.de/"/>
+    <hyperlink ref="E30" r:id="rId27" display="http://aramel.free.fr/"/>
+    <hyperlink ref="E32" r:id="rId28" display="https://www.insectes-net.fr/index.htm"/>
+    <hyperlink ref="E33" r:id="rId29" display="https://sites.google.com/view/mikes-insect-keys"/>
+    <hyperlink ref="E34" r:id="rId30" display="https://mondedesminuscules.fr/"/>
+    <hyperlink ref="E35" r:id="rId31" display="https://outils.gretia.org/"/>
+    <hyperlink ref="E36" r:id="rId32" display="https://www.animateur-nature.com/guide-invertebres/les-larves.php"/>
+    <hyperlink ref="E37" r:id="rId33" display="https://www.myrmecofourmis.fr/"/>
+    <hyperlink ref="E38" r:id="rId34" display="https://ascete.org/"/>
+    <hyperlink ref="E39" r:id="rId35" display="https://conchology.be/?t=1"/>
+    <hyperlink ref="E40" r:id="rId36" display="https://www.oiseaux.net/"/>
+    <hyperlink ref="E41" r:id="rId37" display="http://www.ornitho.fr/"/>
+    <hyperlink ref="E42" r:id="rId38" display="https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard"/>
+    <hyperlink ref="E43" r:id="rId39" display="https://alsace.lpo.fr/Jeux/Comptage/Comptage.php"/>
+    <hyperlink ref="E44" r:id="rId40" display="https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID="/>
+    <hyperlink ref="E45" r:id="rId41" display="http://fotooizo.free.fr/jeu3.php"/>
+    <hyperlink ref="E46" r:id="rId42" display="https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590"/>
+    <hyperlink ref="E47" r:id="rId43" display="https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu"/>
+    <hyperlink ref="E48" r:id="rId44" display="https://www.deepfaune.cnrs.fr/"/>
+    <hyperlink ref="E50" r:id="rId45" display="https://xeno-canto.org/"/>
+    <hyperlink ref="E51" r:id="rId46" display="https://discovery.dundee.ac.uk/en/datasets/edible-plant-database"/>
+    <hyperlink ref="E52" r:id="rId47" display="https://garrigue-gourmande.fr/index.php?option=com_content&amp;view=featured&amp;Itemid=99"/>
+    <hyperlink ref="E53" r:id="rId48" location=":~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20médicinaux,anglais%2C%20la%20base%20de%20données%20de%20la%20FDA" display="https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA."/>
+    <hyperlink ref="E54" r:id="rId49" display="https://euroveg.org/eva-database/databases"/>
+    <hyperlink ref="E55" r:id="rId50" display="https://floraveg.eu/download/"/>
+    <hyperlink ref="E56" r:id="rId51" display="https://siflore.fcbn.fr/?cd_ref=&amp;r=metro"/>
+    <hyperlink ref="E57" r:id="rId52" display="https://referentiels.tela-botanica.org/referentiel/index.php?module=Accueil"/>
+    <hyperlink ref="E58" r:id="rId53" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="E59" r:id="rId54" display="https://www.florealpes.com/"/>
+    <hyperlink ref="E60" r:id="rId55" display="https://www.preservons-la-nature.fr/"/>
+    <hyperlink ref="E61" r:id="rId56" display="http://sysbio.univ-lille1.fr/fiches/plantae"/>
+    <hyperlink ref="E62" r:id="rId57" display="https://www.tela-botanica.org/"/>
+    <hyperlink ref="E63" r:id="rId58" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E64" r:id="rId59" display="https://powo.science.kew.org/"/>
+    <hyperlink ref="E65" r:id="rId60" display="http://www.worldfloraonline.org/"/>
+    <hyperlink ref="E66" r:id="rId61" display="https://www.mobot.org/MOBOT/Research/APweb/welcome.html"/>
+    <hyperlink ref="E67" r:id="rId62" display="https://www.quantitative-plant.org/"/>
+    <hyperlink ref="E68" r:id="rId63" display="https://plants.jstor.org/"/>
+    <hyperlink ref="E69" r:id="rId64" display="https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing"/>
+    <hyperlink ref="E70" r:id="rId65" display="https://biologievegetale.be/"/>
+    <hyperlink ref="E72" r:id="rId66" display="https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys"/>
+    <hyperlink ref="E73" r:id="rId67" display="https://my.plantnet.org/usage"/>
+    <hyperlink ref="E74" r:id="rId68" display="https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens"/>
+    <hyperlink ref="E75" r:id="rId69" display="http://flore-en-ligne.fr/"/>
+    <hyperlink ref="E76" r:id="rId70" display="http://floristic.org/"/>
+    <hyperlink ref="E77" r:id="rId71" display="https://tools.bgci.org/global_tree_search.php"/>
+    <hyperlink ref="E79" r:id="rId72" display="https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form"/>
+    <hyperlink ref="E80" r:id="rId73" display="https://identify.plantnet.org/fr/reunion/identify"/>
+    <hyperlink ref="E81" r:id="rId74" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E82" r:id="rId75" display="http://theplantgame.com/login/?next=/"/>
+    <hyperlink ref="E83" r:id="rId76" display="http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion"/>
+    <hyperlink ref="E84" r:id="rId77" display="https://orchidees-france.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E85" r:id="rId78" display="http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm"/>
+    <hyperlink ref="E86" r:id="rId79" display="https://www.elisajeanluc.fr/orchidees_nature/index.htm"/>
+    <hyperlink ref="E87" r:id="rId80" display="http://www.orchidsofbritainandeurope.co.uk/"/>
+    <hyperlink ref="E88" r:id="rId81" display="http://www.orchidee-poitou-charentes.org/spip.php?rubrique155"/>
+    <hyperlink ref="E89" r:id="rId82" display="https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html"/>
+    <hyperlink ref="E90" r:id="rId83" display="https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm"/>
+    <hyperlink ref="E91" r:id="rId84" display="https://botarela.fr/"/>
+    <hyperlink ref="E92" r:id="rId85" display="https://solanaceaesource.myspecies.info/"/>
+    <hyperlink ref="E94" r:id="rId86" display="https://www.botaplus.fr/botaflore/bonnier_mt.htm"/>
+    <hyperlink ref="E95" r:id="rId87" display="https://societebotaniquedefrance.fr/"/>
+    <hyperlink ref="E96" r:id="rId88" display="http://www.photoflora.fr/index.php"/>
+    <hyperlink ref="E97" r:id="rId89" display="https://fleurs-fruits-feuilles-de.com/galerie_photos.php"/>
+    <hyperlink ref="E99" r:id="rId90" display="https://abiris.snv.jussieu.fr/flore/herbier.php"/>
+    <hyperlink ref="E100" r:id="rId91" display="https://www.plantes-botanique.org/"/>
+    <hyperlink ref="E102" r:id="rId92" display="https://quelle-est-cette-fleur.com/"/>
+    <hyperlink ref="E103" r:id="rId93" display="https://www.quelleestcetteplante.fr/"/>
+    <hyperlink ref="E105" r:id="rId94" display="http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html"/>
+    <hyperlink ref="E106" r:id="rId95" display="http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html"/>
+    <hyperlink ref="E107" r:id="rId96" display="https://www.ipni.org/"/>
+    <hyperlink ref="E108" r:id="rId97" display="http://www.theplantlist.org/"/>
+    <hyperlink ref="E109" r:id="rId98" display="http://www.worldfloraonline.org/"/>
+    <hyperlink ref="E110" r:id="rId99" display="https://floranet.pagesperso-orange.fr/"/>
+    <hyperlink ref="E111" r:id="rId100" display="https://pfaf.org/user/Default.aspx"/>
+    <hyperlink ref="E112" r:id="rId101" display="https://uses.plantnet-project.org/fr/Accueil"/>
+    <hyperlink ref="E113" r:id="rId102" display="http://www.wikiphyto.org/wiki/Accueil"/>
+    <hyperlink ref="E114" r:id="rId103" display="https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/"/>
+    <hyperlink ref="E115" r:id="rId104" display="https://champis.net/home"/>
+    <hyperlink ref="E116" r:id="rId105" display="https://www.mycodb.fr/searchfam.php"/>
+    <hyperlink ref="E117" r:id="rId106" display="https://www.afl-lichenologie.fr/"/>
+    <hyperlink ref="E118" r:id="rId107" display="https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352"/>
+    <hyperlink ref="E119" r:id="rId108" display="https://www.tela-botanica.org/projets/lichens-go/"/>
+    <hyperlink ref="E120" r:id="rId109" display="http://lichengo.identificationkey.org/mkey.html"/>
+    <hyperlink ref="E121" r:id="rId110" display="http://www.lichenologue.org/fr/index.php"/>
+    <hyperlink ref="E122" r:id="rId111" display="http://cahiers-techniques.espaces-naturels.fr/"/>
+    <hyperlink ref="E123" r:id="rId112" display="https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf"/>
+    <hyperlink ref="E124" r:id="rId113" display="https://inpn.mnhn.fr/programme/carhab"/>
+    <hyperlink ref="E125" r:id="rId114" display="https://inpn.mnhn.fr/viewer-carto/CarHab/"/>
+    <hyperlink ref="E126" r:id="rId115" display="http://cfb.unh.edu/"/>
+    <hyperlink ref="E127" r:id="rId116" display="https://www.freshwaterecology.info/"/>
+    <hyperlink ref="E128" r:id="rId117" display="https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg"/>
+    <hyperlink ref="E129" r:id="rId118" display="https://inventaire-forestier.ign.fr/"/>
+    <hyperlink ref="E130" r:id="rId119" display="https://www.foret-mediterraneenne.org/fr/"/>
+    <hyperlink ref="E131" r:id="rId120" display="http://habitats-naturels.info/"/>
+    <hyperlink ref="E133" r:id="rId121" display="https://www.marinespecies.org/photogallery.php"/>
+    <hyperlink ref="E134" r:id="rId122" display="https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation"/>
+    <hyperlink ref="E135" r:id="rId123" display="https://vegfrance.univ-rennes1.fr/"/>
+    <hyperlink ref="E136" r:id="rId124" display="http://florass.zoom-ecologue.com/index.php"/>
+    <hyperlink ref="E137" r:id="rId125" display="https://www.e-veg.net/accueil"/>
+    <hyperlink ref="E138" r:id="rId126" display="https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique"/>
+    <hyperlink ref="E139" r:id="rId127" display="http://guy-bouxin.e-monsite.com/"/>
+    <hyperlink ref="E140" r:id="rId128" display="https://www.nobanis.org/"/>
+    <hyperlink ref="E142" r:id="rId129" display="https://www.biodiversitylibrary.org/"/>
+    <hyperlink ref="E143" r:id="rId130" display="https://www.catalogueoflife.org/"/>
+    <hyperlink ref="E144" r:id="rId131" display="https://eol.org/"/>
+    <hyperlink ref="E145" r:id="rId132" display="https://naturalhistory.si.edu/research/eol"/>
+    <hyperlink ref="E146" r:id="rId133" display="http://lesherbonautes.mnhn.fr/"/>
+    <hyperlink ref="E147" r:id="rId134" display="https://www.tela-botanica.org/mission/"/>
+    <hyperlink ref="E148" r:id="rId135" display="http://www.particitae.upmc.fr/fr/index.html"/>
+    <hyperlink ref="E149" r:id="rId136" display="https://www.vigienature.fr/"/>
+    <hyperlink ref="E150" r:id="rId137" display="https://www.oiseauxdesjardins.fr/"/>
+    <hyperlink ref="E151" r:id="rId138" display="https://sapoll.eu/"/>
+    <hyperlink ref="E152" r:id="rId139" display="https://www.spipoll.org/"/>
+    <hyperlink ref="E153" r:id="rId140" display="https://taxref.mnhn.fr/taxref-web/api/doc"/>
+    <hyperlink ref="E154" r:id="rId141" display="https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh"/>
+    <hyperlink ref="E155" r:id="rId142" display="http://sig.reseau-zones-humides.org/"/>
+    <hyperlink ref="E156" r:id="rId143" display="https://openbiodiv.net/"/>
+    <hyperlink ref="E157" r:id="rId144" display="https://www.laccreteil.fr/spip.php?rubrique2"/>
+    <hyperlink ref="E158" r:id="rId145" display="https://horizon.documentation.ird.fr/exl-php/accueil"/>
+    <hyperlink ref="E159" r:id="rId146" display="https://explore.openaire.eu/"/>
+    <hyperlink ref="E160" r:id="rId147" display="https://zenodo.org"/>
+    <hyperlink ref="E161" r:id="rId148" display="https://plazi.org/blr/"/>
+    <hyperlink ref="E162" r:id="rId149" display="https://www.zotero.org/styles"/>
+    <hyperlink ref="E163" r:id="rId150" display="https://annotator.pensoft.net/"/>
+    <hyperlink ref="E164" r:id="rId151" display="https://faunedefrance.org/bibliotheque-virtuelle-numerique/"/>
+    <hyperlink ref="E166" r:id="rId152" display="https://www.eu-nomen.eu/portal/index.php"/>
+    <hyperlink ref="E167" r:id="rId153" display="https://naturefrance.fr/indicateurs?fulltext="/>
+    <hyperlink ref="E168" r:id="rId154" display="https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721"/>
+    <hyperlink ref="E169" r:id="rId155" location="zoom=0&amp;lon=32.89298&amp;lat=20.63642" display="https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642"/>
+    <hyperlink ref="E171" r:id="rId156" display="https://www.3liz.com/lizmap.html"/>
+    <hyperlink ref="E172" r:id="rId157" display="https://geodacenter.github.io/"/>
+    <hyperlink ref="E173" r:id="rId158" display="https://geonature.fr/"/>
+    <hyperlink ref="E174" r:id="rId159" display="https://www.natura2000.fr/carte-natura-2000"/>
+    <hyperlink ref="E175" r:id="rId160" display="https://www.cadastre.gouv.fr/scpc/accueil.do"/>
+    <hyperlink ref="E176" r:id="rId161" location="presentation-de-loutil" display="https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil"/>
+    <hyperlink ref="E177" r:id="rId162" display="https://blog.dogeo.fr/"/>
+    <hyperlink ref="E178" r:id="rId163" location="/point-to-coords" display="https://app.dogeo.fr/Projection/#/point-to-coords"/>
+    <hyperlink ref="E179" r:id="rId164" display="https://www.eaufrance.fr/"/>
+    <hyperlink ref="E180" r:id="rId165" display="https://geo.data.gouv.fr/fr/"/>
+    <hyperlink ref="E181" r:id="rId166" display="https://www.geofoncier.fr/"/>
+    <hyperlink ref="E182" r:id="rId167" display="https://geoservices.ign.fr/services-web"/>
+    <hyperlink ref="E183" r:id="rId168" display="https://static.geotribu.fr/"/>
+    <hyperlink ref="E184" r:id="rId169" display="https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap"/>
+    <hyperlink ref="E185" r:id="rId170" location="/search" display="https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search"/>
+    <hyperlink ref="E186" r:id="rId171" display="http://peigeo.re/"/>
+    <hyperlink ref="E187" r:id="rId172" display="https://peps.cnes.fr"/>
+    <hyperlink ref="E188" r:id="rId173" display="http://www.risquesnaturels.re/"/>
+    <hyperlink ref="E189" r:id="rId174" location="/home" display="https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home"/>
+    <hyperlink ref="E190" r:id="rId175" display="https://qfield.org/"/>
+    <hyperlink ref="E193" r:id="rId176" display="http://www.qgistutorials.com/fr/index.html"/>
+    <hyperlink ref="E194" r:id="rId177" display="http://www.multibao.org/"/>
+    <hyperlink ref="E195" r:id="rId178" display="https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf"/>
+    <hyperlink ref="E196" r:id="rId179" display="https://www.emploi-territorial.fr/"/>
+    <hyperlink ref="E198" r:id="rId180" display="https://leplantoscope.fr/"/>
+    <hyperlink ref="E200" r:id="rId181" display="https://www.conservation-nature.fr/"/>
+    <hyperlink ref="E201" r:id="rId182" display="https://rcarto.github.io/carto_avec_r/"/>
+    <hyperlink ref="E203" r:id="rId183" display="https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html"/>
+    <hyperlink ref="E204" r:id="rId184" display="https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html"/>
+    <hyperlink ref="E207" r:id="rId185" display="https://qastack.fr/programming/3550341/gantt-charts-with-r"/>
+    <hyperlink ref="E208" r:id="rId186" display="https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/"/>
+    <hyperlink ref="E210" r:id="rId187" display="https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf"/>
+    <hyperlink ref="E212" r:id="rId188" display="https://ardata-fr.github.io/flextable-book/"/>
+    <hyperlink ref="E213" r:id="rId189" display="https://davidgohel.github.io/flextable/reference/index.html"/>
+    <hyperlink ref="E214" r:id="rId190" display="https://ardata-fr.github.io/flextable-gallery/gallery/"/>
+    <hyperlink ref="E216" r:id="rId191" display="https://www.tablesgenerator.com/markdown_tables"/>
+    <hyperlink ref="E217" r:id="rId192" display="https://github.com/aagarw30/R-Shinyapp-Tutorial"/>
+    <hyperlink ref="E218" r:id="rId193" display="https://shiny.rstudio.com/tutorial/"/>
+    <hyperlink ref="E219" r:id="rId194" location="a-quoi-s-attendre-dans-ce-guide" display="https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide"/>
+    <hyperlink ref="E220" r:id="rId195" display="https://www.tidymodels.org/learn/"/>
+    <hyperlink ref="E221" r:id="rId196" display="https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf"/>
+    <hyperlink ref="E222" r:id="rId197" display="https://stt4230.rbind.io/"/>
+    <hyperlink ref="E223" r:id="rId198" display="https://chat.openai.com/"/>
+    <hyperlink ref="E224" r:id="rId199" display="https://you.com/"/>
+    <hyperlink ref="E225" r:id="rId200" display="https://www.futurepedia.io/"/>
+    <hyperlink ref="E226" r:id="rId201" display="https://lifemap-ncbi.univ-lyon1.fr/"/>
+    <hyperlink ref="E227" r:id="rId202" display="https://idao.cirad.fr/"/>
+    <hyperlink ref="E229" r:id="rId203" display="https://taxref.mnhn.fr/taxref-match/taxrefmatch/import"/>
+    <hyperlink ref="E230" r:id="rId204" display="https://www.xper3.fr/?language=fr"/>
+    <hyperlink ref="E231" r:id="rId205" display="http://www.biodiville.org/"/>
+    <hyperlink ref="E232" r:id="rId206" display="https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html"/>
+    <hyperlink ref="E233" r:id="rId207" display="https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne"/>
+    <hyperlink ref="E234" r:id="rId208" display="https://www.youtube.com/@augustinsoulard"/>
+    <hyperlink ref="E235" r:id="rId209" display="https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ"/>
+    <hyperlink ref="E236" r:id="rId210" display="https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw"/>
+    <hyperlink ref="E237" r:id="rId211" display="https://www.youtube.com/user/EditionsSalamandre"/>
+    <hyperlink ref="E238" r:id="rId212" display="http://biodiversite.wallonie.be/fr/accueil.html?IDC=6"/>
+    <hyperlink ref="E239" r:id="rId213" display="https://www.herbierimages.be/"/>
+    <hyperlink ref="E240" r:id="rId214" display="https://www.floramaroccana.fr/presentation.html"/>
+    <hyperlink ref="E241" r:id="rId215" display="https://www.artsdatabanken.no/"/>
+    <hyperlink ref="E242" r:id="rId216" display="https://artfakta.se/artinformation?lang=sv"/>
+    <hyperlink ref="E243" r:id="rId217" display="https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse"/>
+    <hyperlink ref="E244" r:id="rId218" display="https://www.biolib.cz/en/main/"/>
+    <hyperlink ref="E245" r:id="rId219" display="https://auvergne-fleurs-insectes-araignees.blogspot.com/"/>
+    <hyperlink ref="E246" r:id="rId220" display="https://www.faune-bretagne.org/"/>
+    <hyperlink ref="E247" r:id="rId221" display="https://www.bretagne-vivante.org/"/>
+    <hyperlink ref="E248" r:id="rId222" display="https://fne-centrevaldeloire.org/"/>
+    <hyperlink ref="E249" r:id="rId223" display="http://plantes-rizieres-guyane.cirad.fr/generalites"/>
+    <hyperlink ref="E250" r:id="rId224" display="https://eee.drealnpdc.fr/"/>
+    <hyperlink ref="E251" r:id="rId225" display="https://cettia.fr/"/>
+    <hyperlink ref="E253" r:id="rId226" display="http://www.achats-responsables-mayotte.org/structure/pot-concept/"/>
+    <hyperlink ref="E254" r:id="rId227" display="https://www.sauvagesdupoitou.com/"/>
+    <hyperlink ref="E255" r:id="rId228" display="http://www.foret-aquitaine.com/som.htm"/>
+    <hyperlink ref="E256" r:id="rId229" display="http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/"/>
+    <hyperlink ref="E257" r:id="rId230" display="http://www.lafloredespyrenees.fr/pagefamille.html"/>
+    <hyperlink ref="E258" r:id="rId231" display="http://www.afleurdepau.com/"/>
+    <hyperlink ref="E259" r:id="rId232" display="https://www.atlasflore04.org/"/>
+    <hyperlink ref="E261" r:id="rId233" display="https://data.regionreunion.com/pages/accueil/"/>
+    <hyperlink ref="E262" r:id="rId234" display="https://biotopeoi.shinyapps.io/statfore/"/>
+    <hyperlink ref="E263" r:id="rId235" display="http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html"/>
+    <hyperlink ref="E264" r:id="rId236" display="https://www.mi-aime-a-ou.com/faune_ile_reunion.php"/>
+    <hyperlink ref="E265" r:id="rId237" display="http://insectarium-reunion.fr/"/>
+    <hyperlink ref="E267" r:id="rId238" display="https://www.faune-reunion.fr/index.php?m_id=1#"/>
+    <hyperlink ref="E268" r:id="rId239" display="http://orchidees.vandes.com/"/>
+    <hyperlink ref="E272" r:id="rId240" display="https://zinvaziv.re/"/>
+    <hyperlink ref="E274" r:id="rId241" display="https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy"/>
+    <hyperlink ref="E275" r:id="rId242" display="https://fr.wikipedia.org/wiki/Biodiversit%C3%A9_marine_des_lagons_de_La_R%C3%A9union"/>
+    <hyperlink ref="E276" r:id="rId243" display="https://www.borbonica.re/"/>
+    <hyperlink ref="E277" r:id="rId244" display="http://www.coralsoftheworld.org/page/home/"/>
+    <hyperlink ref="E278" r:id="rId245" display="http://coraux.univ-reunion.fr/spip.php?article35"/>
+    <hyperlink ref="E279" r:id="rId246" display="https://horizon.documentation.ird.fr/exl-doc/pleins_textes/ed-09-10/010050352.pdf"/>
+    <hyperlink ref="E280" r:id="rId247" display="https://www.fishbase.se/search.php"/>
+    <hyperlink ref="E281" r:id="rId248" display="https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1"/>
+    <hyperlink ref="E282" r:id="rId249" display="https://datamermaid.org/"/>
+    <hyperlink ref="E283" r:id="rId250" display="https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php"/>
+    <hyperlink ref="E284" r:id="rId251" display="http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014"/>
+    <hyperlink ref="E285" r:id="rId252" display="http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/"/>
+    <hyperlink ref="E286" r:id="rId253" display="https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4"/>
+    <hyperlink ref="E287" r:id="rId254" display="https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php"/>
+    <hyperlink ref="E288" r:id="rId255" display="https://www.windy.com/?-21.100,55.600,5"/>
+    <hyperlink ref="E289" r:id="rId256" display="http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte"/>
+    <hyperlink ref="E290" r:id="rId257" display="https://oceans-indien-austral.milieumarinfrance.fr/"/>
+    <hyperlink ref="E291" r:id="rId258" display="https://inpn.mnhn.fr/habitat/cd_typo/26"/>
+    <hyperlink ref="E292" r:id="rId259" display="https://sextant.ifremer.fr/ocean-indien"/>
+    <hyperlink ref="E293" r:id="rId260" display="https://wwz.ifremer.fr/surval/"/>
+    <hyperlink ref="E294" r:id="rId261" location="6.64/-21.2085/56.2301" display="https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301"/>
+    <hyperlink ref="E295" r:id="rId262" display="https://portal.emodnet-bathymetry.eu/"/>
+    <hyperlink ref="E296" r:id="rId263" display="https://www.marineregions.org/"/>
+    <hyperlink ref="E297" r:id="rId264" display="http://peigeo.re/"/>
+    <hyperlink ref="E298" r:id="rId265" display="https://www.icriforum.org/restoration/coral-restoration-database/"/>
+    <hyperlink ref="E299" r:id="rId266" display="https://prelevements-hydro.ifremer.fr/presentation.html"/>
+    <hyperlink ref="E301" r:id="rId267" display="https://natureoceanindien.org/"/>
+    <hyperlink ref="E302" r:id="rId268" display="https://www.reunion.developpement-durable.gouv.fr/"/>
+    <hyperlink ref="E303" r:id="rId269" display="https://www.vogelwarte.ch/fr/oiseaux/jeu/"/>
+    <hyperlink ref="E304" r:id="rId270" location="LEGISCTA000006108640" display="https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640"/>
+    <hyperlink ref="E306" r:id="rId271" display="https://www.georisques.gouv.fr/"/>
+    <hyperlink ref="E307" r:id="rId272" display="https://www.frane-auvergne-environnement.fr/index.php"/>
+    <hyperlink ref="E308" r:id="rId273" display="https://cerclenaturalisteetudiants.wordpress.com/"/>
+    <hyperlink ref="E309" r:id="rId274" display="https://somosorleans.org/"/>
+    <hyperlink ref="E310" r:id="rId275" display="https://afie-asso.fr/?article1"/>
+    <hyperlink ref="E311" r:id="rId276" display="https://www.aspas-nature.org/"/>
+    <hyperlink ref="E312" r:id="rId277" display="https://faunedefrance.org/"/>
+    <hyperlink ref="E313" r:id="rId278" location="/carte/@47.36,2.65,5z?cat=all" display="https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all"/>
+    <hyperlink ref="E314" r:id="rId279" display="https://carabes.fr/"/>
+    <hyperlink ref="E315" r:id="rId280" display="https://www.natureo.org/"/>
+    <hyperlink ref="E316" r:id="rId281" display="https://sbocc.fr/calendrier/"/>
+    <hyperlink ref="E317" r:id="rId282" display="https://lesnaturalistesdeletoile.com/index.php/liens-utiles-botanique/"/>
+    <hyperlink ref="E318" r:id="rId283" display="https://www.linneenne-provence.org/"/>
+    <hyperlink ref="E319" r:id="rId284" display="https://cen-paca.org/participer/agenda/"/>
+    <hyperlink ref="E320" r:id="rId285" display="https://www.faune-paca.org/index.php?m_id=20006"/>
+    <hyperlink ref="E322" r:id="rId286" display="https://portail-documentaire.cbnmc.fr/"/>
+    <hyperlink ref="E323" r:id="rId287" display="https://www.cbn-alpin.fr/"/>
+    <hyperlink ref="E324" r:id="rId288" display="https://www.cbnbl.org/digitale2"/>
+    <hyperlink ref="E325" r:id="rId289" display="https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html"/>
+    <hyperlink ref="E326" r:id="rId290" display="https://www.alarencontredelalande.fr/"/>
+    <hyperlink ref="E327" r:id="rId291" display="https://tourduvalat.centredoc.fr/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8566,6 +9240,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId271"/>
+  <drawing r:id="rId292"/>
 </worksheet>
 </file>
--- a/NATURAL-HOST/Natural-host.xlsx
+++ b/NATURAL-HOST/Natural-host.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\NATURAL-HOST\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B429DB-5B93-4695-ADD6-D0A41BD41B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$329</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,2495 +28,2507 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="825">
-  <si>
-    <t xml:space="preserve">Titre_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance_BOTANISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance_INFORALISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnees naturalistes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/augustinsoulard/KIT_BOTA_QFIELD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="830">
+  <si>
+    <t>Titre_1</t>
+  </si>
+  <si>
+    <t>Titre_2</t>
+  </si>
+  <si>
+    <t>Titre_3</t>
+  </si>
+  <si>
+    <t>Titre_4</t>
+  </si>
+  <si>
+    <t>lien</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Importance_BOTANISTE</t>
+  </si>
+  <si>
+    <t>Importance_INFORALISTE</t>
+  </si>
+  <si>
+    <t>Biodiversité</t>
+  </si>
+  <si>
+    <t>Donnees naturalistes</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Flore</t>
+  </si>
+  <si>
+    <t>https://github.com/augustinsoulard/KIT_BOTA_QFIELD</t>
   </si>
   <si>
     <t xml:space="preserve">KIT BOTA QFIELD </t>
   </si>
   <si>
-    <t xml:space="preserve">https://plantnet.org/en/</t>
+    <t>https://plantnet.org/en/</t>
   </si>
   <si>
     <t xml:space="preserve">PlantNet </t>
   </si>
   <si>
-    <t xml:space="preserve">Général</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inaturalist.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inaturalist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cardobs.mnhn.fr/cardObs/auth/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CardObs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openobs.mnhn.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenObs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytosociologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sci.muni.cz/botany/juice/?idm%3D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef d’identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://explorer.xper3.fr/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explorer Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données de clef d’identification Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://depot-legal-biodiversite.naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depobio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/accueil/index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.lenaturaliste.net/portail/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le naturaliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.recolnat.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recolnat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indépendant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scientartistmdano.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site de Mathilde Dano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Découvrir la faune – Antoine Csutoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliothèque naturaliste par Antoine Csutoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://u-g-o.jimdofree.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zoom-nature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoom-nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.idigbio.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdigBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.nhm.ac.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural History Museum – UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accueil - Red list - IUCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données spacial IUCN red list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gbif.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montpellier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.oreme.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data OREME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org/record/7534792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIVE 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données d’indicateurs floristiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annélides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ecobiosoil.univ-rennes1.fr/cle-de-determination/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clé d'identification des vers de terre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araignées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://asfra.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asfra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arachno.piwigo.com/index.php?/categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piwigo Arachno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quelestcetanimal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel est cet animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herpétofaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://coronella.free.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coléoptères</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kerbtier.de/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerbtier.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://aramel.free.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aramel.free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insecte.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecte.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insectes-net.fr/index.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectes-net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sites.google.com/view/mikes-insect-keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike’s Insect Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mondedesminuscules.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monde des minuscules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://outils.gretia.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils Gretia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.animateur-nature.com/guide-invertebres/les-larves.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animateur nature – Larves d’insectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmécologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.myrmecofourmis.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmecofourmis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthoptères</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ascete.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://conchology.be/?t=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conchology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oiseaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.oiseaux.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oiseaux.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ornitho.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornitho.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biofotoquiz – Oiseaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://alsace.lpo.fr/Jeux/Comptage/Comptage.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comptage – Mania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computerbording</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fotooizo.free.fr/jeu3.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fotooizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concerto – LPO Alsace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN – Chants des oiseaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.deepfaune.cnrs.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeepFaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poissons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jean-marc.charel.pagesperso-orange.fr/p_trombinoscope.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trombinoscope Jean-Marc Charel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://xeno-canto.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeno-canto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comestible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://discovery.dundee.ac.uk/en/datasets/edible-plant-database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edible Plant Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://garrigue-gourmande.fr/index.php?option=com_content&amp;view=featured&amp;Itemid=99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La garrigue gourmande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boite à outil – Le Plantoscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://euroveg.org/eva-database/databases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Vegetation Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://floraveg.eu/download/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FloraVeg.EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://siflore.fcbn.fr/?cd_ref=&amp;r=metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siflore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://referentiels.tela-botanica.org/referentiel/index.php?module=Accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiels taxonomiques – Tela botanica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.try-db.org/TryWeb/Home.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de données internationale pour les traits des plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.florealpes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FloreAlpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.preservons-la-nature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préservons la nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sysbio.univ-lille1.fr/fiches/plantae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sysbio – Plante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tela-botanica.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tela-botanica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plantes-botanique.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantes Botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://powo.science.kew.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants of the world online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.worldfloraonline.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Flora Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylogénie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mobot.org/MOBOT/Research/APweb/welcome.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angiosperm Phylogeny Website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quantitative-plant.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantitative Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://plants.jstor.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le trésor de Rémi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biologievegetale.be/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biologie végétale – UCLouvain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://floristic.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef des sauvages de ma rue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://my.plantnet.org/usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API plantnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-FLORA-sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flore-en-ligne.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flore en Ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tools.bgci.org/global_tree_search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Tree Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossaire botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbier MNHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet identification la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uses.plantnet-project.org/fr/Accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlantUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://theplantgame.com/login/?next=/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThePlantGame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par groupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryophytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryophytes de France - La Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orchidees-france.identificationkey.org/mkey.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef XPER 3 Orchidées de France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées en France – durbphil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.elisajeanluc.fr/orchidees_nature/index.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.orchidsofbritainandeurope.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchids of Britain and Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.orchidee-poitou-charentes.org/spip.php?rubrique155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SFO-PCV Société Française d'Orchidophilie de Poitou-Charentes et Vendée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orobanchaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clef Xper 3 des Orobanchaceae des Bouches-du-Rhône</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index of Orobanchaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://botarela.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botarela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://solanaceaesource.myspecies.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanaceae Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sites complementaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biologie végétale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rnbio.sorbonne-universite.fr/bio-veg_accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorbonne – Ressources numériques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.botaplus.fr/botaflore/bonnier_mt.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botaplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://societebotaniquedefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Société Botanique de France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.photoflora.fr/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photoflora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fleurs-fruits-feuilles-de.com/galerie_photos.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleurs-fruits-feuilles-de.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://habiter-la-reunion.re/la-flore-de-la-reunion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habiter la Reunion - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://abiris.snv.jussieu.fr/flore/herbier.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’herbier en image – Pierre Goujon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plante botanique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.reunion-parcnational.fr/fr/des-connaissances/la-flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNR - flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://quelle-est-cette-fleur.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle est cette fleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quelleestcetteplante.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle est cette plante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randopiton - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thierry Niko 974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willyplante canalblog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipni.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Plant Names Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theplantlist.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Plant List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://floranet.pagesperso-orange.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floranet : Identification de plantes médicinales et toxiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pfaf.org/user/Default.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant for a futur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wikiphyto.org/wiki/Accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WikiPhyto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champignon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Guide des champignons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://champis.net/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Champis.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mycodb.fr/searchfam.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycodb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.afl-lichenologie.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association française de Lichénologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichen d’italie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tela-botanica.org/projets/lichens-go/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichen Go – Tela-botanica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://lichengo.identificationkey.org/mkey.html</t>
+    <t>Général</t>
+  </si>
+  <si>
+    <t>https://www.inaturalist.org/</t>
+  </si>
+  <si>
+    <t>Inaturalist</t>
+  </si>
+  <si>
+    <t>INPN</t>
+  </si>
+  <si>
+    <t>https://cardobs.mnhn.fr/cardObs/auth/login</t>
+  </si>
+  <si>
+    <t>CardObs</t>
+  </si>
+  <si>
+    <t>https://openobs.mnhn.fr/</t>
+  </si>
+  <si>
+    <t>OpenObs</t>
+  </si>
+  <si>
+    <t>Phytosociologie</t>
+  </si>
+  <si>
+    <t>https://www.sci.muni.cz/botany/juice/?idm%3D10</t>
+  </si>
+  <si>
+    <t>JUICE</t>
+  </si>
+  <si>
+    <t>Clef d’identification</t>
+  </si>
+  <si>
+    <t>http://explorer.xper3.fr/accueil/</t>
+  </si>
+  <si>
+    <t>Explorer Xper 3</t>
+  </si>
+  <si>
+    <t>Base de données de clef d’identification Xper 3</t>
+  </si>
+  <si>
+    <t>https://depot-legal-biodiversite.naturefrance.fr/</t>
+  </si>
+  <si>
+    <t>Depobio</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/accueil/index</t>
+  </si>
+  <si>
+    <t>http://www.lenaturaliste.net/portail/index.php</t>
+  </si>
+  <si>
+    <t>Le naturaliste</t>
+  </si>
+  <si>
+    <t>https://www.recolnat.org/fr/</t>
+  </si>
+  <si>
+    <t>Recolnat</t>
+  </si>
+  <si>
+    <t>Indépendant</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>https://scientartistmdano.wordpress.com/</t>
+  </si>
+  <si>
+    <t>Site de Mathilde Dano</t>
+  </si>
+  <si>
+    <t>Faune</t>
+  </si>
+  <si>
+    <t>https://www.decouvrirlafaune.fr/la-bibliotheque-du-naturaliste/</t>
+  </si>
+  <si>
+    <t>Découvrir la faune – Antoine Csutoros</t>
+  </si>
+  <si>
+    <t>Bibliothèque naturaliste par Antoine Csutoros</t>
+  </si>
+  <si>
+    <t>https://u-g-o.jimdofree.com/</t>
+  </si>
+  <si>
+    <t>Wild World</t>
+  </si>
+  <si>
+    <t>https://www.zoom-nature.fr/</t>
+  </si>
+  <si>
+    <t>Zoom-nature</t>
+  </si>
+  <si>
+    <t>Mondiale</t>
+  </si>
+  <si>
+    <t>https://www.idigbio.org/</t>
+  </si>
+  <si>
+    <t>IdigBio</t>
+  </si>
+  <si>
+    <t>https://data.nhm.ac.uk/</t>
+  </si>
+  <si>
+    <t>Natural History Museum – UK</t>
+  </si>
+  <si>
+    <t>IUCN</t>
+  </si>
+  <si>
+    <t>https://www.iucnredlist.org/fr/</t>
+  </si>
+  <si>
+    <t>Accueil - Red list - IUCN</t>
+  </si>
+  <si>
+    <t>https://www.iucnredlist.org/fr/resources/spatial-data-download</t>
+  </si>
+  <si>
+    <t>Données spacial IUCN red list</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/</t>
+  </si>
+  <si>
+    <t>GBIF</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>https://data.oreme.org/</t>
+  </si>
+  <si>
+    <t>Data OREME</t>
+  </si>
+  <si>
+    <t>Ecologie</t>
+  </si>
+  <si>
+    <t>Plateforme</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/7534792</t>
+  </si>
+  <si>
+    <t>EIVE 1.0</t>
+  </si>
+  <si>
+    <t>Base de données d’indicateurs floristiques</t>
+  </si>
+  <si>
+    <t>Annélides</t>
+  </si>
+  <si>
+    <t>https://ecobiosoil.univ-rennes1.fr/cle-de-determination/</t>
+  </si>
+  <si>
+    <t>Clé d'identification des vers de terre</t>
+  </si>
+  <si>
+    <t>Araignées</t>
+  </si>
+  <si>
+    <t>https://asfra.fr/</t>
+  </si>
+  <si>
+    <t>Asfra</t>
+  </si>
+  <si>
+    <t>https://arachno.piwigo.com/index.php?/categories</t>
+  </si>
+  <si>
+    <t>Piwigo Arachno</t>
+  </si>
+  <si>
+    <t>https://www.quelestcetanimal.com/</t>
+  </si>
+  <si>
+    <t>Quel est cet animal</t>
+  </si>
+  <si>
+    <t>Herpétofaune</t>
+  </si>
+  <si>
+    <t>http://coronella.free.fr/</t>
+  </si>
+  <si>
+    <t>Coronella</t>
+  </si>
+  <si>
+    <t>Insectes</t>
+  </si>
+  <si>
+    <t>Coléoptères</t>
+  </si>
+  <si>
+    <t>https://www.kerbtier.de/</t>
+  </si>
+  <si>
+    <t>Kerbtier.de</t>
+  </si>
+  <si>
+    <t>http://aramel.free.fr/</t>
+  </si>
+  <si>
+    <t>Aramel.free</t>
+  </si>
+  <si>
+    <t>https://www.insecte.org/</t>
+  </si>
+  <si>
+    <t>Insecte.org</t>
+  </si>
+  <si>
+    <t>https://www.insectes-net.fr/index.htm</t>
+  </si>
+  <si>
+    <t>Insectes-net</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/mikes-insect-keys</t>
+  </si>
+  <si>
+    <t>Mike’s Insect Keys</t>
+  </si>
+  <si>
+    <t>https://mondedesminuscules.fr/</t>
+  </si>
+  <si>
+    <t>Monde des minuscules</t>
+  </si>
+  <si>
+    <t>https://outils.gretia.org/</t>
+  </si>
+  <si>
+    <t>Outils Gretia</t>
+  </si>
+  <si>
+    <t>Larves</t>
+  </si>
+  <si>
+    <t>https://www.animateur-nature.com/guide-invertebres/les-larves.php</t>
+  </si>
+  <si>
+    <t>Animateur nature – Larves d’insectes</t>
+  </si>
+  <si>
+    <t>Myrmécologie</t>
+  </si>
+  <si>
+    <t>https://www.myrmecofourmis.fr/</t>
+  </si>
+  <si>
+    <t>Myrmecofourmis</t>
+  </si>
+  <si>
+    <t>Orthoptères</t>
+  </si>
+  <si>
+    <t>https://ascete.org/</t>
+  </si>
+  <si>
+    <t>ASCETE</t>
+  </si>
+  <si>
+    <t>Mollusques</t>
+  </si>
+  <si>
+    <t>Mondial</t>
+  </si>
+  <si>
+    <t>https://conchology.be/?t=1</t>
+  </si>
+  <si>
+    <t>Conchology</t>
+  </si>
+  <si>
+    <t>Oiseaux</t>
+  </si>
+  <si>
+    <t>https://www.oiseaux.net/</t>
+  </si>
+  <si>
+    <t>Oiseaux.net</t>
+  </si>
+  <si>
+    <t>http://www.ornitho.fr/</t>
+  </si>
+  <si>
+    <t>Ornitho.fr</t>
+  </si>
+  <si>
+    <t>Jeux</t>
+  </si>
+  <si>
+    <t>https://www.biofotoquiz.ch/domain/standard/id/3/tab/standard</t>
+  </si>
+  <si>
+    <t>Biofotoquiz – Oiseaux</t>
+  </si>
+  <si>
+    <t>https://alsace.lpo.fr/Jeux/Comptage/Comptage.php</t>
+  </si>
+  <si>
+    <t>Comptage – Mania</t>
+  </si>
+  <si>
+    <t>https://www.computerbirding.com/what/cbirding_2018_e.php?PHPSESSID=</t>
+  </si>
+  <si>
+    <t>Computerbording</t>
+  </si>
+  <si>
+    <t>http://fotooizo.free.fr/jeu3.php</t>
+  </si>
+  <si>
+    <t>Fotooizo</t>
+  </si>
+  <si>
+    <t>Sons</t>
+  </si>
+  <si>
+    <t>https://alsace.lpo.fr/Jeux/Concerto/Concerto.php?res=1&amp;Largeur=1047&amp;Hauteur=590</t>
+  </si>
+  <si>
+    <t>Concerto – LPO Alsace</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/jeux/oiseaux/accueil-du-jeu</t>
+  </si>
+  <si>
+    <t>INPN – Chants des oiseaux</t>
+  </si>
+  <si>
+    <t>Outils faune</t>
+  </si>
+  <si>
+    <t>https://www.deepfaune.cnrs.fr/</t>
+  </si>
+  <si>
+    <t>DeepFaune</t>
+  </si>
+  <si>
+    <t>Poissons</t>
+  </si>
+  <si>
+    <t>http://jean-marc.charel.pagesperso-orange.fr/p_trombinoscope.htm</t>
+  </si>
+  <si>
+    <t>Trombinoscope Jean-Marc Charel</t>
+  </si>
+  <si>
+    <t>https://xeno-canto.org/</t>
+  </si>
+  <si>
+    <t>Xeno-canto</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>Comestible</t>
+  </si>
+  <si>
+    <t>https://discovery.dundee.ac.uk/en/datasets/edible-plant-database</t>
+  </si>
+  <si>
+    <t>Edible Plant Database</t>
+  </si>
+  <si>
+    <t>https://garrigue-gourmande.fr/index.php?option=com_content&amp;view=featured&amp;Itemid=99</t>
+  </si>
+  <si>
+    <t>La garrigue gourmande</t>
+  </si>
+  <si>
+    <t>https://leplantoscope.fr/2021/03/21/decouvrir-les-plantes-une-boite-a-outils/#:~:text=Le%20site%20Wikiphyto%2C%20qui%20recense%20les%20usages%20m%C3%A9dicinaux,anglais%2C%20la%20base%20de%20donn%C3%A9es%20de%20la%20FDA.</t>
+  </si>
+  <si>
+    <t>Boite à outil – Le Plantoscope</t>
+  </si>
+  <si>
+    <t>https://euroveg.org/eva-database/databases</t>
+  </si>
+  <si>
+    <t>European Vegetation Survey</t>
+  </si>
+  <si>
+    <t>https://floraveg.eu/download/</t>
+  </si>
+  <si>
+    <t>FloraVeg.EU</t>
+  </si>
+  <si>
+    <t>https://siflore.fcbn.fr/?cd_ref=&amp;r=metro</t>
+  </si>
+  <si>
+    <t>Siflore</t>
+  </si>
+  <si>
+    <t>Référentiel</t>
+  </si>
+  <si>
+    <t>https://referentiels.tela-botanica.org/referentiel/index.php?module=Accueil</t>
+  </si>
+  <si>
+    <t>Référentiels taxonomiques – Tela botanica</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>https://www.try-db.org/TryWeb/Home.php</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Base de données internationale pour les traits des plantes</t>
+  </si>
+  <si>
+    <t>https://www.florealpes.com/</t>
+  </si>
+  <si>
+    <t>FloreAlpes</t>
+  </si>
+  <si>
+    <t>https://www.preservons-la-nature.fr/</t>
+  </si>
+  <si>
+    <t>Préservons la nature</t>
+  </si>
+  <si>
+    <t>http://sysbio.univ-lille1.fr/fiches/plantae</t>
+  </si>
+  <si>
+    <t>Sysbio – Plante</t>
+  </si>
+  <si>
+    <t>https://www.tela-botanica.org/</t>
+  </si>
+  <si>
+    <t>Tela-botanica</t>
+  </si>
+  <si>
+    <t>https://www.plantes-botanique.org/</t>
+  </si>
+  <si>
+    <t>Plantes Botanique</t>
+  </si>
+  <si>
+    <t>https://powo.science.kew.org/</t>
+  </si>
+  <si>
+    <t>Plants of the world online</t>
+  </si>
+  <si>
+    <t>http://www.worldfloraonline.org/</t>
+  </si>
+  <si>
+    <t>World Flora Online</t>
+  </si>
+  <si>
+    <t>Phylogénie</t>
+  </si>
+  <si>
+    <t>https://www.mobot.org/MOBOT/Research/APweb/welcome.html</t>
+  </si>
+  <si>
+    <t>Angiosperm Phylogeny Website</t>
+  </si>
+  <si>
+    <t>Outils flore</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>https://www.quantitative-plant.org/</t>
+  </si>
+  <si>
+    <t>Quantitative Plant</t>
+  </si>
+  <si>
+    <t>Bibliographie</t>
+  </si>
+  <si>
+    <t>https://plants.jstor.org/</t>
+  </si>
+  <si>
+    <t>Global Plants</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15u20P811OIrJzR2eNkAIrRjUhS9e9bd8?usp=sharing</t>
+  </si>
+  <si>
+    <t>Le trésor de Rémi</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>https://biologievegetale.be/</t>
+  </si>
+  <si>
+    <t>Biologie végétale – UCLouvain</t>
+  </si>
+  <si>
+    <t>http://floristic.org/</t>
+  </si>
+  <si>
+    <t>Floristic</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>https://vigienature.openkeys.science/sauvage/?state=[]&amp;tab=keys</t>
+  </si>
+  <si>
+    <t>Clef des sauvages de ma rue</t>
+  </si>
+  <si>
+    <t>https://my.plantnet.org/usage</t>
+  </si>
+  <si>
+    <t>API plantnet</t>
+  </si>
+  <si>
+    <t>https://eflorasys.univ-lorraine.fr/index.php/fr/pages/display/liens</t>
+  </si>
+  <si>
+    <t>E-FLORA-sys</t>
+  </si>
+  <si>
+    <t>http://flore-en-ligne.fr/</t>
+  </si>
+  <si>
+    <t>Flore en Ligne</t>
+  </si>
+  <si>
+    <t>https://tools.bgci.org/global_tree_search.php</t>
+  </si>
+  <si>
+    <t>Global Tree Search</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Glossaire_de_botanique</t>
+  </si>
+  <si>
+    <t>Glossaire botanique</t>
+  </si>
+  <si>
+    <t>https://science.mnhn.fr/institution/mnhn/collection/p/item/search/form</t>
+  </si>
+  <si>
+    <t>Herbier MNHN</t>
+  </si>
+  <si>
+    <t>https://identify.plantnet.org/fr/reunion/identify</t>
+  </si>
+  <si>
+    <t>Plantnet identification la Réunion</t>
+  </si>
+  <si>
+    <t>https://uses.plantnet-project.org/fr/Accueil</t>
+  </si>
+  <si>
+    <t>PlantUse</t>
+  </si>
+  <si>
+    <t>http://theplantgame.com/login/?next=/</t>
+  </si>
+  <si>
+    <t>ThePlantGame</t>
+  </si>
+  <si>
+    <t>Par groupe</t>
+  </si>
+  <si>
+    <t>Bryophytes</t>
+  </si>
+  <si>
+    <t>http://bryophytes-de-france.org/yeswiki/wakka.php?wiki=ReuNion</t>
+  </si>
+  <si>
+    <t>Bryophytes de France - La Réunion</t>
+  </si>
+  <si>
+    <t>Orchidaceae</t>
+  </si>
+  <si>
+    <t>https://orchidees-france.identificationkey.org/mkey.html</t>
+  </si>
+  <si>
+    <t>Clef XPER 3 Orchidées de France</t>
+  </si>
+  <si>
+    <t>http://perso.numericable.fr/~durbphil/Ouv2&amp;Listalpha&amp;Pres/sitorchidouv2.htm</t>
+  </si>
+  <si>
+    <t>Orchidées en France – durbphil</t>
+  </si>
+  <si>
+    <t>https://www.elisajeanluc.fr/orchidees_nature/index.htm</t>
+  </si>
+  <si>
+    <t>Orchidées Nature</t>
+  </si>
+  <si>
+    <t>http://www.orchidsofbritainandeurope.co.uk/</t>
+  </si>
+  <si>
+    <t>Orchids of Britain and Europe</t>
+  </si>
+  <si>
+    <t>http://www.orchidee-poitou-charentes.org/spip.php?rubrique155</t>
+  </si>
+  <si>
+    <t>SFO-PCV Société Française d'Orchidophilie de Poitou-Charentes et Vendée</t>
+  </si>
+  <si>
+    <t>Orobanchaceae</t>
+  </si>
+  <si>
+    <t>https://www.xper3.fr/xper3GeneratedFiles/publish/identification/-4433262835638514473/mkey.html</t>
+  </si>
+  <si>
+    <t>Clef Xper 3 des Orobanchaceae des Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>https://www.farmalierganes.com/Otrospdf/publica/Orobanchaceae%20Index.htm</t>
+  </si>
+  <si>
+    <t>Index of Orobanchaceae</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
+    <t>https://botarela.fr/</t>
+  </si>
+  <si>
+    <t>Botarela</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
+  </si>
+  <si>
+    <t>https://solanaceaesource.myspecies.info/</t>
+  </si>
+  <si>
+    <t>Solanaceae Source</t>
+  </si>
+  <si>
+    <t>Sites complementaires</t>
+  </si>
+  <si>
+    <t>Biologie végétale</t>
+  </si>
+  <si>
+    <t>https://rnbio.sorbonne-universite.fr/bio-veg_accueil</t>
+  </si>
+  <si>
+    <t>Sorbonne – Ressources numériques</t>
+  </si>
+  <si>
+    <t>https://www.botaplus.fr/botaflore/bonnier_mt.htm</t>
+  </si>
+  <si>
+    <t>Botaplus</t>
+  </si>
+  <si>
+    <t>https://societebotaniquedefrance.fr/</t>
+  </si>
+  <si>
+    <t>Société Botanique de France</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>http://www.photoflora.fr/index.php</t>
+  </si>
+  <si>
+    <t>Photoflora</t>
+  </si>
+  <si>
+    <t>https://fleurs-fruits-feuilles-de.com/galerie_photos.php</t>
+  </si>
+  <si>
+    <t>Fleurs-fruits-feuilles-de.com</t>
+  </si>
+  <si>
+    <t>https://habiter-la-reunion.re/la-flore-de-la-reunion/</t>
+  </si>
+  <si>
+    <t>Habiter la Reunion - Flore</t>
+  </si>
+  <si>
+    <t>https://abiris.snv.jussieu.fr/flore/herbier.php</t>
+  </si>
+  <si>
+    <t>L’herbier en image – Pierre Goujon</t>
+  </si>
+  <si>
+    <t>Plante botanique</t>
+  </si>
+  <si>
+    <t>http://www.reunion-parcnational.fr/fr/des-connaissances/la-flore</t>
+  </si>
+  <si>
+    <t>PNR - flore</t>
+  </si>
+  <si>
+    <t>https://quelle-est-cette-fleur.com/</t>
+  </si>
+  <si>
+    <t>Quelle est cette fleur</t>
+  </si>
+  <si>
+    <t>https://www.quelleestcetteplante.fr/</t>
+  </si>
+  <si>
+    <t>Quelle est cette plante</t>
+  </si>
+  <si>
+    <t>https://biotope34.sharepoint.com/:x:/s/AgenceDOM/EZ0nw46o1alDiJI3R0F8wfMBjoZClH4kNUVeK2nsR_g-oA?e=LXpM6E</t>
+  </si>
+  <si>
+    <t>Randopiton - Flore</t>
+  </si>
+  <si>
+    <t>http://thierryniko974.over-blog.com/pages/A_LA_DECOUVERTE_DES_ORCHIDEES_DE_LA_REUNION-8836327.html</t>
+  </si>
+  <si>
+    <t>Thierry Niko 974</t>
+  </si>
+  <si>
+    <t>http://willyplante.canalblog.com/archives/endemique_et_indigene_/index.html</t>
+  </si>
+  <si>
+    <t>Willyplante canalblog</t>
+  </si>
+  <si>
+    <t>Taxonomie</t>
+  </si>
+  <si>
+    <t>https://www.ipni.org/</t>
+  </si>
+  <si>
+    <t>International Plant Names Index</t>
+  </si>
+  <si>
+    <t>http://www.theplantlist.org/</t>
+  </si>
+  <si>
+    <t>The Plant List</t>
+  </si>
+  <si>
+    <t>Usages</t>
+  </si>
+  <si>
+    <t>https://floranet.pagesperso-orange.fr/</t>
+  </si>
+  <si>
+    <t>Floranet : Identification de plantes médicinales et toxiques</t>
+  </si>
+  <si>
+    <t>https://pfaf.org/user/Default.aspx</t>
+  </si>
+  <si>
+    <t>Plant for a futur</t>
+  </si>
+  <si>
+    <t>http://www.wikiphyto.org/wiki/Accueil</t>
+  </si>
+  <si>
+    <t>WikiPhyto</t>
+  </si>
+  <si>
+    <t>Fonge</t>
+  </si>
+  <si>
+    <t>Champignon</t>
+  </si>
+  <si>
+    <t>https://www.guidedeschampignons.com/identification-champignon-un-chapeau-et-un-pied-avec-lamelles/</t>
+  </si>
+  <si>
+    <t>Le Guide des champignons</t>
+  </si>
+  <si>
+    <t>https://champis.net/home</t>
+  </si>
+  <si>
+    <t>Champis.net</t>
+  </si>
+  <si>
+    <t>https://www.mycodb.fr/searchfam.php</t>
+  </si>
+  <si>
+    <t>Mycodb</t>
+  </si>
+  <si>
+    <t>Lichen</t>
+  </si>
+  <si>
+    <t>https://www.afl-lichenologie.fr/</t>
+  </si>
+  <si>
+    <t>Association française de Lichénologie</t>
+  </si>
+  <si>
+    <t>https://italic.units.it/flora/index.php?procedure=ext_key_home&amp;key_id=9352</t>
+  </si>
+  <si>
+    <t>Lichen d’italie</t>
+  </si>
+  <si>
+    <t>https://www.tela-botanica.org/projets/lichens-go/</t>
+  </si>
+  <si>
+    <t>Lichen Go – Tela-botanica</t>
+  </si>
+  <si>
+    <t>http://lichengo.identificationkey.org/mkey.html</t>
   </si>
   <si>
     <t xml:space="preserve">Lichen Go – Xper </t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.lichenologue.org/fr/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lichenologue.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cahiers-techniques.espaces-naturels.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cahier technique des espaces naturels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restauration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice choix arbre - Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice pour le choix d’arbres et
+    <t>http://www.lichenologue.org/fr/index.php</t>
+  </si>
+  <si>
+    <t>lichenologue.org</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>http://cahiers-techniques.espaces-naturels.fr/</t>
+  </si>
+  <si>
+    <t>Cahier technique des espaces naturels</t>
+  </si>
+  <si>
+    <t>Restauration</t>
+  </si>
+  <si>
+    <t>https://cbnbp.mnhn.fr/cbnbp/ressources/telechargements/Notice_arbres_arbustes_CBNBP.pdf</t>
+  </si>
+  <si>
+    <t>Notice choix arbre - Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>Notice pour le choix d’arbres et
 d’arbustes pour la végétalisation à
 vocation écologique et paysagère en
 Centre-Val de Loire</t>
   </si>
   <si>
-    <t xml:space="preserve">Habitats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/programme/carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarHab INPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/viewer-carto/CarHab/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisateur Carhab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau douce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cfb.unh.edu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center for Fresjwater Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.freshwaterecology.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwaterecology.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plancton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drive Plancton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forêt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inventaire-forestier.ign.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventaire Forestier – IGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Méditerranée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.foret-mediterraneenne.org/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forêt méditerranéenne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://habitats-naturels.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitats-naturels.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doris.ffessm.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DORIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.marinespecies.org/photogallery.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Register of marine Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation de l'état de conservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vegfrance.univ-rennes1.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VegFrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://florass.zoom-ecologue.com/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florass par RoZo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.e-veg.net/accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eVeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Phytosociologie synusiale intégrée. Guide méthodologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://guy-bouxin.e-monsite.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Guy Bouxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nobanis.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOBANIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturefrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biodiversitylibrary.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversity library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.catalogueoflife.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalogue of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eol.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encyclopedia of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturalhistory.si.edu/research/eol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encyclopedia of Life -  natural history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciences participatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://lesherbonautes.mnhn.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbonautes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tela-botanica.org/mission/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.particitae.upmc.fr/fr/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vigienature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigienature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.oiseauxdesjardins.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oiseaux des jardins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pollinisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sapoll.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPOLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.spipoll.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIPOLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-web/api/doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Taxref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prélocalisation nationale des zones humides (2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sig.reseau-zones-humides.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau zone humide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prospection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openbiodiv.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenBiodiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.laccreteil.fr/spip.php?rubrique2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-php/accueil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation IRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://explore.openaire.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme d’Open Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://plazi.org/blr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plazi - Biodiversity Literature Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zotero.org/styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zotero Styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outil de création de clef d'identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://annotator.pensoft.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensoft Annotator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://faunedefrance.org/bibliotheque-virtuelle-numerique/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bibliothèque virtuelle numérique – Faune de France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1JiM9drwXFP6inyruDVzBAwRDGi330CDC?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drive Natural-host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eu-nomen.eu/portal/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu-nomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturefrance.fr/indicateurs?fulltext=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicateurs ONB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraction ISNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geomatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte thématique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light pollution map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://svgsilh.com/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svgsilh : Base de donnees de formes SVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.3liz.com/lizmap.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logiciel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geodacenter.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoda Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geonature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geonature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.natura2000.fr/carte-natura-2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte Natura 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cadastre.gouv.fr/scpc/accueil.do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastre.gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DicoGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blog.dogeo.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.dogeo.fr/Projection/#/point-to-coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoGeo projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eaufrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geo.data.gouv.fr/fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géo data gouv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.geofoncier.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofoncier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geoservices.ign.fr/services-web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géoservices IGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.geotribu.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geotribu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGN : remonter le temps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPN inspire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://peigeo.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeiGeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://peps.cnes.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.risquesnaturels.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques naturels (PPR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandre Eau France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qfield.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutoriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.qgis.org/3.10/fr/docs/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docs Qgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturagis.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturagis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.qgistutorials.com/fr/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qgis tutirials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.multibao.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutibao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outils collecte information / suivi de biodiversite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emploi-territorial.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emploi-territorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reseau-tee.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau TEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leplantoscope.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Plantoscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.actu-environnement.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actu environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.conservation-nature.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartographie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rcarto.github.io/carto_avec_r/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rcarto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ggplot 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid/#/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mermaid editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qastack Gantt charts with R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rstudio Graphviz and DiagrammR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bookdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheatsheet Flextable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bookdown.org/yihui/rmarkdown-cookbook/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-book/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://davidgohel.github.io/flextable/reference/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable David Gohel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de donnees mondiale pour les plantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ardata-fr.github.io/flextable-gallery/gallery/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flextable Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rmarkdown.rstudio.com/lesson-1.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecon R markdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tablesgenerator.com/markdown_tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markdown tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://shiny.rstudio.com/tutorial/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny Rstudio tutorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiny sur serveur AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tidymodels.org/learn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidymodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R pour statophobe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://stt4230.rbind.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuto R : stt4230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://chat.openai.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chat GPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://you.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.futurepedia.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lifemap-ncbi.univ-lyon1.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifemap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://idao.cirad.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identificationkey.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificationkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxref-match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xper 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.xper3.fr/?language=fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulgarisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.biodiville.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La forêt méditerranéenne vue par un écureuil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youtube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le chemin de la nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/@augustinsoulard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augustin Soulard – Youtube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Minute nature – Youtube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marie Wild – Youtube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/user/EditionsSalamandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salamandre - Youtube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité Wallonie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.herbierimages.be/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’herbier en image – Belgique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maroc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.floramaroccana.fr/presentation.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floramaroccana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norvège</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.artsdatabanken.no/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artsdatabanken.no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suède</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://artfakta.se/artinformation?lang=sv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artfakta.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infloflora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tchéquie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biolib.cz/en/main/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biolib.cz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Régions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auvergne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photos araignées, insectes, fleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bretagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-bretagne.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune Bretagne – LPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bretagne-vivante.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bretagne vivante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre-Val-de-loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fne-centrevaldeloire.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FNE Centre-Val-de-Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://plantes-rizieres-guyane.cirad.fr/generalites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantes rizières Guyane Cirad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haut-de-france</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eee.drealnpdc.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauts-de-France – Espèces Exotiques Envahissantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile-de-France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cettia.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cettia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massif central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune&amp;Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fauneflore-massifcentral.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune &amp; Flore du Massif Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion &amp; restauration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pépinière Mayotte de plans indigènes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sauvagesdupoitou.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauvages du Poitou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.foret-aquitaine.com/som.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forêt Aquitaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitats naturels Poitou-Charentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occitanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrénées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.lafloredespyrenees.fr/pagefamille.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La flore des pyrénées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.afleurdepau.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afleurdepau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpes-de-Haute-Provence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.atlasflore04.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Flore 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouches-du-Rhône</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://etienne.aspord.free.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne Aspord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.regionreunion.com/pages/accueil/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open data Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biotopeoi.shinyapps.io/statfore/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatFlore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDAGE 2022 - 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mi-aime-a-ou.com/faune_ile_reunion.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi aime a ou – Faune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://insectarium-reunion.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insectarium La Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollusque de l’île de la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-reunion.fr/index.php?m_id=1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faune Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://orchidees.vandes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidées Vandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.borbonica.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borbonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi aime a ou - Flore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://identify.plantnet.org/fr/reunion/species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantnet Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zinvaziv.re/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinvaziv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://daupi.cbnm.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milieu Marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acoustique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy - Ocean Sonics Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fr.wikipedia.org/wiki/Biodiversit%C3%A9_marine_des_lagons_de_La_R%C3%A9union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversité marine des lagons de La Réunion – wikipédia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORBONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.coralsoftheworld.org/page/home/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corals of the world</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://coraux.univ-reunion.fr/spip.php?article35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coraux de La Réunion - Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://horizon.documentation.ird.fr/exl-doc/pleins_textes/ed-09-10/010050352.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crustacées de la Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fishbase.se/search.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map mondial recif corallien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datamermaid.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine Ecological Research Management Aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOAA Coral Reef Watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions marines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données stations météos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marées SHOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluviométrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.windy.com/?-21.100,55.600,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Données milieu marin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS DCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://oceans-indien-austral.milieumarinfrance.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plateforme milieu marin France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://inpn.mnhn.fr/habitat/cd_typo/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référentiel Habitats marins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sextant.ifremer.fr/ocean-indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sextant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wwz.ifremer.fr/surval/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allen Coral Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portal.emodnet-bathymetry.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bathymétrie mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.marineregions.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carto ZEE Mondiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.icriforum.org/restoration/coral-restoration-database/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral Restauration Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://prelevements-hydro.ifremer.fr/presentation.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocole prélèvements hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://natureoceanindien.org/Reptiles-reunion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Ocean Idien - Reptiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://natureoceanindien.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Océan Indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reunion.developpement-durable.gouv.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vogelwarte.ch/fr/oiseaux/jeu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogewarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réglementaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code de l'environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etude d'impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etude d'impact ou cas par cas ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNEXES (Articles Annexe à l'article R122-2 à Annexe à la section 1 du chapitre III du titre IX du livre V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108631/#LEGISCTA000006108631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code de l'environnement legifrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georisques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.georisques.gouv.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géorisques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuRa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génréral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.frane-auvergne-environnement.fr/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ille-et-Vilaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cerclenaturalisteetudiants.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cercle Naturaliste des Etudiants Rennais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre-Val-de-Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loiret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://somosorleans.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Société pour le Muséum d’Orléans et les Sciences (So.MOS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecologues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://afie-asso.fr/?article1</t>
+    <t>Habitats</t>
+  </si>
+  <si>
+    <t>Carhab</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/programme/carhab</t>
+  </si>
+  <si>
+    <t>CarHab INPN</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/viewer-carto/CarHab/</t>
+  </si>
+  <si>
+    <t>Visualisateur Carhab</t>
+  </si>
+  <si>
+    <t>Eau douce</t>
+  </si>
+  <si>
+    <t>http://cfb.unh.edu/</t>
+  </si>
+  <si>
+    <t>Center for Fresjwater Biology</t>
+  </si>
+  <si>
+    <t>https://www.freshwaterecology.info/</t>
+  </si>
+  <si>
+    <t>Freshwaterecology.info</t>
+  </si>
+  <si>
+    <t>Plancton</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/2/folders/1gceOL5zb71uW0P9YylBLIdrEteCAD8Qg</t>
+  </si>
+  <si>
+    <t>Drive Plancton</t>
+  </si>
+  <si>
+    <t>Forêt</t>
+  </si>
+  <si>
+    <t>https://inventaire-forestier.ign.fr/</t>
+  </si>
+  <si>
+    <t>Inventaire Forestier – IGN</t>
+  </si>
+  <si>
+    <t>Méditerranée</t>
+  </si>
+  <si>
+    <t>https://www.foret-mediterraneenne.org/fr/</t>
+  </si>
+  <si>
+    <t>Forêt méditerranéenne</t>
+  </si>
+  <si>
+    <t>http://habitats-naturels.info/</t>
+  </si>
+  <si>
+    <t>Habitats-naturels.info</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>https://doris.ffessm.fr/</t>
+  </si>
+  <si>
+    <t>DORIS</t>
+  </si>
+  <si>
+    <t>https://www.marinespecies.org/photogallery.php</t>
+  </si>
+  <si>
+    <t>World Register of marine Species</t>
+  </si>
+  <si>
+    <t>Natura 2000</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/telechargement/documentation/natura2000/evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation de l'état de conservation</t>
+  </si>
+  <si>
+    <t>https://vegfrance.univ-rennes1.fr/</t>
+  </si>
+  <si>
+    <t>VegFrance</t>
+  </si>
+  <si>
+    <t>Outil</t>
+  </si>
+  <si>
+    <t>http://florass.zoom-ecologue.com/index.php</t>
+  </si>
+  <si>
+    <t>Florass par RoZo</t>
+  </si>
+  <si>
+    <t>https://www.e-veg.net/accueil</t>
+  </si>
+  <si>
+    <t>eVeg</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/233773247_La_Phytosociologie_synusiale_integree_Guide_methodologique</t>
+  </si>
+  <si>
+    <t>La Phytosociologie synusiale intégrée. Guide méthodologique</t>
+  </si>
+  <si>
+    <t>http://guy-bouxin.e-monsite.com/</t>
+  </si>
+  <si>
+    <t>Site Guy Bouxin</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>https://www.nobanis.org/</t>
+  </si>
+  <si>
+    <t>NOBANIS</t>
+  </si>
+  <si>
+    <t>https://naturefrance.fr/</t>
+  </si>
+  <si>
+    <t>Nature France</t>
+  </si>
+  <si>
+    <t>https://www.biodiversitylibrary.org/</t>
+  </si>
+  <si>
+    <t>Biodiversity library</t>
+  </si>
+  <si>
+    <t>https://www.catalogueoflife.org/</t>
+  </si>
+  <si>
+    <t>Catalogue of Life</t>
+  </si>
+  <si>
+    <t>https://eol.org/</t>
+  </si>
+  <si>
+    <t>Encyclopedia of Life</t>
+  </si>
+  <si>
+    <t>https://naturalhistory.si.edu/research/eol</t>
+  </si>
+  <si>
+    <t>Encyclopedia of Life -  natural history</t>
+  </si>
+  <si>
+    <t>Sciences participatives</t>
+  </si>
+  <si>
+    <t>http://lesherbonautes.mnhn.fr/</t>
+  </si>
+  <si>
+    <t>Herbonautes</t>
+  </si>
+  <si>
+    <t>https://www.tela-botanica.org/mission/</t>
+  </si>
+  <si>
+    <t>Mission Flore</t>
+  </si>
+  <si>
+    <t>http://www.particitae.upmc.fr/fr/index.html</t>
+  </si>
+  <si>
+    <t>Participae</t>
+  </si>
+  <si>
+    <t>https://www.vigienature.fr/</t>
+  </si>
+  <si>
+    <t>Vigienature</t>
+  </si>
+  <si>
+    <t>https://www.oiseauxdesjardins.fr/</t>
+  </si>
+  <si>
+    <t>Oiseaux des jardins</t>
+  </si>
+  <si>
+    <t>Pollinisateur</t>
+  </si>
+  <si>
+    <t>https://sapoll.eu/</t>
+  </si>
+  <si>
+    <t>SAPOLL</t>
+  </si>
+  <si>
+    <t>https://www.spipoll.org/</t>
+  </si>
+  <si>
+    <t>SPIPOLL</t>
+  </si>
+  <si>
+    <t>Taxref</t>
+  </si>
+  <si>
+    <t>https://taxref.mnhn.fr/taxref-web/api/doc</t>
+  </si>
+  <si>
+    <t>API Taxref</t>
+  </si>
+  <si>
+    <t>Eau</t>
+  </si>
+  <si>
+    <t>Zone humide</t>
+  </si>
+  <si>
+    <t>Donnees</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/telechargement/cartes-et-information-geographique/mh/zh</t>
+  </si>
+  <si>
+    <t>Prélocalisation nationale des zones humides (2023)</t>
+  </si>
+  <si>
+    <t>http://sig.reseau-zones-humides.org/</t>
+  </si>
+  <si>
+    <t>Réseau zone humide</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Prospection</t>
+  </si>
+  <si>
+    <t>https://openbiodiv.net/</t>
+  </si>
+  <si>
+    <t>OpenBiodiv</t>
+  </si>
+  <si>
+    <t>https://www.laccreteil.fr/spip.php?rubrique2</t>
+  </si>
+  <si>
+    <t>Dictionnaire encyclopédique de la diversité biologique et de la conservation de la nature</t>
+  </si>
+  <si>
+    <t>https://horizon.documentation.ird.fr/exl-php/accueil</t>
+  </si>
+  <si>
+    <t>Documentation IRD</t>
+  </si>
+  <si>
+    <t>https://explore.openaire.eu/</t>
+  </si>
+  <si>
+    <t>OpenAIRE</t>
+  </si>
+  <si>
+    <t>https://zenodo.org</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>Plateforme d’Open Science</t>
+  </si>
+  <si>
+    <t>https://plazi.org/blr/</t>
+  </si>
+  <si>
+    <t>Plazi - Biodiversity Literature Repository</t>
+  </si>
+  <si>
+    <t>Zotero</t>
+  </si>
+  <si>
+    <t>https://www.zotero.org/styles</t>
+  </si>
+  <si>
+    <t>Zotero Styles</t>
+  </si>
+  <si>
+    <t>Outil de création de clef d'identification</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>https://annotator.pensoft.net/</t>
+  </si>
+  <si>
+    <t>Pensoft Annotator</t>
+  </si>
+  <si>
+    <t>https://faunedefrance.org/bibliotheque-virtuelle-numerique/</t>
+  </si>
+  <si>
+    <t>Bibliothèque virtuelle numérique – Faune de France</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1JiM9drwXFP6inyruDVzBAwRDGi330CDC?usp=sharing</t>
+  </si>
+  <si>
+    <t>Drive Natural-host</t>
+  </si>
+  <si>
+    <t>https://www.eu-nomen.eu/portal/index.php</t>
+  </si>
+  <si>
+    <t>Eu-nomen</t>
+  </si>
+  <si>
+    <t>Indicateur</t>
+  </si>
+  <si>
+    <t>https://naturefrance.fr/indicateurs?fulltext=</t>
+  </si>
+  <si>
+    <t>Indicateurs ONB</t>
+  </si>
+  <si>
+    <t>SINP</t>
+  </si>
+  <si>
+    <t>https://framaforms.org/formulaire-de-demande-dacces-aux-donnees-du-sinp-974-1485242721</t>
+  </si>
+  <si>
+    <t>Extraction ISNP</t>
+  </si>
+  <si>
+    <t>Geomatique</t>
+  </si>
+  <si>
+    <t>Carte thématique</t>
+  </si>
+  <si>
+    <t>https://lighttrends.lightpollutionmap.info/#zoom=0&amp;lon=32.89298&amp;lat=20.63642</t>
+  </si>
+  <si>
+    <t>Light pollution map</t>
+  </si>
+  <si>
+    <t>Composeur</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>https://svgsilh.com/fr/</t>
+  </si>
+  <si>
+    <t>Svgsilh : Base de donnees de formes SVG</t>
+  </si>
+  <si>
+    <t>Lizmap</t>
+  </si>
+  <si>
+    <t>https://www.3liz.com/lizmap.html</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>https://geodacenter.github.io/</t>
+  </si>
+  <si>
+    <t>Geoda Center</t>
+  </si>
+  <si>
+    <t>https://geonature.fr/</t>
+  </si>
+  <si>
+    <t>Geonature</t>
+  </si>
+  <si>
+    <t>N2000</t>
+  </si>
+  <si>
+    <t>https://www.natura2000.fr/carte-natura-2000</t>
+  </si>
+  <si>
+    <t>Carte Natura 2000</t>
+  </si>
+  <si>
+    <t>https://www.cadastre.gouv.fr/scpc/accueil.do</t>
+  </si>
+  <si>
+    <t>Cadastre.gouv</t>
+  </si>
+  <si>
+    <t>https://static.geotribu.fr/articles/2014/art_2014-09-25_dicogis/#presentation-de-loutil</t>
+  </si>
+  <si>
+    <t>DicoGIS</t>
+  </si>
+  <si>
+    <t>https://blog.dogeo.fr/</t>
+  </si>
+  <si>
+    <t>DoGeo</t>
+  </si>
+  <si>
+    <t>https://app.dogeo.fr/Projection/#/point-to-coords</t>
+  </si>
+  <si>
+    <t>DoGeo projection</t>
+  </si>
+  <si>
+    <t>https://www.eaufrance.fr/</t>
+  </si>
+  <si>
+    <t>Eau France</t>
+  </si>
+  <si>
+    <t>https://geo.data.gouv.fr/fr/</t>
+  </si>
+  <si>
+    <t>Géo data gouv</t>
+  </si>
+  <si>
+    <t>https://www.geofoncier.fr/</t>
+  </si>
+  <si>
+    <t>Geofoncier</t>
+  </si>
+  <si>
+    <t>https://geoservices.ign.fr/services-web</t>
+  </si>
+  <si>
+    <t>Géoservices IGN</t>
+  </si>
+  <si>
+    <t>https://static.geotribu.fr/</t>
+  </si>
+  <si>
+    <t>Geotribu</t>
+  </si>
+  <si>
+    <t>https://remonterletemps.ign.fr/comparer/basic?x=55.465501&amp;y=-20.887779&amp;z=17&amp;layer1=ORTHOIMAGERY.ORTHOPHOTOS&amp;layer2=ORTHOIMAGERY.ORTHOPHOTOS.1950-1965&amp;mode=doubleMap</t>
+  </si>
+  <si>
+    <t>IGN : remonter le temps</t>
+  </si>
+  <si>
+    <t>https://inpn-inspire.mnhn.fr/catalogue/srv/fre/catalog.search#/search</t>
+  </si>
+  <si>
+    <t>INPN inspire</t>
+  </si>
+  <si>
+    <t>http://peigeo.re/</t>
+  </si>
+  <si>
+    <t>PeiGeo</t>
+  </si>
+  <si>
+    <t>https://peps.cnes.fr</t>
+  </si>
+  <si>
+    <t>Peps</t>
+  </si>
+  <si>
+    <t>http://www.risquesnaturels.re/</t>
+  </si>
+  <si>
+    <t>Risques naturels (PPR)</t>
+  </si>
+  <si>
+    <t>https://www.sandre.eaufrance.fr/atlas/srv/fre/catalog.search#/home</t>
+  </si>
+  <si>
+    <t>Sandre Eau France</t>
+  </si>
+  <si>
+    <t>Qfield</t>
+  </si>
+  <si>
+    <t>https://qfield.org/</t>
+  </si>
+  <si>
+    <t>Qgis</t>
+  </si>
+  <si>
+    <t>Tutoriel</t>
+  </si>
+  <si>
+    <t>https://docs.qgis.org/3.10/fr/docs/index.html</t>
+  </si>
+  <si>
+    <t>Docs Qgis</t>
+  </si>
+  <si>
+    <t>https://naturagis.fr</t>
+  </si>
+  <si>
+    <t>Naturagis</t>
+  </si>
+  <si>
+    <t>http://www.qgistutorials.com/fr/index.html</t>
+  </si>
+  <si>
+    <t>Qgis tutirials</t>
+  </si>
+  <si>
+    <t>Methodologie</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>http://www.multibao.org/</t>
+  </si>
+  <si>
+    <t>Mutibao</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>https://professionnels.ofb.fr/sites/default/files/pdf/documentation/TIC2015_CENLR-CENPACA-FONEXP-CNRS-CEFE-outils_nomades.pdf</t>
+  </si>
+  <si>
+    <t>Outils collecte information / suivi de biodiversite</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Emplois</t>
+  </si>
+  <si>
+    <t>https://www.emploi-territorial.fr/</t>
+  </si>
+  <si>
+    <t>Emploi-territorial</t>
+  </si>
+  <si>
+    <t>https://www.reseau-tee.net/</t>
+  </si>
+  <si>
+    <t>Réseau TEE</t>
+  </si>
+  <si>
+    <t>https://leplantoscope.fr/</t>
+  </si>
+  <si>
+    <t>Le Plantoscope</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>https://www.actu-environnement.com/</t>
+  </si>
+  <si>
+    <t>Actu environnement</t>
+  </si>
+  <si>
+    <t>https://www.conservation-nature.fr/</t>
+  </si>
+  <si>
+    <t>Conservation Nature</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cartographie</t>
+  </si>
+  <si>
+    <t>https://rcarto.github.io/carto_avec_r/</t>
+  </si>
+  <si>
+    <t>Rcarto</t>
+  </si>
+  <si>
+    <t>Cheatsheet</t>
+  </si>
+  <si>
+    <t>https://thinkr.fr/pdf/ggplot2-french-cheatsheet.pdf</t>
+  </si>
+  <si>
+    <t>ggplot 2</t>
+  </si>
+  <si>
+    <t>DiagrammR</t>
+  </si>
+  <si>
+    <t>https://cyberhelp.sesync.org/blog/visualization-with-diagrammeR.html</t>
+  </si>
+  <si>
+    <t>https://rich-iannone.github.io/DiagrammeR/graphviz_and_mermaid.html</t>
+  </si>
+  <si>
+    <t>Doc DiagrammR</t>
+  </si>
+  <si>
+    <t>https://mermaid-js.github.io/mermaid/#/</t>
+  </si>
+  <si>
+    <t>Mermaid doc</t>
+  </si>
+  <si>
+    <t>https://mermaid-js.github.io/mermaid-live-editor/edit/</t>
+  </si>
+  <si>
+    <t>Mermaid editor</t>
+  </si>
+  <si>
+    <t>https://qastack.fr/programming/3550341/gantt-charts-with-r</t>
+  </si>
+  <si>
+    <t>Qastack Gantt charts with R</t>
+  </si>
+  <si>
+    <t>https://www.rstudio.com/blog/rstudio-v0-99-preview-graphviz-and-diagrammer/</t>
+  </si>
+  <si>
+    <t>Rstudio Graphviz and DiagrammR</t>
+  </si>
+  <si>
+    <t>R markdown</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/</t>
+  </si>
+  <si>
+    <t>Bookdown</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-book/assets/pdf/cheat_sheet_flextable.pdf</t>
+  </si>
+  <si>
+    <t>Cheatsheet Flextable</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/yihui/rmarkdown-cookbook/</t>
+  </si>
+  <si>
+    <t>Cookbook</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-book/</t>
+  </si>
+  <si>
+    <t>Flextable book</t>
+  </si>
+  <si>
+    <t>https://davidgohel.github.io/flextable/reference/index.html</t>
+  </si>
+  <si>
+    <t>Flextable David Gohel</t>
+  </si>
+  <si>
+    <t>Base de donnees mondiale pour les plantes</t>
+  </si>
+  <si>
+    <t>https://ardata-fr.github.io/flextable-gallery/gallery/</t>
+  </si>
+  <si>
+    <t>Flextable Gallery</t>
+  </si>
+  <si>
+    <t>https://rmarkdown.rstudio.com/lesson-1.html</t>
+  </si>
+  <si>
+    <t>Lecon R markdown</t>
+  </si>
+  <si>
+    <t>https://www.tablesgenerator.com/markdown_tables</t>
+  </si>
+  <si>
+    <t>Markdown tables</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarw30/R-Shinyapp-Tutorial</t>
+  </si>
+  <si>
+    <t>Shiny example</t>
+  </si>
+  <si>
+    <t>https://shiny.rstudio.com/tutorial/</t>
+  </si>
+  <si>
+    <t>Shiny Rstudio tutorial</t>
+  </si>
+  <si>
+    <t>https://www.charlesbordet.com/fr/guide-shiny-aws/#a-quoi-s-attendre-dans-ce-guide</t>
+  </si>
+  <si>
+    <t>Shiny sur serveur AWS</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>https://www.tidymodels.org/learn/</t>
+  </si>
+  <si>
+    <t>Tidymodel</t>
+  </si>
+  <si>
+    <t>https://perso.univ-rennes1.fr/denis.poinsot/Statistiques_%20pour_statophobes/R%20pour%20les%20statophobes.pdf</t>
+  </si>
+  <si>
+    <t>R pour statophobe</t>
+  </si>
+  <si>
+    <t>https://stt4230.rbind.io/</t>
+  </si>
+  <si>
+    <t>Tuto R : stt4230</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/</t>
+  </si>
+  <si>
+    <t>Chat GPT</t>
+  </si>
+  <si>
+    <t>https://you.com/</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>https://www.futurepedia.io/</t>
+  </si>
+  <si>
+    <t>https://lifemap-ncbi.univ-lyon1.fr/</t>
+  </si>
+  <si>
+    <t>Lifemap</t>
+  </si>
+  <si>
+    <t>https://idao.cirad.fr/</t>
+  </si>
+  <si>
+    <t>IDAO</t>
+  </si>
+  <si>
+    <t>https://identificationkey.fr/</t>
+  </si>
+  <si>
+    <t>Identificationkey</t>
+  </si>
+  <si>
+    <t>TAXREF</t>
+  </si>
+  <si>
+    <t>https://taxref.mnhn.fr/taxref-match/taxrefmatch/import</t>
+  </si>
+  <si>
+    <t>Taxref-match</t>
+  </si>
+  <si>
+    <t>Xper 3</t>
+  </si>
+  <si>
+    <t>https://www.xper3.fr/?language=fr</t>
+  </si>
+  <si>
+    <t>Vulgarisation</t>
+  </si>
+  <si>
+    <t>http://www.biodiville.org/</t>
+  </si>
+  <si>
+    <t>Biodiville</t>
+  </si>
+  <si>
+    <t>ONF</t>
+  </si>
+  <si>
+    <t>https://www.onf.fr/vivre-la-foret/+/add::la-foret-mediterraneene-en-image.html</t>
+  </si>
+  <si>
+    <t>La forêt méditerranéenne vue par un écureuil</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/LeChemindelaNature-LaCha%C3%AEne</t>
+  </si>
+  <si>
+    <t>Le chemin de la nature</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@augustinsoulard</t>
+  </si>
+  <si>
+    <t>Augustin Soulard – Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCkph5f42oWLXN09Kf-XbBMQ</t>
+  </si>
+  <si>
+    <t>La Minute nature – Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCI7DUjUYcPOLZ0pRuk4klkw</t>
+  </si>
+  <si>
+    <t>Marie Wild – Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/EditionsSalamandre</t>
+  </si>
+  <si>
+    <t>Salamandre - Youtube</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>http://biodiversite.wallonie.be/fr/accueil.html?IDC=6</t>
+  </si>
+  <si>
+    <t>Biodiversité Wallonie</t>
+  </si>
+  <si>
+    <t>https://www.herbierimages.be/</t>
+  </si>
+  <si>
+    <t>L’herbier en image – Belgique</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>https://www.floramaroccana.fr/presentation.html</t>
+  </si>
+  <si>
+    <t>Floramaroccana</t>
+  </si>
+  <si>
+    <t>Norvège</t>
+  </si>
+  <si>
+    <t>https://www.artsdatabanken.no/</t>
+  </si>
+  <si>
+    <t>artsdatabanken.no</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>https://artfakta.se/artinformation?lang=sv</t>
+  </si>
+  <si>
+    <t>artfakta.se</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>https://wiki.infoflora.ch/swissflorawiki/fr/FloraWiki_-_le_wiki_sur_la_flore_suisse</t>
+  </si>
+  <si>
+    <t>Infloflora</t>
+  </si>
+  <si>
+    <t>Tchéquie</t>
+  </si>
+  <si>
+    <t>https://www.biolib.cz/en/main/</t>
+  </si>
+  <si>
+    <t>Biolib.cz</t>
+  </si>
+  <si>
+    <t>Régions</t>
+  </si>
+  <si>
+    <t>Auvergne</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>https://auvergne-fleurs-insectes-araignees.blogspot.com/</t>
+  </si>
+  <si>
+    <t>Photos araignées, insectes, fleurs</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>https://www.faune-bretagne.org/</t>
+  </si>
+  <si>
+    <t>Faune Bretagne – LPO</t>
+  </si>
+  <si>
+    <t>https://www.bretagne-vivante.org/</t>
+  </si>
+  <si>
+    <t>Bretagne vivante</t>
+  </si>
+  <si>
+    <t>Centre-Val-de-loire</t>
+  </si>
+  <si>
+    <t>https://fne-centrevaldeloire.org/</t>
+  </si>
+  <si>
+    <t>FNE Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>Rizière</t>
+  </si>
+  <si>
+    <t>http://plantes-rizieres-guyane.cirad.fr/generalites</t>
+  </si>
+  <si>
+    <t>Plantes rizières Guyane Cirad</t>
+  </si>
+  <si>
+    <t>Haut-de-france</t>
+  </si>
+  <si>
+    <t>https://eee.drealnpdc.fr/</t>
+  </si>
+  <si>
+    <t>Hauts-de-France – Espèces Exotiques Envahissantes</t>
+  </si>
+  <si>
+    <t>Ile-de-France</t>
+  </si>
+  <si>
+    <t>https://cettia.fr/</t>
+  </si>
+  <si>
+    <t>Cettia</t>
+  </si>
+  <si>
+    <t>Massif central</t>
+  </si>
+  <si>
+    <t>Faune&amp;Flore</t>
+  </si>
+  <si>
+    <t>https://www.fauneflore-massifcentral.fr/</t>
+  </si>
+  <si>
+    <t>Faune &amp; Flore du Massif Central</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Gestion &amp; restauration</t>
+  </si>
+  <si>
+    <t>Pépinière</t>
+  </si>
+  <si>
+    <t>http://www.achats-responsables-mayotte.org/structure/pot-concept/</t>
+  </si>
+  <si>
+    <t>Pépinière Mayotte de plans indigènes</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>https://www.sauvagesdupoitou.com/</t>
+  </si>
+  <si>
+    <t>Sauvages du Poitou</t>
+  </si>
+  <si>
+    <t>http://www.foret-aquitaine.com/som.htm</t>
+  </si>
+  <si>
+    <t>Forêt Aquitaine</t>
+  </si>
+  <si>
+    <t>http://www.poitou-charentes-nature.asso.fr/guide-des-habitats-naturels-du-poitou-charentes/</t>
+  </si>
+  <si>
+    <t>Habitats naturels Poitou-Charentes</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Pyrénées</t>
+  </si>
+  <si>
+    <t>http://www.lafloredespyrenees.fr/pagefamille.html</t>
+  </si>
+  <si>
+    <t>La flore des pyrénées</t>
+  </si>
+  <si>
+    <t>http://www.afleurdepau.com/</t>
+  </si>
+  <si>
+    <t>Afleurdepau</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>https://www.atlasflore04.org/</t>
+  </si>
+  <si>
+    <t>Atlas Flore 04</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>http://etienne.aspord.free.fr/</t>
+  </si>
+  <si>
+    <t>Etienne Aspord</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>https://data.regionreunion.com/pages/accueil/</t>
+  </si>
+  <si>
+    <t>Open data Réunion</t>
+  </si>
+  <si>
+    <t>https://biotopeoi.shinyapps.io/statfore/</t>
+  </si>
+  <si>
+    <t>StatFlore</t>
+  </si>
+  <si>
+    <t>http://www.comite-eau-biodiversite-reunion.fr/le-sdage-2022-2027-est-adopte-a207.html</t>
+  </si>
+  <si>
+    <t>SDAGE 2022 - 2027</t>
+  </si>
+  <si>
+    <t>https://www.mi-aime-a-ou.com/faune_ile_reunion.php</t>
+  </si>
+  <si>
+    <t>Mi aime a ou – Faune</t>
+  </si>
+  <si>
+    <t>http://insectarium-reunion.fr/</t>
+  </si>
+  <si>
+    <t>Insectarium La Réunion</t>
+  </si>
+  <si>
+    <t>http://vieoceane.free.fr/mollusques/intro_mollusque.htm</t>
+  </si>
+  <si>
+    <t>Mollusque de l’île de la Réunion</t>
+  </si>
+  <si>
+    <t>https://www.faune-reunion.fr/index.php?m_id=1#</t>
+  </si>
+  <si>
+    <t>Faune Réunion</t>
+  </si>
+  <si>
+    <t>Orchidées</t>
+  </si>
+  <si>
+    <t>http://orchidees.vandes.com/</t>
+  </si>
+  <si>
+    <t>Orchidées Vandes</t>
+  </si>
+  <si>
+    <t>https://www.borbonica.re/</t>
+  </si>
+  <si>
+    <t>Borbonica</t>
+  </si>
+  <si>
+    <t>https://www.mi-aime-a-ou.com/flore_ile_reunion.php</t>
+  </si>
+  <si>
+    <t>Mi aime a ou - Flore</t>
+  </si>
+  <si>
+    <t>https://identify.plantnet.org/fr/reunion/species</t>
+  </si>
+  <si>
+    <t>Plantnet Réunion</t>
+  </si>
+  <si>
+    <t>https://zinvaziv.re/</t>
+  </si>
+  <si>
+    <t>Zinvaziv</t>
+  </si>
+  <si>
+    <t>https://daupi.cbnm.org/</t>
+  </si>
+  <si>
+    <t>DAUPI</t>
+  </si>
+  <si>
+    <t>Milieu Marin</t>
+  </si>
+  <si>
+    <t>Acoustique</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/a/oceansonics.com/ocean-sonics-resource-site/Current-Releases/lucy</t>
+  </si>
+  <si>
+    <t>Lucy - Ocean Sonics Resources</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Biodiversit%C3%A9_marine_des_lagons_de_La_R%C3%A9union</t>
+  </si>
+  <si>
+    <t>Biodiversité marine des lagons de La Réunion – wikipédia</t>
+  </si>
+  <si>
+    <t>BORBONICA</t>
+  </si>
+  <si>
+    <t>http://www.coralsoftheworld.org/page/home/</t>
+  </si>
+  <si>
+    <t>Corals of the world</t>
+  </si>
+  <si>
+    <t>http://coraux.univ-reunion.fr/spip.php?article35</t>
+  </si>
+  <si>
+    <t>Coraux de La Réunion - Univ</t>
+  </si>
+  <si>
+    <t>https://horizon.documentation.ird.fr/exl-doc/pleins_textes/ed-09-10/010050352.pdf</t>
+  </si>
+  <si>
+    <t>Crustacées de la Réunion</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/search.php</t>
+  </si>
+  <si>
+    <t>Fishbase</t>
+  </si>
+  <si>
+    <t>https://resourcewatch.org/data/explore?section=Discover&amp;selectedCollection=&amp;zoom=3&amp;lat=-8.92848706266558&amp;lng=57.56835937499995&amp;pitch=0&amp;bearing=0&amp;basemap=dark&amp;labels=light&amp;layers=%255B%257B%2522dataset%2522%253A%25226acb7469-29b4-4712-8254-8c130314337b%2522%252C%2522opacity%2522%253A1%252C%2522layer%2522%253A%2522c39c9ff7-632a-4f94-a748-1a9cd9649ed6%2522%257D%255D&amp;aoi=&amp;page=1&amp;sort=most-viewed&amp;sortDirection=-1</t>
+  </si>
+  <si>
+    <t>Map mondial recif corallien</t>
+  </si>
+  <si>
+    <t>https://datamermaid.org/</t>
+  </si>
+  <si>
+    <t>Marine Ecological Research Management Aid</t>
+  </si>
+  <si>
+    <t>https://coralreefwatch.noaa.gov/product/vs/timeseries/western_indian_ocean.php</t>
+  </si>
+  <si>
+    <t>NOAA Coral Reef Watch</t>
+  </si>
+  <si>
+    <t>http://www.marinespecies.org/aphia.php?p=taxdetails&amp;id=219014</t>
+  </si>
+  <si>
+    <t>WORMS</t>
+  </si>
+  <si>
+    <t>Conditions marines</t>
+  </si>
+  <si>
+    <t>http://www.meteor-oi.re/index.php/observations-meteorologiques/le-reseau-climatologique/</t>
+  </si>
+  <si>
+    <t>Données stations météos</t>
+  </si>
+  <si>
+    <t>https://maree.shom.fr/harbor/POINTE_DES_GALETS/hlt/0?date=2021-10-19&amp;utc=4</t>
+  </si>
+  <si>
+    <t>Marées SHOM</t>
+  </si>
+  <si>
+    <t>https://www.m-r.li/mtofrbul/compil_carte_observation_mf_10_jours.php</t>
+  </si>
+  <si>
+    <t>Pluviométrie</t>
+  </si>
+  <si>
+    <t>https://www.windy.com/?-21.100,55.600,5</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Données milieu marin</t>
+  </si>
+  <si>
+    <t>http://envlit.ifremer.fr/var/envlit/storage/documents/atlas_DCE/Reunion/RUN/carte</t>
+  </si>
+  <si>
+    <t>ATLAS DCE</t>
+  </si>
+  <si>
+    <t>https://oceans-indien-austral.milieumarinfrance.fr/</t>
+  </si>
+  <si>
+    <t>Plateforme milieu marin France</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/habitat/cd_typo/26</t>
+  </si>
+  <si>
+    <t>Référentiel Habitats marins</t>
+  </si>
+  <si>
+    <t>https://sextant.ifremer.fr/ocean-indien</t>
+  </si>
+  <si>
+    <t>Sextant</t>
+  </si>
+  <si>
+    <t>https://wwz.ifremer.fr/surval/</t>
+  </si>
+  <si>
+    <t>SURVAL</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>https://allencoralatlas.org/atlas/#6.64/-21.2085/56.2301</t>
+  </si>
+  <si>
+    <t>Allen Coral Atlas</t>
+  </si>
+  <si>
+    <t>https://portal.emodnet-bathymetry.eu/</t>
+  </si>
+  <si>
+    <t>Bathymétrie mondiale</t>
+  </si>
+  <si>
+    <t>https://www.marineregions.org/</t>
+  </si>
+  <si>
+    <t>Carto ZEE Mondiale</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>https://www.icriforum.org/restoration/coral-restoration-database/</t>
+  </si>
+  <si>
+    <t>Coral Restauration Database</t>
+  </si>
+  <si>
+    <t>https://prelevements-hydro.ifremer.fr/presentation.html</t>
+  </si>
+  <si>
+    <t>Protocole prélèvements hydro</t>
+  </si>
+  <si>
+    <t>Reptiles</t>
+  </si>
+  <si>
+    <t>https://natureoceanindien.org/Reptiles-reunion/</t>
+  </si>
+  <si>
+    <t>Nature Ocean Idien - Reptiles</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Associations</t>
+  </si>
+  <si>
+    <t>https://natureoceanindien.org/</t>
+  </si>
+  <si>
+    <t>Nature Océan Indien</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>https://www.reunion.developpement-durable.gouv.fr/</t>
+  </si>
+  <si>
+    <t>DEAL</t>
+  </si>
+  <si>
+    <t>https://www.vogelwarte.ch/fr/oiseaux/jeu/</t>
+  </si>
+  <si>
+    <t>Vogewarte</t>
+  </si>
+  <si>
+    <t>Réglementaire</t>
+  </si>
+  <si>
+    <t>Code de l'environnement</t>
+  </si>
+  <si>
+    <t>Etude d'impact</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108640/#LEGISCTA000006108640</t>
+  </si>
+  <si>
+    <t>Etude d'impact ou cas par cas ?</t>
+  </si>
+  <si>
+    <t>ANNEXES (Articles Annexe à l'article R122-2 à Annexe à la section 1 du chapitre III du titre IX du livre V)</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006074220/LEGISCTA000006108631/#LEGISCTA000006108631</t>
+  </si>
+  <si>
+    <t>Code de l'environnement legifrance</t>
+  </si>
+  <si>
+    <t>Risques</t>
+  </si>
+  <si>
+    <t>Georisques</t>
+  </si>
+  <si>
+    <t>https://www.georisques.gouv.fr/</t>
+  </si>
+  <si>
+    <t>Géorisques</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>AuRa</t>
+  </si>
+  <si>
+    <t>Génréral</t>
+  </si>
+  <si>
+    <t>https://www.frane-auvergne-environnement.fr/index.php</t>
+  </si>
+  <si>
+    <t>Frane</t>
+  </si>
+  <si>
+    <t>Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>https://cerclenaturalisteetudiants.wordpress.com/</t>
+  </si>
+  <si>
+    <t>Cercle Naturaliste des Etudiants Rennais</t>
+  </si>
+  <si>
+    <t>Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t>Loiret</t>
+  </si>
+  <si>
+    <t>https://somosorleans.org/</t>
+  </si>
+  <si>
+    <t>Société pour le Muséum d’Orléans et les Sciences (So.MOS)</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Ecologues</t>
+  </si>
+  <si>
+    <t>https://afie-asso.fr/?article1</t>
   </si>
   <si>
     <t xml:space="preserve">Association Française Interprofessionnelle des Ecologues
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.aspas-nature.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspas-nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://faunedefrance.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fédération Française des Sociétés de Sciences Naturelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte Naturalistes des Terres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://carabes.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARABES – Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.natureo.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natureo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBOCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sbocc.fr/calendrier/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendrier SBOCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouches-du-Rhônes (13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lesnaturalistesdeletoile.com/index.php/liens-utiles-botanique/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les Naturalistes de l’étoile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linneenne-provence.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Société Linnéenne de Provence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cen-paca.org/participer/agenda/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agenda CEN PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.faune-paca.org/index.php?m_id=20006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPO – FAUNE PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bureau d'étude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mtda.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agence MTDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le meilleur BE de la terre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portail-documentaire.cbnmc.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN Massif Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbn-alpin.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN Alpin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbnbl.org/digitale2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBN Bailleul – Digitale2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DREAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DREAL PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etablissement Public Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alarencontredelalande.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A la rencontre de la lande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tourduvalat.centredoc.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Tour du Valat</t>
+    <t>https://www.aspas-nature.org/</t>
+  </si>
+  <si>
+    <t>Aspas-nature</t>
+  </si>
+  <si>
+    <t>https://faunedefrance.org/</t>
+  </si>
+  <si>
+    <t>Fédération Française des Sociétés de Sciences Naturelles</t>
+  </si>
+  <si>
+    <t>https://naturalistesdesterres.gogocarto.fr/map#/carte/@47.36,2.65,5z?cat=all</t>
+  </si>
+  <si>
+    <t>Carte Naturalistes des Terres</t>
+  </si>
+  <si>
+    <t>https://carabes.fr/</t>
+  </si>
+  <si>
+    <t>CARABES – Association</t>
+  </si>
+  <si>
+    <t>https://www.natureo.org/</t>
+  </si>
+  <si>
+    <t>Natureo</t>
+  </si>
+  <si>
+    <t>SBOCC</t>
+  </si>
+  <si>
+    <t>https://sbocc.fr/calendrier/</t>
+  </si>
+  <si>
+    <t>Calendrier SBOCC</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhônes (13)</t>
+  </si>
+  <si>
+    <t>https://lesnaturalistesdeletoile.com/index.php/liens-utiles-botanique/</t>
+  </si>
+  <si>
+    <t>Les Naturalistes de l’étoile</t>
+  </si>
+  <si>
+    <t>https://www.linneenne-provence.org/</t>
+  </si>
+  <si>
+    <t>Société Linnéenne de Provence</t>
+  </si>
+  <si>
+    <t>https://cen-paca.org/participer/agenda/</t>
+  </si>
+  <si>
+    <t>Agenda CEN PACA</t>
+  </si>
+  <si>
+    <t>https://www.faune-paca.org/index.php?m_id=20006</t>
+  </si>
+  <si>
+    <t>LPO – FAUNE PACA</t>
+  </si>
+  <si>
+    <t>Bureau d'étude</t>
+  </si>
+  <si>
+    <t>MTDA</t>
+  </si>
+  <si>
+    <t>https://www.mtda.fr/</t>
+  </si>
+  <si>
+    <t>Agence MTDA</t>
+  </si>
+  <si>
+    <t>Le meilleur BE de la terre</t>
+  </si>
+  <si>
+    <t>CBN</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>https://portail-documentaire.cbnmc.fr/</t>
+  </si>
+  <si>
+    <t>CBN Massif Central</t>
+  </si>
+  <si>
+    <t>https://www.cbn-alpin.fr/</t>
+  </si>
+  <si>
+    <t>CBN Alpin</t>
+  </si>
+  <si>
+    <t>https://www.cbnbl.org/digitale2</t>
+  </si>
+  <si>
+    <t>CBN Bailleul – Digitale2</t>
+  </si>
+  <si>
+    <t>DREAL</t>
+  </si>
+  <si>
+    <t>https://www.paca.developpement-durable.gouv.fr/thematiques-r3158.html</t>
+  </si>
+  <si>
+    <t>DREAL PACA</t>
+  </si>
+  <si>
+    <t>Etablissement Public Local</t>
+  </si>
+  <si>
+    <t>https://www.alarencontredelalande.fr/</t>
+  </si>
+  <si>
+    <t>A la rencontre de la lande</t>
+  </si>
+  <si>
+    <t>Réserve</t>
+  </si>
+  <si>
+    <t>https://tourduvalat.centredoc.fr/</t>
+  </si>
+  <si>
+    <t>La Tour du Valat</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/loda/id/JORFTEXT000000548796</t>
+  </si>
+  <si>
+    <t>Espèce protégée</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/loda/id/JORFTEXT000000865328/</t>
+  </si>
+  <si>
+    <t>Flore protégée en France</t>
+  </si>
+  <si>
+    <t>Flore protégées en PACA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2520,22 +2537,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -2552,7 +2554,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2560,93 +2562,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2705,70 +2638,374 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:XFD327"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD329"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="80.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="81.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="10" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.54"/>
+    <col min="1" max="2" width="19.453125" style="1"/>
+    <col min="3" max="3" width="31.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1"/>
+    <col min="5" max="5" width="80.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16383" width="19.453125" style="1"/>
+    <col min="16384" max="16384" width="11.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2781,17 +3018,14 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +3045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2831,7 +3065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +3085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2871,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2881,20 +3115,17 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2914,7 +3145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +3162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2947,11 +3178,11 @@
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2968,7 +3199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2995,20 +3226,17 @@
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3041,20 +3269,17 @@
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3064,27 +3289,24 @@
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3097,37 +3319,34 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3140,14 +3359,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3160,14 +3379,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3177,7 +3396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3214,7 +3433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -3234,7 +3453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3487,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3318,14 +3537,14 @@
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3378,14 +3597,14 @@
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3398,14 +3617,14 @@
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3418,14 +3637,14 @@
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3458,14 +3677,14 @@
       <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3505,7 +3724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3764,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3585,7 +3804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3824,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3625,7 +3844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3645,7 +3864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -3685,7 +3904,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -3739,7 +3958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -3759,7 +3978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +4018,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -3819,7 +4038,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -3839,7 +4058,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -3858,11 +4077,11 @@
       <c r="F56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -3882,7 +4101,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -3904,14 +4123,14 @@
       <c r="G58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="1">
         <v>5</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -3928,14 +4147,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3945,7 +4164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -3962,7 +4181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -3979,14 +4198,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3999,14 +4218,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4019,14 +4238,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4039,14 +4258,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4059,7 +4278,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4079,7 +4298,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -4099,7 +4318,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4119,7 +4338,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -4139,7 +4358,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -4159,7 +4378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -4179,7 +4398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +4432,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -4230,7 +4449,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -4247,7 +4466,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -4264,7 +4483,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -4281,7 +4500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -4298,7 +4517,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4534,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -4332,7 +4551,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4368,11 +4587,11 @@
       <c r="F83" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -4391,14 +4610,14 @@
       <c r="F84" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H84" s="1" t="n">
+      <c r="H84" s="1">
         <v>8</v>
       </c>
-      <c r="I84" s="1" t="n">
+      <c r="I84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -4418,7 +4637,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -4438,7 +4657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -4458,7 +4677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -4478,14 +4697,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4498,14 +4717,14 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4518,7 +4737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4757,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -4558,7 +4777,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -4578,7 +4797,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -4598,7 +4817,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -4618,7 +4837,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -4631,20 +4850,20 @@
       <c r="D96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H96" s="1" t="n">
+      <c r="H96" s="1">
         <v>8</v>
       </c>
-      <c r="I96" s="1" t="n">
+      <c r="I96" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -4661,7 +4880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +4914,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -4712,7 +4931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -4729,7 +4948,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -4746,7 +4965,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -4756,14 +4975,14 @@
       <c r="C103" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -4780,7 +4999,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +5016,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -4814,7 +5033,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +5053,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +5073,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +5093,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -4894,7 +5113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -4914,7 +5133,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -4934,7 +5153,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -4954,7 +5173,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +5193,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -4994,7 +5213,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -5014,7 +5233,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -5034,7 +5253,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -5054,7 +5273,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -5074,7 +5293,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -5094,7 +5313,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -5114,7 +5333,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -5131,7 +5350,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -5151,7 +5370,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -5168,7 +5387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -5184,14 +5403,14 @@
       <c r="F125" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H125" s="1" t="n">
+      <c r="H125" s="1">
         <v>8</v>
       </c>
-      <c r="I125" s="1" t="n">
+      <c r="I125" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -5211,7 +5430,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -5231,7 +5450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -5251,7 +5470,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -5271,7 +5490,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -5291,7 +5510,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
@@ -5328,7 +5547,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
@@ -5348,7 +5567,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -5358,14 +5577,14 @@
       <c r="C134" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="2" t="s">
         <v>335</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -5385,7 +5604,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -5405,7 +5624,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
@@ -5418,14 +5637,14 @@
       <c r="D137" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
@@ -5442,7 +5661,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5678,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
@@ -5479,7 +5698,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent